--- a/Mãu chấm công_Tài Liệu.xlsx
+++ b/Mãu chấm công_Tài Liệu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TÂN HÀ TU\BẢNG LƯƠNG TRẠM HÀ TU\T7-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNC\Downloads\AssignmentChamCong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADE89C1-B256-409A-BC20-FEEDFF3215C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E57D43-BB2A-40C0-8CE1-836ED7B6A0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kho 15 " sheetId="21" r:id="rId1"/>
@@ -43,23 +43,11 @@
     <definedName name="huy" hidden="1">{"'Sheet1'!$L$16"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="97">
   <si>
     <t>XÍ NGHIỆP VẬT TƯ HÒN GAI</t>
   </si>
@@ -343,6 +331,15 @@
   <si>
     <t xml:space="preserve">               Tháng  07  năm 2022</t>
   </si>
+  <si>
+    <t>SP : Ca Ngày</t>
+  </si>
+  <si>
+    <t>SP3 : Ca Đêm</t>
+  </si>
+  <si>
+    <t>P : Cả ngày (full time)</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +374,7 @@
     <numFmt numFmtId="185" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="186" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="100">
+  <fonts count="99">
     <font>
       <sz val="13"/>
       <name val=".VnTime"/>
@@ -942,16 +939,8 @@
       <name val=".VnAvant"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,13 +980,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="63">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1755,21 +1739,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1812,7 +1781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1944,9 +1913,8 @@
     <xf numFmtId="184" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="99" fillId="8" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2489,7 +2457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="99" fillId="8" borderId="59" xfId="93"/>
     <xf numFmtId="186" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2529,10 +2496,10 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="47" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="47" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="47" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="47" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2555,12 +2522,12 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2577,8 +2544,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,7 +2566,7 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="63" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="63" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2632,14 +2599,14 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="47" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="47" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2660,7 +2627,28 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2679,65 +2667,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2790,53 +2778,32 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2862,6 +2829,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2870,13 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2902,8 +2869,18 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="93">
     <cellStyle name="?_x001d_??%U©÷u&amp;H©÷9_x0008_? s_x000a__x0007__x0001__x0001_" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="???? [0.00]_PRODUCT DETAIL Q1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="????_PRODUCT DETAIL Q1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2922,13 +2899,13 @@
     <cellStyle name="AÞ¸¶ [0]_INQUIRY ¿?¾÷AßAø " xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="ÄÞ¸¶_1" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="AÞ¸¶_INQUIRY ¿?¾÷AßAø " xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Body" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="C?AØ_¿?¾÷CoE² " xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="C￥AØ_¿μ¾÷CoE² " xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Ç¥ÁØ_PO0862_bldg_BQ" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="Calc Currency (0)" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="category" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma  - Style1" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Comma  - Style2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Comma  - Style3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
@@ -2943,7 +2920,6 @@
     <cellStyle name="Copied" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Currency0" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Date" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
     <cellStyle name="Dezimal [0]_NEGS" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Dezimal_NEGS" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Entered" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
@@ -2962,6 +2938,7 @@
     <cellStyle name="Moneda [0]_Well Timing" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Moneda_Well Timing" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="n" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Normal 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="per.style" xfId="60" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
@@ -2975,7 +2952,6 @@
     <cellStyle name="Subtotal" xfId="68" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="T" xfId="69" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="th" xfId="70" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Tính toán" xfId="93" builtinId="22"/>
     <cellStyle name="viet" xfId="71" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="viet2" xfId="72" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name=" [0.00]_ Att. 1- Cover" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
@@ -5473,7 +5449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5821,110 +5797,110 @@
       <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="L2" s="311" t="s">
+      <c r="B2" s="306"/>
+      <c r="L2" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="306" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="L3" s="311" t="s">
+      <c r="B3" s="306"/>
+      <c r="L3" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="311"/>
-      <c r="N3" s="311"/>
-      <c r="O3" s="311"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="306"/>
+      <c r="O3" s="306"/>
     </row>
     <row r="4" spans="1:15" ht="22.5">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="312"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="312"/>
-      <c r="O4" s="312"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="302"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="308"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="308"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="308"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="303" t="s">
+      <c r="C6" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="304" t="s">
+      <c r="D6" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="306" t="s">
+      <c r="E6" s="311"/>
+      <c r="F6" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="307"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="308" t="s">
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="308" t="s">
+      <c r="J6" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="308" t="s">
+      <c r="K6" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="306" t="s">
+      <c r="L6" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="310"/>
-      <c r="N6" s="303" t="s">
+      <c r="M6" s="314"/>
+      <c r="N6" s="309" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="303" t="s">
+      <c r="O6" s="309" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
@@ -5940,49 +5916,49 @@
       <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
+      <c r="N7" s="309"/>
+      <c r="O7" s="309"/>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A8" s="252">
+      <c r="A8" s="251">
         <v>1</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="252" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="254">
+      <c r="D8" s="253">
         <v>26</v>
       </c>
-      <c r="E8" s="254">
+      <c r="E8" s="253">
         <v>0</v>
       </c>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254">
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253">
         <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
         <v>26</v>
       </c>
-      <c r="J8" s="254">
+      <c r="J8" s="253">
         <v>26</v>
       </c>
-      <c r="K8" s="254">
+      <c r="K8" s="253">
         <f>J8</f>
         <v>26</v>
       </c>
-      <c r="L8" s="262" t="s">
+      <c r="L8" s="261" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="226"/>
@@ -5990,34 +5966,34 @@
       <c r="O8" s="226"/>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A9" s="255">
+      <c r="A9" s="254">
         <v>2</v>
       </c>
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="255" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="257">
+      <c r="D9" s="256">
         <v>20</v>
       </c>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257">
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J9" s="257">
+      <c r="J9" s="256">
         <v>20</v>
       </c>
-      <c r="K9" s="257">
+      <c r="K9" s="256">
         <f t="shared" ref="K9:K16" si="1">J9</f>
         <v>20</v>
       </c>
-      <c r="L9" s="263" t="s">
+      <c r="L9" s="262" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="227"/>
@@ -6025,147 +6001,147 @@
       <c r="O9" s="227"/>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A10" s="252">
+      <c r="A10" s="251">
         <v>3</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="263" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="257">
+      <c r="D10" s="256">
         <v>24</v>
       </c>
-      <c r="E10" s="257">
+      <c r="E10" s="256">
         <v>12</v>
       </c>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257">
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J10" s="265">
+      <c r="J10" s="264">
         <v>36</v>
       </c>
-      <c r="K10" s="257">
+      <c r="K10" s="256">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="L10" s="263" t="s">
+      <c r="L10" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="255"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A11" s="255">
+      <c r="A11" s="254">
         <v>4</v>
       </c>
-      <c r="B11" s="264" t="s">
+      <c r="B11" s="263" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="257">
+      <c r="D11" s="256">
         <v>17</v>
       </c>
-      <c r="E11" s="257">
+      <c r="E11" s="256">
         <v>14</v>
       </c>
-      <c r="F11" s="257"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="257">
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J11" s="265">
+      <c r="J11" s="264">
         <v>31</v>
       </c>
-      <c r="K11" s="257">
+      <c r="K11" s="256">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L11" s="263" t="s">
+      <c r="L11" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="263"/>
-      <c r="N11" s="255"/>
-      <c r="O11" s="255"/>
+      <c r="M11" s="262"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A12" s="252">
+      <c r="A12" s="251">
         <v>5</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="263" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="257">
+      <c r="D12" s="256">
         <v>6</v>
       </c>
-      <c r="E12" s="257">
+      <c r="E12" s="256">
         <v>5</v>
       </c>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="257">
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J12" s="265">
+      <c r="J12" s="264">
         <v>11</v>
       </c>
-      <c r="K12" s="257">
+      <c r="K12" s="256">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L12" s="263" t="s">
+      <c r="L12" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="263"/>
-      <c r="N12" s="255"/>
-      <c r="O12" s="255"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="254"/>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A13" s="255">
+      <c r="A13" s="254">
         <v>6</v>
       </c>
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="255" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="257">
+      <c r="D13" s="256">
         <v>24</v>
       </c>
-      <c r="E13" s="257"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266">
+      <c r="E13" s="256"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="265">
         <v>8</v>
       </c>
-      <c r="H13" s="266"/>
-      <c r="I13" s="257">
+      <c r="H13" s="265"/>
+      <c r="I13" s="256">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J13" s="267">
+      <c r="J13" s="266">
         <v>24</v>
       </c>
-      <c r="K13" s="257">
+      <c r="K13" s="256">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L13" s="263" t="s">
+      <c r="L13" s="262" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="231"/>
@@ -6173,116 +6149,116 @@
       <c r="O13" s="231"/>
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A14" s="252">
+      <c r="A14" s="251">
         <v>7</v>
       </c>
-      <c r="B14" s="289" t="s">
+      <c r="B14" s="288" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="290">
+      <c r="D14" s="289">
         <v>30</v>
       </c>
-      <c r="E14" s="290"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="290">
+      <c r="E14" s="289"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="289">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J14" s="267">
+      <c r="J14" s="266">
         <v>30</v>
       </c>
-      <c r="K14" s="257">
+      <c r="K14" s="256">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L14" s="263" t="s">
+      <c r="L14" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="292"/>
-      <c r="N14" s="292"/>
-      <c r="O14" s="292"/>
+      <c r="M14" s="291"/>
+      <c r="N14" s="291"/>
+      <c r="O14" s="291"/>
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A15" s="255">
+      <c r="A15" s="254">
         <v>8</v>
       </c>
-      <c r="B15" s="289" t="s">
+      <c r="B15" s="288" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="290">
+      <c r="D15" s="289">
         <v>30</v>
       </c>
-      <c r="E15" s="290"/>
-      <c r="F15" s="291"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="291"/>
-      <c r="I15" s="290">
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="289">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J15" s="301">
+      <c r="J15" s="300">
         <v>30</v>
       </c>
-      <c r="K15" s="290">
+      <c r="K15" s="289">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L15" s="263" t="s">
+      <c r="L15" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="292"/>
-      <c r="N15" s="292"/>
-      <c r="O15" s="292"/>
+      <c r="M15" s="291"/>
+      <c r="N15" s="291"/>
+      <c r="O15" s="291"/>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A16" s="252">
+      <c r="A16" s="251">
         <v>9</v>
       </c>
-      <c r="B16" s="259" t="s">
+      <c r="B16" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="260" t="s">
+      <c r="C16" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="261">
+      <c r="D16" s="260">
         <v>9</v>
       </c>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261">
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J16" s="268">
+      <c r="J16" s="267">
         <v>9</v>
       </c>
-      <c r="K16" s="261">
+      <c r="K16" s="260">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L16" s="269" t="s">
+      <c r="L16" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="260"/>
-      <c r="N16" s="260"/>
-      <c r="O16" s="260"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
     </row>
     <row r="17" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="315" t="s">
+      <c r="A17" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="315"/>
-      <c r="C17" s="315"/>
+      <c r="B17" s="305"/>
+      <c r="C17" s="305"/>
       <c r="D17" s="3">
         <f>SUM(D8:D16)</f>
         <v>186</v>
@@ -6318,17 +6294,17 @@
       <c r="O17" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="313" t="s">
+      <c r="A19" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="313"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="313" t="s">
+      <c r="B19" s="301"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="313"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
@@ -6336,43 +6312,30 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="313" t="s">
+      <c r="M19" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="313"/>
-      <c r="O19" s="313"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="314" t="s">
+      <c r="A25" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="314"/>
-      <c r="C25" s="314"/>
-      <c r="D25" s="311" t="s">
+      <c r="B25" s="304"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="311"/>
-      <c r="H25" s="288"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="304"/>
+      <c r="J25" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -6384,6 +6347,19 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6394,7 +6370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -6421,168 +6397,168 @@
       <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="L2" s="311" t="s">
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="L2" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="L3" s="311" t="s">
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="L3" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="311"/>
-      <c r="N3" s="311"/>
-      <c r="O3" s="311"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="306"/>
+      <c r="O3" s="306"/>
     </row>
     <row r="4" spans="1:17" ht="22.5">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="312"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="312"/>
-      <c r="O4" s="312"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="302"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="308"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="308"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="308"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="303" t="s">
+      <c r="C6" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="304" t="s">
+      <c r="D6" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="306" t="s">
+      <c r="E6" s="311"/>
+      <c r="F6" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="307"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="308" t="s">
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="308" t="s">
+      <c r="J6" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="308" t="s">
+      <c r="K6" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="306" t="s">
+      <c r="L6" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="310"/>
-      <c r="N6" s="303" t="s">
+      <c r="M6" s="314"/>
+      <c r="N6" s="309" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="303" t="s">
+      <c r="O6" s="309" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="48" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="239" t="s">
+      <c r="F7" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="239" t="s">
+      <c r="G7" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="239" t="s">
+      <c r="H7" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
+      <c r="N7" s="309"/>
+      <c r="O7" s="309"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="252">
+      <c r="A8" s="251">
         <v>1</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="252" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="226" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="254">
+      <c r="D8" s="253">
         <v>30</v>
       </c>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254">
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253">
         <f t="shared" ref="I8:I13" si="0">SUM(D8:H8)</f>
         <v>30</v>
       </c>
-      <c r="J8" s="254">
+      <c r="J8" s="253">
         <v>30</v>
       </c>
-      <c r="K8" s="254">
+      <c r="K8" s="253">
         <f>J8</f>
         <v>30</v>
       </c>
-      <c r="L8" s="252" t="s">
+      <c r="L8" s="251" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="226"/>
@@ -6590,36 +6566,36 @@
       <c r="O8" s="226"/>
     </row>
     <row r="9" spans="1:17" ht="18.75">
-      <c r="A9" s="255">
+      <c r="A9" s="254">
         <v>3</v>
       </c>
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="255" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="257">
+      <c r="D9" s="256">
         <v>19</v>
       </c>
-      <c r="E9" s="257">
+      <c r="E9" s="256">
         <v>11</v>
       </c>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257">
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J9" s="257">
+      <c r="J9" s="256">
         <v>30</v>
       </c>
-      <c r="K9" s="254">
+      <c r="K9" s="253">
         <f t="shared" ref="K9:K13" si="1">J9</f>
         <v>30</v>
       </c>
-      <c r="L9" s="255" t="s">
+      <c r="L9" s="254" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="227"/>
@@ -6628,36 +6604,36 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="18.75">
-      <c r="A10" s="255">
+      <c r="A10" s="254">
         <v>4</v>
       </c>
-      <c r="B10" s="256" t="s">
+      <c r="B10" s="255" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="257">
+      <c r="D10" s="256">
         <v>17</v>
       </c>
-      <c r="E10" s="257">
+      <c r="E10" s="256">
         <v>14</v>
       </c>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257">
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J10" s="257">
+      <c r="J10" s="256">
         <v>31</v>
       </c>
-      <c r="K10" s="254">
+      <c r="K10" s="253">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L10" s="255" t="s">
+      <c r="L10" s="254" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="227"/>
@@ -6665,36 +6641,36 @@
       <c r="O10" s="227"/>
     </row>
     <row r="11" spans="1:17" ht="18.75">
-      <c r="A11" s="255">
+      <c r="A11" s="254">
         <v>5</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="255" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="257">
+      <c r="D11" s="256">
         <v>9</v>
       </c>
-      <c r="E11" s="257">
+      <c r="E11" s="256">
         <v>10</v>
       </c>
-      <c r="F11" s="257"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="257">
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J11" s="257">
+      <c r="J11" s="256">
         <v>19</v>
       </c>
-      <c r="K11" s="254">
+      <c r="K11" s="253">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L11" s="255" t="s">
+      <c r="L11" s="254" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="227"/>
@@ -6702,36 +6678,36 @@
       <c r="O11" s="227"/>
     </row>
     <row r="12" spans="1:17" ht="18.75">
-      <c r="A12" s="255">
+      <c r="A12" s="254">
         <v>6</v>
       </c>
-      <c r="B12" s="256" t="s">
+      <c r="B12" s="255" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="257">
+      <c r="D12" s="256">
         <v>17</v>
       </c>
-      <c r="E12" s="257">
+      <c r="E12" s="256">
         <v>14</v>
       </c>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="257">
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J12" s="257">
+      <c r="J12" s="256">
         <v>31</v>
       </c>
-      <c r="K12" s="254">
+      <c r="K12" s="253">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L12" s="255" t="s">
+      <c r="L12" s="254" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="227"/>
@@ -6739,48 +6715,48 @@
       <c r="O12" s="227"/>
     </row>
     <row r="13" spans="1:17" ht="18.75">
-      <c r="A13" s="258">
+      <c r="A13" s="257">
         <v>7</v>
       </c>
-      <c r="B13" s="259" t="s">
+      <c r="B13" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="260" t="s">
+      <c r="C13" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="261">
+      <c r="D13" s="260">
         <v>17</v>
       </c>
-      <c r="E13" s="261">
+      <c r="E13" s="260">
         <v>13</v>
       </c>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261">
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J13" s="261">
+      <c r="J13" s="260">
         <v>30</v>
       </c>
-      <c r="K13" s="254">
+      <c r="K13" s="253">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L13" s="258" t="s">
+      <c r="L13" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="260"/>
-      <c r="N13" s="260"/>
-      <c r="O13" s="260"/>
+      <c r="M13" s="259"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A14" s="315" t="s">
+      <c r="A14" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="315"/>
-      <c r="C14" s="315"/>
+      <c r="B14" s="305"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="3">
         <f t="shared" ref="D14:K14" si="2">SUM(D8:D13)</f>
         <v>109</v>
@@ -6820,60 +6796,49 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="313" t="s">
+      <c r="A16" s="301" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="313"/>
-      <c r="C16" s="313"/>
+      <c r="B16" s="301"/>
+      <c r="C16" s="301"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="313" t="s">
+      <c r="E16" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313" t="s">
+      <c r="F16" s="301"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="313"/>
-      <c r="K16" s="313"/>
-      <c r="L16" s="313"/>
-      <c r="M16" s="313" t="s">
+      <c r="J16" s="301"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="313"/>
-      <c r="O16" s="313"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="314" t="s">
+      <c r="A22" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="314"/>
-      <c r="C22" s="314"/>
-      <c r="E22" s="314" t="s">
+      <c r="B22" s="304"/>
+      <c r="C22" s="304"/>
+      <c r="E22" s="304" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="314"/>
-      <c r="G22" s="314"/>
-      <c r="H22" s="314"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="251"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="250"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="L2:O2"/>
@@ -6887,6 +6852,17 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6897,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FQ176"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14:AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -6941,7 +6917,8 @@
     <col min="39" max="39" width="4.21875" style="133" customWidth="1"/>
     <col min="40" max="40" width="6.44140625" style="134" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="3" style="130" customWidth="1"/>
-    <col min="42" max="258" width="8.88671875" style="130"/>
+    <col min="42" max="42" width="15" style="130" customWidth="1"/>
+    <col min="43" max="258" width="8.88671875" style="130"/>
     <col min="259" max="259" width="2.21875" style="130" customWidth="1"/>
     <col min="260" max="260" width="14.6640625" style="130" customWidth="1"/>
     <col min="261" max="261" width="3" style="130" customWidth="1"/>
@@ -8394,13 +8371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="15" customHeight="1">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
       <c r="H1" s="117"/>
       <c r="I1" s="117"/>
       <c r="J1" s="117"/>
@@ -8426,13 +8403,13 @@
       <c r="AG1" s="117"/>
     </row>
     <row r="2" spans="1:51" ht="14.25" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
       <c r="F2" s="135"/>
       <c r="G2" s="135"/>
       <c r="H2" s="136"/>
@@ -8470,183 +8447,183 @@
       <c r="AN2" s="141"/>
     </row>
     <row r="3" spans="1:51" ht="24" customHeight="1">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="347"/>
-      <c r="S3" s="347"/>
-      <c r="T3" s="347"/>
-      <c r="U3" s="347"/>
-      <c r="V3" s="347"/>
-      <c r="W3" s="347"/>
-      <c r="X3" s="347"/>
-      <c r="Y3" s="347"/>
-      <c r="Z3" s="347"/>
-      <c r="AA3" s="347"/>
-      <c r="AB3" s="347"/>
-      <c r="AC3" s="347"/>
-      <c r="AD3" s="347"/>
-      <c r="AE3" s="347"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="347"/>
-      <c r="AH3" s="347"/>
-      <c r="AI3" s="347"/>
-      <c r="AJ3" s="347"/>
-      <c r="AK3" s="347"/>
-      <c r="AL3" s="347"/>
-      <c r="AM3" s="347"/>
-      <c r="AN3" s="347"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="329"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="329"/>
+      <c r="U3" s="329"/>
+      <c r="V3" s="329"/>
+      <c r="W3" s="329"/>
+      <c r="X3" s="329"/>
+      <c r="Y3" s="329"/>
+      <c r="Z3" s="329"/>
+      <c r="AA3" s="329"/>
+      <c r="AB3" s="329"/>
+      <c r="AC3" s="329"/>
+      <c r="AD3" s="329"/>
+      <c r="AE3" s="329"/>
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="329"/>
+      <c r="AH3" s="329"/>
+      <c r="AI3" s="329"/>
+      <c r="AJ3" s="329"/>
+      <c r="AK3" s="329"/>
+      <c r="AL3" s="329"/>
+      <c r="AM3" s="329"/>
+      <c r="AN3" s="329"/>
     </row>
     <row r="4" spans="1:51" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="330" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="348"/>
-      <c r="C4" s="348"/>
-      <c r="D4" s="348"/>
-      <c r="E4" s="348"/>
-      <c r="F4" s="348"/>
-      <c r="G4" s="348"/>
-      <c r="H4" s="348"/>
-      <c r="I4" s="348"/>
-      <c r="J4" s="348"/>
-      <c r="K4" s="348"/>
-      <c r="L4" s="348"/>
-      <c r="M4" s="348"/>
-      <c r="N4" s="348"/>
-      <c r="O4" s="348"/>
-      <c r="P4" s="348"/>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="348"/>
-      <c r="S4" s="348"/>
-      <c r="T4" s="348"/>
-      <c r="U4" s="348"/>
-      <c r="V4" s="348"/>
-      <c r="W4" s="348"/>
-      <c r="X4" s="348"/>
-      <c r="Y4" s="348"/>
-      <c r="Z4" s="348"/>
-      <c r="AA4" s="348"/>
-      <c r="AB4" s="348"/>
-      <c r="AC4" s="348"/>
-      <c r="AD4" s="348"/>
-      <c r="AE4" s="348"/>
-      <c r="AF4" s="348"/>
-      <c r="AG4" s="348"/>
-      <c r="AH4" s="348"/>
-      <c r="AI4" s="348"/>
-      <c r="AJ4" s="348"/>
-      <c r="AK4" s="348"/>
-      <c r="AL4" s="348"/>
-      <c r="AM4" s="348"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="330"/>
+      <c r="V4" s="330"/>
+      <c r="W4" s="330"/>
+      <c r="X4" s="330"/>
+      <c r="Y4" s="330"/>
+      <c r="Z4" s="330"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="330"/>
+      <c r="AC4" s="330"/>
+      <c r="AD4" s="330"/>
+      <c r="AE4" s="330"/>
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="330"/>
+      <c r="AH4" s="330"/>
+      <c r="AI4" s="330"/>
+      <c r="AJ4" s="330"/>
+      <c r="AK4" s="330"/>
+      <c r="AL4" s="330"/>
+      <c r="AM4" s="330"/>
     </row>
     <row r="5" spans="1:51" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="349"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="349"/>
-      <c r="M5" s="349"/>
-      <c r="N5" s="349"/>
-      <c r="O5" s="349"/>
-      <c r="P5" s="349"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="U5" s="349"/>
-      <c r="V5" s="349"/>
-      <c r="W5" s="349"/>
-      <c r="X5" s="349"/>
-      <c r="Y5" s="349"/>
-      <c r="Z5" s="349"/>
-      <c r="AA5" s="349"/>
-      <c r="AB5" s="349"/>
-      <c r="AC5" s="349"/>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="349"/>
-      <c r="AF5" s="349"/>
-      <c r="AG5" s="349"/>
-      <c r="AH5" s="349"/>
-      <c r="AI5" s="349"/>
-      <c r="AJ5" s="349"/>
-      <c r="AK5" s="349"/>
-      <c r="AL5" s="349"/>
-      <c r="AM5" s="349"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="331"/>
+      <c r="AA5" s="331"/>
+      <c r="AB5" s="331"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="331"/>
+      <c r="AE5" s="331"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="331"/>
+      <c r="AH5" s="331"/>
+      <c r="AI5" s="331"/>
+      <c r="AJ5" s="331"/>
+      <c r="AK5" s="331"/>
+      <c r="AL5" s="331"/>
+      <c r="AM5" s="331"/>
       <c r="AN5" s="142"/>
     </row>
     <row r="6" spans="1:51" s="19" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="352" t="s">
+      <c r="B6" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="355"/>
-      <c r="G6" s="355"/>
-      <c r="H6" s="355"/>
-      <c r="I6" s="355"/>
-      <c r="J6" s="355"/>
-      <c r="K6" s="355"/>
-      <c r="L6" s="355"/>
-      <c r="M6" s="355"/>
-      <c r="N6" s="355"/>
-      <c r="O6" s="355"/>
-      <c r="P6" s="355"/>
-      <c r="Q6" s="355"/>
-      <c r="R6" s="355"/>
-      <c r="S6" s="355"/>
-      <c r="T6" s="355"/>
-      <c r="U6" s="355"/>
-      <c r="V6" s="355"/>
-      <c r="W6" s="355"/>
-      <c r="X6" s="355"/>
-      <c r="Y6" s="355"/>
-      <c r="Z6" s="355"/>
-      <c r="AA6" s="355"/>
-      <c r="AB6" s="355"/>
-      <c r="AC6" s="355"/>
-      <c r="AD6" s="355"/>
-      <c r="AE6" s="355"/>
-      <c r="AF6" s="355"/>
-      <c r="AG6" s="355"/>
-      <c r="AH6" s="356" t="s">
+      <c r="D6" s="321"/>
+      <c r="E6" s="321"/>
+      <c r="F6" s="321"/>
+      <c r="G6" s="321"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
+      <c r="M6" s="321"/>
+      <c r="N6" s="321"/>
+      <c r="O6" s="321"/>
+      <c r="P6" s="321"/>
+      <c r="Q6" s="321"/>
+      <c r="R6" s="321"/>
+      <c r="S6" s="321"/>
+      <c r="T6" s="321"/>
+      <c r="U6" s="321"/>
+      <c r="V6" s="321"/>
+      <c r="W6" s="321"/>
+      <c r="X6" s="321"/>
+      <c r="Y6" s="321"/>
+      <c r="Z6" s="321"/>
+      <c r="AA6" s="321"/>
+      <c r="AB6" s="321"/>
+      <c r="AC6" s="321"/>
+      <c r="AD6" s="321"/>
+      <c r="AE6" s="321"/>
+      <c r="AF6" s="321"/>
+      <c r="AG6" s="321"/>
+      <c r="AH6" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="357"/>
-      <c r="AJ6" s="357"/>
-      <c r="AK6" s="357"/>
-      <c r="AL6" s="357"/>
-      <c r="AM6" s="358"/>
-      <c r="AN6" s="359" t="s">
+      <c r="AI6" s="323"/>
+      <c r="AJ6" s="323"/>
+      <c r="AK6" s="323"/>
+      <c r="AL6" s="323"/>
+      <c r="AM6" s="324"/>
+      <c r="AN6" s="325" t="s">
         <v>61</v>
       </c>
       <c r="AP6" s="28" t="s">
@@ -8654,8 +8631,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" s="19" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="351"/>
-      <c r="B7" s="353"/>
+      <c r="A7" s="317"/>
+      <c r="B7" s="319"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -8767,30 +8744,30 @@
       <c r="AM7" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AN7" s="360"/>
+      <c r="AN7" s="326"/>
       <c r="AO7" s="149"/>
     </row>
     <row r="8" spans="1:51" s="26" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="331" t="s">
+      <c r="A8" s="337" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="334"/>
-      <c r="M8" s="334"/>
-      <c r="N8" s="334"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="335"/>
+      <c r="B8" s="338"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="340"/>
+      <c r="G8" s="340"/>
+      <c r="H8" s="340"/>
+      <c r="I8" s="340"/>
+      <c r="J8" s="340"/>
+      <c r="K8" s="340"/>
+      <c r="L8" s="340"/>
+      <c r="M8" s="340"/>
+      <c r="N8" s="340"/>
+      <c r="O8" s="340"/>
+      <c r="P8" s="340"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="341"/>
       <c r="S8" s="150"/>
       <c r="T8" s="150"/>
       <c r="U8" s="150"/>
@@ -8806,7 +8783,7 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="24"/>
-      <c r="AH8" s="284">
+      <c r="AH8" s="283">
         <f>SUM(AH9:AH17)</f>
         <v>217</v>
       </c>
@@ -8940,12 +8917,15 @@
       <c r="AM9" s="158"/>
       <c r="AN9" s="159"/>
       <c r="AO9" s="19"/>
+      <c r="AP9" s="382" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:51" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="292" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="28"/>
@@ -9029,6 +9009,9 @@
       <c r="AM10" s="158"/>
       <c r="AN10" s="159"/>
       <c r="AO10" s="19"/>
+      <c r="AP10" s="382" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:51" s="25" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="27">
@@ -9142,6 +9125,9 @@
       </c>
       <c r="AN11" s="159"/>
       <c r="AO11" s="19"/>
+      <c r="AP11" s="382" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:51" s="25" customFormat="1" ht="26.25" customHeight="1">
       <c r="A12" s="27">
@@ -9439,7 +9425,11 @@
       <c r="AM14" s="160"/>
       <c r="AN14" s="159"/>
       <c r="AO14" s="19"/>
-      <c r="AQ14"/>
+      <c r="AP14" s="385"/>
+      <c r="AQ14" s="385"/>
+      <c r="AR14" s="385"/>
+      <c r="AS14" s="385"/>
+      <c r="AT14" s="385"/>
     </row>
     <row r="15" spans="1:51" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="27">
@@ -9549,7 +9539,11 @@
       <c r="AM15" s="160"/>
       <c r="AN15" s="159"/>
       <c r="AO15" s="19"/>
-      <c r="AS15" s="232"/>
+      <c r="AP15" s="385"/>
+      <c r="AQ15" s="385"/>
+      <c r="AR15" s="385"/>
+      <c r="AS15" s="385"/>
+      <c r="AT15" s="385"/>
     </row>
     <row r="16" spans="1:51" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="27">
@@ -9653,15 +9647,19 @@
         <v>30</v>
       </c>
       <c r="AI16" s="156"/>
-      <c r="AJ16" s="285"/>
-      <c r="AK16" s="285"/>
-      <c r="AL16" s="294"/>
+      <c r="AJ16" s="284"/>
+      <c r="AK16" s="284"/>
+      <c r="AL16" s="293"/>
       <c r="AM16" s="160"/>
       <c r="AN16" s="159"/>
       <c r="AO16" s="19"/>
-      <c r="AS16" s="232"/>
-    </row>
-    <row r="17" spans="1:41" s="32" customFormat="1" ht="26.25" customHeight="1">
+      <c r="AP16" s="383"/>
+      <c r="AQ16" s="383"/>
+      <c r="AR16" s="383"/>
+      <c r="AS16" s="383"/>
+      <c r="AT16" s="383"/>
+    </row>
+    <row r="17" spans="1:46" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="27">
         <v>9</v>
       </c>
@@ -9721,18 +9719,23 @@
         <v>9</v>
       </c>
       <c r="AI17" s="156"/>
-      <c r="AJ17" s="246"/>
-      <c r="AK17" s="285"/>
-      <c r="AL17" s="247"/>
+      <c r="AJ17" s="245"/>
+      <c r="AK17" s="284"/>
+      <c r="AL17" s="246"/>
       <c r="AM17" s="160"/>
       <c r="AN17" s="159"/>
       <c r="AO17" s="19"/>
-    </row>
-    <row r="18" spans="1:41" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="336" t="s">
+      <c r="AP17" s="383"/>
+      <c r="AQ17" s="383"/>
+      <c r="AR17" s="383"/>
+      <c r="AS17" s="383"/>
+      <c r="AT17" s="383"/>
+    </row>
+    <row r="18" spans="1:46" s="32" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="342" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="337"/>
+      <c r="B18" s="343"/>
       <c r="C18" s="163"/>
       <c r="D18" s="163"/>
       <c r="E18" s="163"/>
@@ -9749,13 +9752,13 @@
       <c r="P18" s="163"/>
       <c r="Q18" s="163"/>
       <c r="R18" s="163"/>
-      <c r="S18" s="233"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="233"/>
-      <c r="V18" s="233"/>
-      <c r="W18" s="233"/>
-      <c r="X18" s="233"/>
-      <c r="Y18" s="233"/>
+      <c r="S18" s="232"/>
+      <c r="T18" s="232"/>
+      <c r="U18" s="232"/>
+      <c r="V18" s="232"/>
+      <c r="W18" s="232"/>
+      <c r="X18" s="232"/>
+      <c r="Y18" s="232"/>
       <c r="Z18" s="163"/>
       <c r="AA18" s="163"/>
       <c r="AB18" s="163"/>
@@ -9773,7 +9776,7 @@
         <f>SUM(AJ19:AJ24)</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="286">
+      <c r="AK18" s="285">
         <f>SUM(AK19:AK24)</f>
         <v>0</v>
       </c>
@@ -9786,8 +9789,13 @@
         <v>62</v>
       </c>
       <c r="AN18" s="159"/>
-    </row>
-    <row r="19" spans="1:41" s="25" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AP18" s="383"/>
+      <c r="AQ18" s="383"/>
+      <c r="AR18" s="383"/>
+      <c r="AS18" s="383"/>
+      <c r="AT18" s="383"/>
+    </row>
+    <row r="19" spans="1:46" s="25" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="27">
         <v>1</v>
       </c>
@@ -9894,8 +9902,13 @@
       <c r="AL19" s="169"/>
       <c r="AM19" s="158"/>
       <c r="AN19" s="159"/>
-    </row>
-    <row r="20" spans="1:41" s="38" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AP19" s="383"/>
+      <c r="AQ19" s="383"/>
+      <c r="AR19" s="383"/>
+      <c r="AS19" s="383"/>
+      <c r="AT19" s="383"/>
+    </row>
+    <row r="20" spans="1:46" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A20" s="27">
         <v>2</v>
       </c>
@@ -10004,8 +10017,13 @@
         <v>11</v>
       </c>
       <c r="AN20" s="159"/>
-    </row>
-    <row r="21" spans="1:41" s="38" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AP20" s="383"/>
+      <c r="AQ20" s="383"/>
+      <c r="AR20" s="383"/>
+      <c r="AS20" s="383"/>
+      <c r="AT20" s="383"/>
+    </row>
+    <row r="21" spans="1:46" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A21" s="27">
         <v>3</v>
       </c>
@@ -10116,8 +10134,13 @@
         <v>14</v>
       </c>
       <c r="AN21" s="159"/>
-    </row>
-    <row r="22" spans="1:41" s="32" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AP21" s="383"/>
+      <c r="AQ21" s="383"/>
+      <c r="AR21" s="383"/>
+      <c r="AS21" s="383"/>
+      <c r="AT21" s="383"/>
+    </row>
+    <row r="22" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A22" s="27">
         <v>4</v>
       </c>
@@ -10204,8 +10227,13 @@
         <v>10</v>
       </c>
       <c r="AN22" s="159"/>
-    </row>
-    <row r="23" spans="1:41" s="32" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AP22" s="383"/>
+      <c r="AQ22" s="383"/>
+      <c r="AR22" s="383"/>
+      <c r="AS22" s="383"/>
+      <c r="AT22" s="383"/>
+    </row>
+    <row r="23" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A23" s="27">
         <v>5</v>
       </c>
@@ -10316,8 +10344,13 @@
         <v>14</v>
       </c>
       <c r="AN23" s="159"/>
-    </row>
-    <row r="24" spans="1:41" s="32" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="AP23" s="383"/>
+      <c r="AQ23" s="383"/>
+      <c r="AR23" s="383"/>
+      <c r="AS23" s="383"/>
+      <c r="AT23" s="383"/>
+    </row>
+    <row r="24" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A24" s="27">
         <v>6</v>
       </c>
@@ -10426,12 +10459,17 @@
         <v>13</v>
       </c>
       <c r="AN24" s="159"/>
-    </row>
-    <row r="25" spans="1:41" s="32" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A25" s="338" t="s">
+      <c r="AP24" s="383"/>
+      <c r="AQ24" s="383"/>
+      <c r="AR24" s="383"/>
+      <c r="AS24" s="383"/>
+      <c r="AT24" s="383"/>
+    </row>
+    <row r="25" spans="1:46" s="32" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A25" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="339"/>
+      <c r="B25" s="345"/>
       <c r="C25" s="170"/>
       <c r="D25" s="170"/>
       <c r="E25" s="170"/>
@@ -10489,8 +10527,13 @@
         <v>#REF!</v>
       </c>
       <c r="AO25" s="25"/>
-    </row>
-    <row r="26" spans="1:41" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="AP25" s="384"/>
+      <c r="AQ25" s="384"/>
+      <c r="AR25" s="384"/>
+      <c r="AS25" s="384"/>
+      <c r="AT25" s="384"/>
+    </row>
+    <row r="26" spans="1:46" s="32" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="177"/>
       <c r="B26" s="177"/>
       <c r="C26" s="45"/>
@@ -10522,8 +10565,8 @@
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
-      <c r="AF26" s="296"/>
-      <c r="AG26" s="282"/>
+      <c r="AF26" s="295"/>
+      <c r="AG26" s="281"/>
       <c r="AH26" s="30"/>
       <c r="AI26" s="178"/>
       <c r="AJ26" s="178"/>
@@ -10533,14 +10576,14 @@
       <c r="AN26" s="180"/>
       <c r="AO26" s="25"/>
     </row>
-    <row r="27" spans="1:41" s="25" customFormat="1" ht="16.5" customHeight="1">
+    <row r="27" spans="1:46" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="344" t="s">
+      <c r="B27" s="350" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="344"/>
-      <c r="D27" s="344"/>
-      <c r="E27" s="344"/>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -10565,21 +10608,21 @@
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
-      <c r="AD27" s="340" t="s">
+      <c r="AD27" s="346" t="s">
         <v>46</v>
       </c>
-      <c r="AE27" s="340"/>
-      <c r="AF27" s="340"/>
-      <c r="AG27" s="340"/>
-      <c r="AH27" s="340"/>
-      <c r="AI27" s="340"/>
-      <c r="AJ27" s="340"/>
-      <c r="AK27" s="340"/>
-      <c r="AL27" s="340"/>
-      <c r="AM27" s="281"/>
-      <c r="AN27" s="281"/>
-    </row>
-    <row r="28" spans="1:41" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="AE27" s="346"/>
+      <c r="AF27" s="346"/>
+      <c r="AG27" s="346"/>
+      <c r="AH27" s="346"/>
+      <c r="AI27" s="346"/>
+      <c r="AJ27" s="346"/>
+      <c r="AK27" s="346"/>
+      <c r="AL27" s="346"/>
+      <c r="AM27" s="280"/>
+      <c r="AN27" s="280"/>
+    </row>
+    <row r="28" spans="1:46" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
       <c r="B28" s="47"/>
       <c r="C28" s="44"/>
@@ -10621,7 +10664,7 @@
       <c r="AM28" s="181"/>
       <c r="AN28" s="38"/>
     </row>
-    <row r="29" spans="1:41" s="19" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:46" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="46"/>
       <c r="B29" s="47"/>
       <c r="C29" s="44"/>
@@ -10663,7 +10706,7 @@
       <c r="AM29" s="181"/>
       <c r="AN29" s="38"/>
     </row>
-    <row r="30" spans="1:41" s="19" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:46" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="46"/>
       <c r="B30" s="47"/>
       <c r="C30" s="44"/>
@@ -10705,7 +10748,7 @@
       <c r="AM30" s="181"/>
       <c r="AN30" s="38"/>
     </row>
-    <row r="31" spans="1:41" s="19" customFormat="1" ht="13.5" customHeight="1">
+    <row r="31" spans="1:46" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="25"/>
@@ -10749,14 +10792,14 @@
       <c r="AM31" s="182"/>
       <c r="AN31" s="32"/>
     </row>
-    <row r="32" spans="1:41" s="38" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:46" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="46"/>
-      <c r="B32" s="341" t="s">
+      <c r="B32" s="347" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="341"/>
+      <c r="C32" s="347"/>
+      <c r="D32" s="347"/>
+      <c r="E32" s="347"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -10781,26 +10824,26 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
       <c r="AC32" s="25"/>
-      <c r="AD32" s="341" t="s">
+      <c r="AD32" s="347" t="s">
         <v>38</v>
       </c>
-      <c r="AE32" s="341"/>
-      <c r="AF32" s="341"/>
-      <c r="AG32" s="341"/>
-      <c r="AH32" s="341"/>
-      <c r="AI32" s="341"/>
-      <c r="AJ32" s="341"/>
-      <c r="AK32" s="341"/>
-      <c r="AL32" s="341"/>
+      <c r="AE32" s="347"/>
+      <c r="AF32" s="347"/>
+      <c r="AG32" s="347"/>
+      <c r="AH32" s="347"/>
+      <c r="AI32" s="347"/>
+      <c r="AJ32" s="347"/>
+      <c r="AK32" s="347"/>
+      <c r="AL32" s="347"/>
       <c r="AM32" s="181"/>
       <c r="AN32" s="183"/>
     </row>
     <row r="33" spans="1:41" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="342"/>
-      <c r="C33" s="342"/>
-      <c r="D33" s="342"/>
-      <c r="E33" s="342"/>
+      <c r="B33" s="348"/>
+      <c r="C33" s="348"/>
+      <c r="D33" s="348"/>
+      <c r="E33" s="348"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -10829,13 +10872,13 @@
       <c r="AE33" s="25"/>
       <c r="AF33" s="25"/>
       <c r="AG33" s="25"/>
-      <c r="AH33" s="343"/>
-      <c r="AI33" s="343"/>
-      <c r="AJ33" s="343"/>
-      <c r="AK33" s="343"/>
-      <c r="AL33" s="343"/>
-      <c r="AM33" s="343"/>
-      <c r="AN33" s="343"/>
+      <c r="AH33" s="349"/>
+      <c r="AI33" s="349"/>
+      <c r="AJ33" s="349"/>
+      <c r="AK33" s="349"/>
+      <c r="AL33" s="349"/>
+      <c r="AM33" s="349"/>
+      <c r="AN33" s="349"/>
     </row>
     <row r="34" spans="1:41" ht="20.25" customHeight="1">
       <c r="A34" s="53"/>
@@ -10994,14 +11037,14 @@
       <c r="AA37" s="131"/>
       <c r="AB37" s="131"/>
       <c r="AC37" s="131"/>
-      <c r="AD37" s="245"/>
-      <c r="AE37" s="245"/>
-      <c r="AF37" s="295"/>
-      <c r="AG37" s="277"/>
+      <c r="AD37" s="244"/>
+      <c r="AE37" s="244"/>
+      <c r="AF37" s="294"/>
+      <c r="AG37" s="276"/>
       <c r="AH37" s="187"/>
       <c r="AI37" s="131"/>
-      <c r="AJ37" s="240"/>
-      <c r="AK37" s="270"/>
+      <c r="AJ37" s="239"/>
+      <c r="AK37" s="269"/>
       <c r="AL37" s="131"/>
       <c r="AM37" s="187"/>
       <c r="AN37" s="16"/>
@@ -11092,7 +11135,7 @@
       <c r="AN39" s="183"/>
     </row>
     <row r="40" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A40" s="322"/>
+      <c r="A40" s="332"/>
       <c r="B40" s="189"/>
       <c r="C40" s="62"/>
       <c r="D40" s="63"/>
@@ -11134,50 +11177,50 @@
       <c r="AN40" s="191"/>
     </row>
     <row r="41" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A41" s="322"/>
-      <c r="B41" s="328"/>
-      <c r="C41" s="328"/>
-      <c r="D41" s="328"/>
-      <c r="E41" s="328"/>
-      <c r="F41" s="328"/>
-      <c r="G41" s="328"/>
-      <c r="H41" s="328"/>
-      <c r="I41" s="328"/>
-      <c r="J41" s="328"/>
-      <c r="K41" s="328"/>
-      <c r="L41" s="328"/>
-      <c r="M41" s="328"/>
-      <c r="N41" s="328"/>
-      <c r="O41" s="328"/>
-      <c r="P41" s="328"/>
-      <c r="Q41" s="328"/>
-      <c r="R41" s="328"/>
-      <c r="S41" s="328"/>
-      <c r="T41" s="328"/>
-      <c r="U41" s="328"/>
-      <c r="V41" s="328"/>
-      <c r="W41" s="328"/>
-      <c r="X41" s="328"/>
-      <c r="Y41" s="328"/>
-      <c r="Z41" s="328"/>
-      <c r="AA41" s="328"/>
-      <c r="AB41" s="328"/>
-      <c r="AC41" s="328"/>
-      <c r="AD41" s="328"/>
-      <c r="AE41" s="328"/>
-      <c r="AF41" s="328"/>
-      <c r="AG41" s="328"/>
+      <c r="A41" s="332"/>
+      <c r="B41" s="334"/>
+      <c r="C41" s="334"/>
+      <c r="D41" s="334"/>
+      <c r="E41" s="334"/>
+      <c r="F41" s="334"/>
+      <c r="G41" s="334"/>
+      <c r="H41" s="334"/>
+      <c r="I41" s="334"/>
+      <c r="J41" s="334"/>
+      <c r="K41" s="334"/>
+      <c r="L41" s="334"/>
+      <c r="M41" s="334"/>
+      <c r="N41" s="334"/>
+      <c r="O41" s="334"/>
+      <c r="P41" s="334"/>
+      <c r="Q41" s="334"/>
+      <c r="R41" s="334"/>
+      <c r="S41" s="334"/>
+      <c r="T41" s="334"/>
+      <c r="U41" s="334"/>
+      <c r="V41" s="334"/>
+      <c r="W41" s="334"/>
+      <c r="X41" s="334"/>
+      <c r="Y41" s="334"/>
+      <c r="Z41" s="334"/>
+      <c r="AA41" s="334"/>
+      <c r="AB41" s="334"/>
+      <c r="AC41" s="334"/>
+      <c r="AD41" s="334"/>
+      <c r="AE41" s="334"/>
+      <c r="AF41" s="334"/>
+      <c r="AG41" s="334"/>
       <c r="AH41" s="65"/>
       <c r="AI41" s="125"/>
-      <c r="AJ41" s="241"/>
-      <c r="AK41" s="271"/>
+      <c r="AJ41" s="240"/>
+      <c r="AK41" s="270"/>
       <c r="AL41" s="125"/>
       <c r="AM41" s="65"/>
       <c r="AN41" s="192"/>
     </row>
     <row r="42" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
       <c r="A42" s="43"/>
-      <c r="B42" s="328"/>
+      <c r="B42" s="334"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -12184,7 +12227,7 @@
       <c r="AN65" s="183"/>
     </row>
     <row r="66" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A66" s="322"/>
+      <c r="A66" s="332"/>
       <c r="B66" s="61"/>
       <c r="C66" s="62"/>
       <c r="D66" s="63"/>
@@ -12226,50 +12269,50 @@
       <c r="AN66" s="191"/>
     </row>
     <row r="67" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A67" s="323"/>
-      <c r="B67" s="328"/>
-      <c r="C67" s="328"/>
-      <c r="D67" s="330"/>
-      <c r="E67" s="330"/>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="330"/>
-      <c r="J67" s="330"/>
-      <c r="K67" s="330"/>
-      <c r="L67" s="330"/>
-      <c r="M67" s="330"/>
-      <c r="N67" s="330"/>
-      <c r="O67" s="330"/>
-      <c r="P67" s="330"/>
-      <c r="Q67" s="330"/>
-      <c r="R67" s="330"/>
-      <c r="S67" s="330"/>
-      <c r="T67" s="330"/>
-      <c r="U67" s="330"/>
-      <c r="V67" s="330"/>
-      <c r="W67" s="330"/>
-      <c r="X67" s="330"/>
-      <c r="Y67" s="330"/>
-      <c r="Z67" s="330"/>
-      <c r="AA67" s="330"/>
-      <c r="AB67" s="330"/>
-      <c r="AC67" s="330"/>
-      <c r="AD67" s="330"/>
-      <c r="AE67" s="330"/>
-      <c r="AF67" s="330"/>
-      <c r="AG67" s="330"/>
+      <c r="A67" s="333"/>
+      <c r="B67" s="334"/>
+      <c r="C67" s="334"/>
+      <c r="D67" s="336"/>
+      <c r="E67" s="336"/>
+      <c r="F67" s="336"/>
+      <c r="G67" s="336"/>
+      <c r="H67" s="336"/>
+      <c r="I67" s="336"/>
+      <c r="J67" s="336"/>
+      <c r="K67" s="336"/>
+      <c r="L67" s="336"/>
+      <c r="M67" s="336"/>
+      <c r="N67" s="336"/>
+      <c r="O67" s="336"/>
+      <c r="P67" s="336"/>
+      <c r="Q67" s="336"/>
+      <c r="R67" s="336"/>
+      <c r="S67" s="336"/>
+      <c r="T67" s="336"/>
+      <c r="U67" s="336"/>
+      <c r="V67" s="336"/>
+      <c r="W67" s="336"/>
+      <c r="X67" s="336"/>
+      <c r="Y67" s="336"/>
+      <c r="Z67" s="336"/>
+      <c r="AA67" s="336"/>
+      <c r="AB67" s="336"/>
+      <c r="AC67" s="336"/>
+      <c r="AD67" s="336"/>
+      <c r="AE67" s="336"/>
+      <c r="AF67" s="336"/>
+      <c r="AG67" s="336"/>
       <c r="AH67" s="65"/>
       <c r="AI67" s="125"/>
-      <c r="AJ67" s="241"/>
-      <c r="AK67" s="271"/>
+      <c r="AJ67" s="240"/>
+      <c r="AK67" s="270"/>
       <c r="AL67" s="125"/>
       <c r="AM67" s="65"/>
       <c r="AN67" s="192"/>
     </row>
     <row r="68" spans="1:40" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="329"/>
+      <c r="B68" s="335"/>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
@@ -13200,38 +13243,38 @@
     </row>
     <row r="90" spans="1:41" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="43"/>
-      <c r="B90" s="318"/>
-      <c r="C90" s="319"/>
-      <c r="D90" s="319"/>
-      <c r="E90" s="319"/>
-      <c r="F90" s="319"/>
-      <c r="G90" s="319"/>
-      <c r="H90" s="320"/>
-      <c r="I90" s="321"/>
-      <c r="J90" s="321"/>
-      <c r="K90" s="321"/>
-      <c r="L90" s="321"/>
-      <c r="M90" s="321"/>
-      <c r="N90" s="321"/>
-      <c r="O90" s="321"/>
-      <c r="P90" s="321"/>
-      <c r="Q90" s="321"/>
-      <c r="R90" s="321"/>
-      <c r="S90" s="321"/>
-      <c r="T90" s="321"/>
-      <c r="U90" s="321"/>
-      <c r="V90" s="321"/>
-      <c r="W90" s="321"/>
-      <c r="X90" s="321"/>
-      <c r="Y90" s="321"/>
-      <c r="Z90" s="321"/>
+      <c r="B90" s="352"/>
+      <c r="C90" s="353"/>
+      <c r="D90" s="353"/>
+      <c r="E90" s="353"/>
+      <c r="F90" s="353"/>
+      <c r="G90" s="353"/>
+      <c r="H90" s="354"/>
+      <c r="I90" s="355"/>
+      <c r="J90" s="355"/>
+      <c r="K90" s="355"/>
+      <c r="L90" s="355"/>
+      <c r="M90" s="355"/>
+      <c r="N90" s="355"/>
+      <c r="O90" s="355"/>
+      <c r="P90" s="355"/>
+      <c r="Q90" s="355"/>
+      <c r="R90" s="355"/>
+      <c r="S90" s="355"/>
+      <c r="T90" s="355"/>
+      <c r="U90" s="355"/>
+      <c r="V90" s="355"/>
+      <c r="W90" s="355"/>
+      <c r="X90" s="355"/>
+      <c r="Y90" s="355"/>
+      <c r="Z90" s="355"/>
       <c r="AA90" s="126"/>
       <c r="AB90" s="126"/>
       <c r="AC90" s="126"/>
-      <c r="AD90" s="243"/>
-      <c r="AE90" s="243"/>
-      <c r="AF90" s="297"/>
-      <c r="AG90" s="279"/>
+      <c r="AD90" s="242"/>
+      <c r="AE90" s="242"/>
+      <c r="AF90" s="296"/>
+      <c r="AG90" s="278"/>
       <c r="AH90" s="86"/>
       <c r="AI90" s="201"/>
       <c r="AJ90" s="201"/>
@@ -14634,7 +14677,7 @@
       <c r="FQ107" s="25"/>
     </row>
     <row r="108" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A108" s="322"/>
+      <c r="A108" s="332"/>
       <c r="B108" s="82"/>
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
@@ -14809,43 +14852,43 @@
       <c r="FQ108" s="25"/>
     </row>
     <row r="109" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A109" s="323"/>
-      <c r="B109" s="324"/>
-      <c r="C109" s="324"/>
-      <c r="D109" s="326"/>
-      <c r="E109" s="326"/>
-      <c r="F109" s="326"/>
-      <c r="G109" s="326"/>
-      <c r="H109" s="326"/>
-      <c r="I109" s="326"/>
-      <c r="J109" s="326"/>
-      <c r="K109" s="326"/>
-      <c r="L109" s="326"/>
-      <c r="M109" s="326"/>
-      <c r="N109" s="326"/>
-      <c r="O109" s="326"/>
-      <c r="P109" s="326"/>
-      <c r="Q109" s="326"/>
-      <c r="R109" s="326"/>
-      <c r="S109" s="326"/>
-      <c r="T109" s="326"/>
-      <c r="U109" s="326"/>
-      <c r="V109" s="326"/>
-      <c r="W109" s="326"/>
-      <c r="X109" s="326"/>
-      <c r="Y109" s="326"/>
-      <c r="Z109" s="326"/>
-      <c r="AA109" s="326"/>
-      <c r="AB109" s="326"/>
-      <c r="AC109" s="326"/>
-      <c r="AD109" s="326"/>
-      <c r="AE109" s="326"/>
-      <c r="AF109" s="326"/>
-      <c r="AG109" s="326"/>
+      <c r="A109" s="333"/>
+      <c r="B109" s="356"/>
+      <c r="C109" s="356"/>
+      <c r="D109" s="358"/>
+      <c r="E109" s="358"/>
+      <c r="F109" s="358"/>
+      <c r="G109" s="358"/>
+      <c r="H109" s="358"/>
+      <c r="I109" s="358"/>
+      <c r="J109" s="358"/>
+      <c r="K109" s="358"/>
+      <c r="L109" s="358"/>
+      <c r="M109" s="358"/>
+      <c r="N109" s="358"/>
+      <c r="O109" s="358"/>
+      <c r="P109" s="358"/>
+      <c r="Q109" s="358"/>
+      <c r="R109" s="358"/>
+      <c r="S109" s="358"/>
+      <c r="T109" s="358"/>
+      <c r="U109" s="358"/>
+      <c r="V109" s="358"/>
+      <c r="W109" s="358"/>
+      <c r="X109" s="358"/>
+      <c r="Y109" s="358"/>
+      <c r="Z109" s="358"/>
+      <c r="AA109" s="358"/>
+      <c r="AB109" s="358"/>
+      <c r="AC109" s="358"/>
+      <c r="AD109" s="358"/>
+      <c r="AE109" s="358"/>
+      <c r="AF109" s="358"/>
+      <c r="AG109" s="358"/>
       <c r="AH109" s="102"/>
       <c r="AI109" s="127"/>
-      <c r="AJ109" s="242"/>
-      <c r="AK109" s="274"/>
+      <c r="AJ109" s="241"/>
+      <c r="AK109" s="273"/>
       <c r="AL109" s="127"/>
       <c r="AM109" s="102"/>
       <c r="AN109" s="203"/>
@@ -14985,7 +15028,7 @@
     </row>
     <row r="110" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A110" s="103"/>
-      <c r="B110" s="325"/>
+      <c r="B110" s="357"/>
       <c r="C110" s="104"/>
       <c r="D110" s="105"/>
       <c r="E110" s="104"/>
@@ -17495,21 +17538,21 @@
       <c r="V131" s="90"/>
       <c r="W131" s="90"/>
       <c r="X131" s="90"/>
-      <c r="Y131" s="327"/>
-      <c r="Z131" s="327"/>
-      <c r="AA131" s="327"/>
-      <c r="AB131" s="327"/>
-      <c r="AC131" s="327"/>
-      <c r="AD131" s="327"/>
-      <c r="AE131" s="327"/>
-      <c r="AF131" s="327"/>
-      <c r="AG131" s="327"/>
-      <c r="AH131" s="327"/>
-      <c r="AI131" s="327"/>
-      <c r="AJ131" s="327"/>
-      <c r="AK131" s="327"/>
-      <c r="AL131" s="327"/>
-      <c r="AM131" s="327"/>
+      <c r="Y131" s="359"/>
+      <c r="Z131" s="359"/>
+      <c r="AA131" s="359"/>
+      <c r="AB131" s="359"/>
+      <c r="AC131" s="359"/>
+      <c r="AD131" s="359"/>
+      <c r="AE131" s="359"/>
+      <c r="AF131" s="359"/>
+      <c r="AG131" s="359"/>
+      <c r="AH131" s="359"/>
+      <c r="AI131" s="359"/>
+      <c r="AJ131" s="359"/>
+      <c r="AK131" s="359"/>
+      <c r="AL131" s="359"/>
+      <c r="AM131" s="359"/>
       <c r="AN131" s="203"/>
       <c r="AO131" s="81"/>
     </row>
@@ -17543,10 +17586,10 @@
       <c r="AA132" s="123"/>
       <c r="AB132" s="123"/>
       <c r="AC132" s="123"/>
-      <c r="AD132" s="244"/>
-      <c r="AE132" s="244"/>
-      <c r="AF132" s="298"/>
-      <c r="AG132" s="280"/>
+      <c r="AD132" s="243"/>
+      <c r="AE132" s="243"/>
+      <c r="AF132" s="297"/>
+      <c r="AG132" s="279"/>
       <c r="AH132" s="115"/>
       <c r="AI132" s="212"/>
       <c r="AJ132" s="212"/>
@@ -17586,10 +17629,10 @@
       <c r="AA133" s="123"/>
       <c r="AB133" s="123"/>
       <c r="AC133" s="123"/>
-      <c r="AD133" s="244"/>
-      <c r="AE133" s="244"/>
-      <c r="AF133" s="298"/>
-      <c r="AG133" s="280"/>
+      <c r="AD133" s="243"/>
+      <c r="AE133" s="243"/>
+      <c r="AF133" s="297"/>
+      <c r="AG133" s="279"/>
       <c r="AH133" s="115"/>
       <c r="AI133" s="212"/>
       <c r="AJ133" s="212"/>
@@ -17629,10 +17672,10 @@
       <c r="AA134" s="123"/>
       <c r="AB134" s="123"/>
       <c r="AC134" s="123"/>
-      <c r="AD134" s="244"/>
-      <c r="AE134" s="244"/>
-      <c r="AF134" s="298"/>
-      <c r="AG134" s="280"/>
+      <c r="AD134" s="243"/>
+      <c r="AE134" s="243"/>
+      <c r="AF134" s="297"/>
+      <c r="AG134" s="279"/>
       <c r="AH134" s="115"/>
       <c r="AI134" s="212"/>
       <c r="AJ134" s="212"/>
@@ -17667,21 +17710,21 @@
       <c r="V135" s="90"/>
       <c r="W135" s="90"/>
       <c r="X135" s="90"/>
-      <c r="Y135" s="317"/>
-      <c r="Z135" s="317"/>
-      <c r="AA135" s="317"/>
-      <c r="AB135" s="317"/>
-      <c r="AC135" s="317"/>
-      <c r="AD135" s="317"/>
-      <c r="AE135" s="317"/>
-      <c r="AF135" s="317"/>
-      <c r="AG135" s="317"/>
-      <c r="AH135" s="317"/>
-      <c r="AI135" s="317"/>
-      <c r="AJ135" s="317"/>
-      <c r="AK135" s="317"/>
-      <c r="AL135" s="317"/>
-      <c r="AM135" s="317"/>
+      <c r="Y135" s="351"/>
+      <c r="Z135" s="351"/>
+      <c r="AA135" s="351"/>
+      <c r="AB135" s="351"/>
+      <c r="AC135" s="351"/>
+      <c r="AD135" s="351"/>
+      <c r="AE135" s="351"/>
+      <c r="AF135" s="351"/>
+      <c r="AG135" s="351"/>
+      <c r="AH135" s="351"/>
+      <c r="AI135" s="351"/>
+      <c r="AJ135" s="351"/>
+      <c r="AK135" s="351"/>
+      <c r="AL135" s="351"/>
+      <c r="AM135" s="351"/>
       <c r="AN135" s="206"/>
       <c r="AO135" s="81"/>
     </row>
@@ -19189,17 +19232,15 @@
       <c r="AN176" s="216"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="A4:AM4"/>
-    <mergeCell ref="A5:AM5"/>
+  <mergeCells count="34">
+    <mergeCell ref="AP14:AT15"/>
+    <mergeCell ref="Y135:AM135"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:Z90"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:AG109"/>
+    <mergeCell ref="Y131:AM131"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:AG67"/>
@@ -19216,16 +19257,19 @@
     <mergeCell ref="C41:AG41"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="Y135:AM135"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:Z90"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:AG109"/>
-    <mergeCell ref="Y131:AM131"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="A4:AM4"/>
+    <mergeCell ref="A5:AM5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AN7"/>
   </mergeCells>
   <pageMargins left="0.24" right="0" top="0.5" bottom="0" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToWidth="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="32" max="16383" man="1"/>
   </rowBreaks>
@@ -19779,13 +19823,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -19816,13 +19860,13 @@
       <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
       <c r="F2" s="135"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -19854,164 +19898,164 @@
       <c r="AH2" s="32"/>
     </row>
     <row r="3" spans="1:45" ht="24" customHeight="1">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="347"/>
-      <c r="S3" s="347"/>
-      <c r="T3" s="347"/>
-      <c r="U3" s="347"/>
-      <c r="V3" s="347"/>
-      <c r="W3" s="347"/>
-      <c r="X3" s="347"/>
-      <c r="Y3" s="347"/>
-      <c r="Z3" s="347"/>
-      <c r="AA3" s="347"/>
-      <c r="AB3" s="347"/>
-      <c r="AC3" s="347"/>
-      <c r="AD3" s="347"/>
-      <c r="AE3" s="347"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="347"/>
-      <c r="AH3" s="347"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="329"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="329"/>
+      <c r="U3" s="329"/>
+      <c r="V3" s="329"/>
+      <c r="W3" s="329"/>
+      <c r="X3" s="329"/>
+      <c r="Y3" s="329"/>
+      <c r="Z3" s="329"/>
+      <c r="AA3" s="329"/>
+      <c r="AB3" s="329"/>
+      <c r="AC3" s="329"/>
+      <c r="AD3" s="329"/>
+      <c r="AE3" s="329"/>
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="329"/>
+      <c r="AH3" s="329"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="348"/>
-      <c r="C4" s="348"/>
-      <c r="D4" s="348"/>
-      <c r="E4" s="348"/>
-      <c r="F4" s="348"/>
-      <c r="G4" s="348"/>
-      <c r="H4" s="348"/>
-      <c r="I4" s="348"/>
-      <c r="J4" s="348"/>
-      <c r="K4" s="348"/>
-      <c r="L4" s="348"/>
-      <c r="M4" s="348"/>
-      <c r="N4" s="348"/>
-      <c r="O4" s="348"/>
-      <c r="P4" s="348"/>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="348"/>
-      <c r="S4" s="348"/>
-      <c r="T4" s="348"/>
-      <c r="U4" s="348"/>
-      <c r="V4" s="348"/>
-      <c r="W4" s="348"/>
-      <c r="X4" s="348"/>
-      <c r="Y4" s="348"/>
-      <c r="Z4" s="348"/>
-      <c r="AA4" s="348"/>
-      <c r="AB4" s="348"/>
-      <c r="AC4" s="348"/>
-      <c r="AD4" s="348"/>
-      <c r="AE4" s="348"/>
-      <c r="AF4" s="348"/>
-      <c r="AG4" s="348"/>
-      <c r="AH4" s="348"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="330"/>
+      <c r="V4" s="330"/>
+      <c r="W4" s="330"/>
+      <c r="X4" s="330"/>
+      <c r="Y4" s="330"/>
+      <c r="Z4" s="330"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="330"/>
+      <c r="AC4" s="330"/>
+      <c r="AD4" s="330"/>
+      <c r="AE4" s="330"/>
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="330"/>
+      <c r="AH4" s="330"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="5.25" customHeight="1" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="349"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="349"/>
-      <c r="M5" s="349"/>
-      <c r="N5" s="349"/>
-      <c r="O5" s="349"/>
-      <c r="P5" s="349"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="U5" s="349"/>
-      <c r="V5" s="349"/>
-      <c r="W5" s="349"/>
-      <c r="X5" s="349"/>
-      <c r="Y5" s="349"/>
-      <c r="Z5" s="349"/>
-      <c r="AA5" s="349"/>
-      <c r="AB5" s="349"/>
-      <c r="AC5" s="349"/>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="349"/>
-      <c r="AF5" s="349"/>
-      <c r="AG5" s="349"/>
-      <c r="AH5" s="349"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="331"/>
+      <c r="AA5" s="331"/>
+      <c r="AB5" s="331"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="331"/>
+      <c r="AE5" s="331"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="331"/>
+      <c r="AH5" s="331"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="352" t="s">
+      <c r="B6" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
-      <c r="S6" s="364"/>
-      <c r="T6" s="364"/>
-      <c r="U6" s="364"/>
-      <c r="V6" s="364"/>
-      <c r="W6" s="364"/>
-      <c r="X6" s="364"/>
-      <c r="Y6" s="364"/>
-      <c r="Z6" s="364"/>
-      <c r="AA6" s="364"/>
-      <c r="AB6" s="364"/>
-      <c r="AC6" s="364"/>
-      <c r="AD6" s="364"/>
-      <c r="AE6" s="364"/>
-      <c r="AF6" s="364"/>
-      <c r="AG6" s="364"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
+      <c r="H6" s="363"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="363"/>
+      <c r="K6" s="363"/>
+      <c r="L6" s="363"/>
+      <c r="M6" s="363"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="363"/>
+      <c r="P6" s="363"/>
+      <c r="Q6" s="363"/>
+      <c r="R6" s="363"/>
+      <c r="S6" s="363"/>
+      <c r="T6" s="363"/>
+      <c r="U6" s="363"/>
+      <c r="V6" s="363"/>
+      <c r="W6" s="363"/>
+      <c r="X6" s="363"/>
+      <c r="Y6" s="363"/>
+      <c r="Z6" s="363"/>
+      <c r="AA6" s="363"/>
+      <c r="AB6" s="363"/>
+      <c r="AC6" s="363"/>
+      <c r="AD6" s="363"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="362"/>
-      <c r="B7" s="363"/>
+      <c r="A7" s="361"/>
+      <c r="B7" s="362"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -20105,31 +20149,31 @@
       <c r="AG7" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="AH7" s="250" t="s">
+      <c r="AH7" s="249" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="331" t="s">
+      <c r="A8" s="337" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="334"/>
-      <c r="M8" s="334"/>
-      <c r="N8" s="334"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="335"/>
+      <c r="B8" s="338"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="340"/>
+      <c r="G8" s="340"/>
+      <c r="H8" s="340"/>
+      <c r="I8" s="340"/>
+      <c r="J8" s="340"/>
+      <c r="K8" s="340"/>
+      <c r="L8" s="340"/>
+      <c r="M8" s="340"/>
+      <c r="N8" s="340"/>
+      <c r="O8" s="340"/>
+      <c r="P8" s="340"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="341"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -20260,7 +20304,7 @@
       <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="292" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="28"/>
@@ -20969,10 +21013,10 @@
       <c r="AI17" s="19"/>
     </row>
     <row r="18" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="336" t="s">
+      <c r="A18" s="342" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="337"/>
+      <c r="B18" s="343"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -21604,10 +21648,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" s="32" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A25" s="365" t="s">
+      <c r="A25" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="366"/>
+      <c r="B25" s="365"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -21684,10 +21728,10 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="368" t="s">
+      <c r="B27" s="367" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="368"/>
+      <c r="C27" s="367"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -21712,15 +21756,15 @@
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
-      <c r="AB27" s="367" t="s">
+      <c r="AB27" s="366" t="s">
         <v>57</v>
       </c>
-      <c r="AC27" s="367"/>
-      <c r="AD27" s="367"/>
-      <c r="AE27" s="367"/>
-      <c r="AF27" s="367"/>
-      <c r="AG27" s="367"/>
-      <c r="AH27" s="367"/>
+      <c r="AC27" s="366"/>
+      <c r="AD27" s="366"/>
+      <c r="AE27" s="366"/>
+      <c r="AF27" s="366"/>
+      <c r="AG27" s="366"/>
+      <c r="AH27" s="366"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -21833,11 +21877,11 @@
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="342" t="s">
+      <c r="B31" s="348" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="342"/>
-      <c r="D31" s="342"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="348"/>
       <c r="E31" s="219"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -21861,15 +21905,15 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
-      <c r="AB31" s="361" t="s">
+      <c r="AB31" s="360" t="s">
         <v>59</v>
       </c>
-      <c r="AC31" s="361"/>
-      <c r="AD31" s="361"/>
-      <c r="AE31" s="361"/>
-      <c r="AF31" s="361"/>
-      <c r="AG31" s="361"/>
-      <c r="AH31" s="361"/>
+      <c r="AC31" s="360"/>
+      <c r="AD31" s="360"/>
+      <c r="AE31" s="360"/>
+      <c r="AF31" s="360"/>
+      <c r="AG31" s="360"/>
+      <c r="AH31" s="360"/>
     </row>
     <row r="32" spans="1:35" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
@@ -22557,7 +22601,7 @@
       <c r="AH50" s="30"/>
     </row>
     <row r="51" spans="1:34" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A51" s="322"/>
+      <c r="A51" s="332"/>
       <c r="B51" s="61"/>
       <c r="C51" s="62"/>
       <c r="D51" s="63"/>
@@ -22593,44 +22637,44 @@
       <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="1:34" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A52" s="323"/>
-      <c r="B52" s="328"/>
-      <c r="C52" s="328"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="330"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="330"/>
-      <c r="L52" s="330"/>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="330"/>
-      <c r="S52" s="330"/>
-      <c r="T52" s="330"/>
-      <c r="U52" s="330"/>
-      <c r="V52" s="330"/>
-      <c r="W52" s="330"/>
-      <c r="X52" s="330"/>
-      <c r="Y52" s="330"/>
-      <c r="Z52" s="330"/>
-      <c r="AA52" s="330"/>
-      <c r="AB52" s="330"/>
-      <c r="AC52" s="330"/>
-      <c r="AD52" s="330"/>
-      <c r="AE52" s="330"/>
-      <c r="AF52" s="330"/>
-      <c r="AG52" s="330"/>
+      <c r="A52" s="333"/>
+      <c r="B52" s="334"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="336"/>
+      <c r="I52" s="336"/>
+      <c r="J52" s="336"/>
+      <c r="K52" s="336"/>
+      <c r="L52" s="336"/>
+      <c r="M52" s="336"/>
+      <c r="N52" s="336"/>
+      <c r="O52" s="336"/>
+      <c r="P52" s="336"/>
+      <c r="Q52" s="336"/>
+      <c r="R52" s="336"/>
+      <c r="S52" s="336"/>
+      <c r="T52" s="336"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="336"/>
+      <c r="W52" s="336"/>
+      <c r="X52" s="336"/>
+      <c r="Y52" s="336"/>
+      <c r="Z52" s="336"/>
+      <c r="AA52" s="336"/>
+      <c r="AB52" s="336"/>
+      <c r="AC52" s="336"/>
+      <c r="AD52" s="336"/>
+      <c r="AE52" s="336"/>
+      <c r="AF52" s="336"/>
+      <c r="AG52" s="336"/>
       <c r="AH52" s="65"/>
     </row>
     <row r="53" spans="1:34" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="329"/>
+      <c r="B53" s="335"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
       <c r="E53" s="67"/>
@@ -23429,38 +23473,38 @@
     </row>
     <row r="75" spans="1:35" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="43"/>
-      <c r="B75" s="318"/>
-      <c r="C75" s="319"/>
-      <c r="D75" s="319"/>
-      <c r="E75" s="319"/>
-      <c r="F75" s="319"/>
-      <c r="G75" s="319"/>
-      <c r="H75" s="320"/>
-      <c r="I75" s="321"/>
-      <c r="J75" s="321"/>
-      <c r="K75" s="321"/>
-      <c r="L75" s="321"/>
-      <c r="M75" s="321"/>
-      <c r="N75" s="321"/>
-      <c r="O75" s="321"/>
-      <c r="P75" s="321"/>
-      <c r="Q75" s="321"/>
-      <c r="R75" s="321"/>
-      <c r="S75" s="321"/>
-      <c r="T75" s="321"/>
-      <c r="U75" s="321"/>
-      <c r="V75" s="321"/>
-      <c r="W75" s="321"/>
-      <c r="X75" s="321"/>
-      <c r="Y75" s="321"/>
-      <c r="Z75" s="321"/>
+      <c r="B75" s="352"/>
+      <c r="C75" s="353"/>
+      <c r="D75" s="353"/>
+      <c r="E75" s="353"/>
+      <c r="F75" s="353"/>
+      <c r="G75" s="353"/>
+      <c r="H75" s="354"/>
+      <c r="I75" s="355"/>
+      <c r="J75" s="355"/>
+      <c r="K75" s="355"/>
+      <c r="L75" s="355"/>
+      <c r="M75" s="355"/>
+      <c r="N75" s="355"/>
+      <c r="O75" s="355"/>
+      <c r="P75" s="355"/>
+      <c r="Q75" s="355"/>
+      <c r="R75" s="355"/>
+      <c r="S75" s="355"/>
+      <c r="T75" s="355"/>
+      <c r="U75" s="355"/>
+      <c r="V75" s="355"/>
+      <c r="W75" s="355"/>
+      <c r="X75" s="355"/>
+      <c r="Y75" s="355"/>
+      <c r="Z75" s="355"/>
       <c r="AA75" s="126"/>
       <c r="AB75" s="126"/>
       <c r="AC75" s="126"/>
-      <c r="AD75" s="248"/>
-      <c r="AE75" s="248"/>
-      <c r="AF75" s="299"/>
-      <c r="AG75" s="279"/>
+      <c r="AD75" s="247"/>
+      <c r="AE75" s="247"/>
+      <c r="AF75" s="298"/>
+      <c r="AG75" s="278"/>
       <c r="AH75" s="86"/>
       <c r="AI75" s="79"/>
     </row>
@@ -24755,7 +24799,7 @@
       <c r="FK92" s="25"/>
     </row>
     <row r="93" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A93" s="322"/>
+      <c r="A93" s="332"/>
       <c r="B93" s="82"/>
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
@@ -24924,39 +24968,39 @@
       <c r="FK93" s="25"/>
     </row>
     <row r="94" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A94" s="323"/>
-      <c r="B94" s="324"/>
-      <c r="C94" s="324"/>
-      <c r="D94" s="326"/>
-      <c r="E94" s="326"/>
-      <c r="F94" s="326"/>
-      <c r="G94" s="326"/>
-      <c r="H94" s="326"/>
-      <c r="I94" s="326"/>
-      <c r="J94" s="326"/>
-      <c r="K94" s="326"/>
-      <c r="L94" s="326"/>
-      <c r="M94" s="326"/>
-      <c r="N94" s="326"/>
-      <c r="O94" s="326"/>
-      <c r="P94" s="326"/>
-      <c r="Q94" s="326"/>
-      <c r="R94" s="326"/>
-      <c r="S94" s="326"/>
-      <c r="T94" s="326"/>
-      <c r="U94" s="326"/>
-      <c r="V94" s="326"/>
-      <c r="W94" s="326"/>
-      <c r="X94" s="326"/>
-      <c r="Y94" s="326"/>
-      <c r="Z94" s="326"/>
-      <c r="AA94" s="326"/>
-      <c r="AB94" s="326"/>
-      <c r="AC94" s="326"/>
-      <c r="AD94" s="326"/>
-      <c r="AE94" s="326"/>
-      <c r="AF94" s="326"/>
-      <c r="AG94" s="326"/>
+      <c r="A94" s="333"/>
+      <c r="B94" s="356"/>
+      <c r="C94" s="356"/>
+      <c r="D94" s="358"/>
+      <c r="E94" s="358"/>
+      <c r="F94" s="358"/>
+      <c r="G94" s="358"/>
+      <c r="H94" s="358"/>
+      <c r="I94" s="358"/>
+      <c r="J94" s="358"/>
+      <c r="K94" s="358"/>
+      <c r="L94" s="358"/>
+      <c r="M94" s="358"/>
+      <c r="N94" s="358"/>
+      <c r="O94" s="358"/>
+      <c r="P94" s="358"/>
+      <c r="Q94" s="358"/>
+      <c r="R94" s="358"/>
+      <c r="S94" s="358"/>
+      <c r="T94" s="358"/>
+      <c r="U94" s="358"/>
+      <c r="V94" s="358"/>
+      <c r="W94" s="358"/>
+      <c r="X94" s="358"/>
+      <c r="Y94" s="358"/>
+      <c r="Z94" s="358"/>
+      <c r="AA94" s="358"/>
+      <c r="AB94" s="358"/>
+      <c r="AC94" s="358"/>
+      <c r="AD94" s="358"/>
+      <c r="AE94" s="358"/>
+      <c r="AF94" s="358"/>
+      <c r="AG94" s="358"/>
       <c r="AH94" s="102"/>
       <c r="AI94" s="79"/>
       <c r="AJ94" s="25"/>
@@ -25094,7 +25138,7 @@
     </row>
     <row r="95" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A95" s="103"/>
-      <c r="B95" s="325"/>
+      <c r="B95" s="357"/>
       <c r="C95" s="104"/>
       <c r="D95" s="105"/>
       <c r="E95" s="104"/>
@@ -27478,16 +27522,16 @@
       <c r="V116" s="90"/>
       <c r="W116" s="90"/>
       <c r="X116" s="90"/>
-      <c r="Y116" s="327"/>
-      <c r="Z116" s="327"/>
-      <c r="AA116" s="327"/>
-      <c r="AB116" s="327"/>
-      <c r="AC116" s="327"/>
-      <c r="AD116" s="327"/>
-      <c r="AE116" s="327"/>
-      <c r="AF116" s="327"/>
-      <c r="AG116" s="327"/>
-      <c r="AH116" s="327"/>
+      <c r="Y116" s="359"/>
+      <c r="Z116" s="359"/>
+      <c r="AA116" s="359"/>
+      <c r="AB116" s="359"/>
+      <c r="AC116" s="359"/>
+      <c r="AD116" s="359"/>
+      <c r="AE116" s="359"/>
+      <c r="AF116" s="359"/>
+      <c r="AG116" s="359"/>
+      <c r="AH116" s="359"/>
       <c r="AI116" s="81"/>
     </row>
     <row r="117" spans="1:35" ht="27" customHeight="1">
@@ -27520,10 +27564,10 @@
       <c r="AA117" s="123"/>
       <c r="AB117" s="123"/>
       <c r="AC117" s="123"/>
-      <c r="AD117" s="249"/>
-      <c r="AE117" s="249"/>
-      <c r="AF117" s="300"/>
-      <c r="AG117" s="280"/>
+      <c r="AD117" s="248"/>
+      <c r="AE117" s="248"/>
+      <c r="AF117" s="299"/>
+      <c r="AG117" s="279"/>
       <c r="AH117" s="115"/>
       <c r="AI117" s="81"/>
     </row>
@@ -27557,10 +27601,10 @@
       <c r="AA118" s="123"/>
       <c r="AB118" s="123"/>
       <c r="AC118" s="123"/>
-      <c r="AD118" s="249"/>
-      <c r="AE118" s="249"/>
-      <c r="AF118" s="300"/>
-      <c r="AG118" s="280"/>
+      <c r="AD118" s="248"/>
+      <c r="AE118" s="248"/>
+      <c r="AF118" s="299"/>
+      <c r="AG118" s="279"/>
       <c r="AH118" s="115"/>
       <c r="AI118" s="81"/>
     </row>
@@ -27594,10 +27638,10 @@
       <c r="AA119" s="123"/>
       <c r="AB119" s="123"/>
       <c r="AC119" s="123"/>
-      <c r="AD119" s="249"/>
-      <c r="AE119" s="249"/>
-      <c r="AF119" s="300"/>
-      <c r="AG119" s="280"/>
+      <c r="AD119" s="248"/>
+      <c r="AE119" s="248"/>
+      <c r="AF119" s="299"/>
+      <c r="AG119" s="279"/>
       <c r="AH119" s="115"/>
       <c r="AI119" s="81"/>
     </row>
@@ -27626,16 +27670,16 @@
       <c r="V120" s="90"/>
       <c r="W120" s="90"/>
       <c r="X120" s="90"/>
-      <c r="Y120" s="317"/>
-      <c r="Z120" s="317"/>
-      <c r="AA120" s="317"/>
-      <c r="AB120" s="317"/>
-      <c r="AC120" s="317"/>
-      <c r="AD120" s="317"/>
-      <c r="AE120" s="317"/>
-      <c r="AF120" s="317"/>
-      <c r="AG120" s="317"/>
-      <c r="AH120" s="317"/>
+      <c r="Y120" s="351"/>
+      <c r="Z120" s="351"/>
+      <c r="AA120" s="351"/>
+      <c r="AB120" s="351"/>
+      <c r="AC120" s="351"/>
+      <c r="AD120" s="351"/>
+      <c r="AE120" s="351"/>
+      <c r="AF120" s="351"/>
+      <c r="AG120" s="351"/>
+      <c r="AH120" s="351"/>
       <c r="AI120" s="81"/>
     </row>
     <row r="121" spans="1:35" ht="27" customHeight="1">
@@ -29012,6 +29056,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Y116:AH116"/>
+    <mergeCell ref="Y120:AH120"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:AG52"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:Z75"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:AG94"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="AB31:AH31"/>
     <mergeCell ref="A1:E1"/>
@@ -29028,16 +29082,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="AB27:AH27"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="Y116:AH116"/>
-    <mergeCell ref="Y120:AH120"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:AG52"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:Z75"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:AG94"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -29457,240 +29501,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="372"/>
-      <c r="L1" s="372"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="372"/>
-      <c r="P1" s="372"/>
-      <c r="Q1" s="372"/>
-      <c r="R1" s="372"/>
-      <c r="S1" s="372"/>
-      <c r="T1" s="372"/>
-      <c r="U1" s="372"/>
-      <c r="V1" s="372"/>
-      <c r="W1" s="372"/>
-      <c r="X1" s="372"/>
-      <c r="Y1" s="372"/>
-      <c r="Z1" s="372"/>
-      <c r="AA1" s="372"/>
-      <c r="AB1" s="372"/>
-      <c r="AC1" s="372"/>
-      <c r="AD1" s="372"/>
-      <c r="AE1" s="372"/>
-      <c r="AF1" s="372"/>
-      <c r="AG1" s="372"/>
-      <c r="AH1" s="372"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="368"/>
+      <c r="P1" s="368"/>
+      <c r="Q1" s="368"/>
+      <c r="R1" s="368"/>
+      <c r="S1" s="368"/>
+      <c r="T1" s="368"/>
+      <c r="U1" s="368"/>
+      <c r="V1" s="368"/>
+      <c r="W1" s="368"/>
+      <c r="X1" s="368"/>
+      <c r="Y1" s="368"/>
+      <c r="Z1" s="368"/>
+      <c r="AA1" s="368"/>
+      <c r="AB1" s="368"/>
+      <c r="AC1" s="368"/>
+      <c r="AD1" s="368"/>
+      <c r="AE1" s="368"/>
+      <c r="AF1" s="368"/>
+      <c r="AG1" s="368"/>
+      <c r="AH1" s="368"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="372"/>
-      <c r="T2" s="372"/>
-      <c r="U2" s="372"/>
-      <c r="V2" s="372"/>
-      <c r="W2" s="372"/>
-      <c r="X2" s="372"/>
-      <c r="Y2" s="372"/>
-      <c r="Z2" s="372"/>
-      <c r="AA2" s="372"/>
-      <c r="AB2" s="372"/>
-      <c r="AC2" s="372"/>
-      <c r="AD2" s="372"/>
-      <c r="AE2" s="372"/>
-      <c r="AF2" s="372"/>
-      <c r="AG2" s="372"/>
-      <c r="AH2" s="372"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="368"/>
+      <c r="T2" s="368"/>
+      <c r="U2" s="368"/>
+      <c r="V2" s="368"/>
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="368"/>
+      <c r="AA2" s="368"/>
+      <c r="AB2" s="368"/>
+      <c r="AC2" s="368"/>
+      <c r="AD2" s="368"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="368"/>
+      <c r="AG2" s="368"/>
+      <c r="AH2" s="368"/>
     </row>
     <row r="3" spans="1:45" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="369" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="373"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="373"/>
-      <c r="Q3" s="373"/>
-      <c r="R3" s="373"/>
-      <c r="S3" s="373"/>
-      <c r="T3" s="373"/>
-      <c r="U3" s="373"/>
-      <c r="V3" s="373"/>
-      <c r="W3" s="373"/>
-      <c r="X3" s="373"/>
-      <c r="Y3" s="373"/>
-      <c r="Z3" s="373"/>
-      <c r="AA3" s="373"/>
-      <c r="AB3" s="373"/>
-      <c r="AC3" s="373"/>
-      <c r="AD3" s="373"/>
-      <c r="AE3" s="373"/>
-      <c r="AF3" s="373"/>
-      <c r="AG3" s="373"/>
-      <c r="AH3" s="373"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="369"/>
+      <c r="Q3" s="369"/>
+      <c r="R3" s="369"/>
+      <c r="S3" s="369"/>
+      <c r="T3" s="369"/>
+      <c r="U3" s="369"/>
+      <c r="V3" s="369"/>
+      <c r="W3" s="369"/>
+      <c r="X3" s="369"/>
+      <c r="Y3" s="369"/>
+      <c r="Z3" s="369"/>
+      <c r="AA3" s="369"/>
+      <c r="AB3" s="369"/>
+      <c r="AC3" s="369"/>
+      <c r="AD3" s="369"/>
+      <c r="AE3" s="369"/>
+      <c r="AF3" s="369"/>
+      <c r="AG3" s="369"/>
+      <c r="AH3" s="369"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374"/>
-      <c r="I4" s="374"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="374"/>
-      <c r="L4" s="374"/>
-      <c r="M4" s="374"/>
-      <c r="N4" s="374"/>
-      <c r="O4" s="374"/>
-      <c r="P4" s="374"/>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="374"/>
-      <c r="V4" s="374"/>
-      <c r="W4" s="374"/>
-      <c r="X4" s="374"/>
-      <c r="Y4" s="374"/>
-      <c r="Z4" s="374"/>
-      <c r="AA4" s="374"/>
-      <c r="AB4" s="374"/>
-      <c r="AC4" s="374"/>
-      <c r="AD4" s="374"/>
-      <c r="AE4" s="374"/>
-      <c r="AF4" s="374"/>
-      <c r="AG4" s="374"/>
-      <c r="AH4" s="374"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="370"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="370"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="370"/>
+      <c r="S4" s="370"/>
+      <c r="T4" s="370"/>
+      <c r="U4" s="370"/>
+      <c r="V4" s="370"/>
+      <c r="W4" s="370"/>
+      <c r="X4" s="370"/>
+      <c r="Y4" s="370"/>
+      <c r="Z4" s="370"/>
+      <c r="AA4" s="370"/>
+      <c r="AB4" s="370"/>
+      <c r="AC4" s="370"/>
+      <c r="AD4" s="370"/>
+      <c r="AE4" s="370"/>
+      <c r="AF4" s="370"/>
+      <c r="AG4" s="370"/>
+      <c r="AH4" s="370"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="349"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="349"/>
-      <c r="M5" s="349"/>
-      <c r="N5" s="349"/>
-      <c r="O5" s="349"/>
-      <c r="P5" s="349"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="U5" s="349"/>
-      <c r="V5" s="349"/>
-      <c r="W5" s="349"/>
-      <c r="X5" s="349"/>
-      <c r="Y5" s="349"/>
-      <c r="Z5" s="349"/>
-      <c r="AA5" s="349"/>
-      <c r="AB5" s="349"/>
-      <c r="AC5" s="349"/>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="349"/>
-      <c r="AF5" s="349"/>
-      <c r="AG5" s="349"/>
-      <c r="AH5" s="349"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="331"/>
+      <c r="AA5" s="331"/>
+      <c r="AB5" s="331"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="331"/>
+      <c r="AE5" s="331"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="331"/>
+      <c r="AH5" s="331"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="352" t="s">
+      <c r="B6" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
-      <c r="S6" s="364"/>
-      <c r="T6" s="364"/>
-      <c r="U6" s="364"/>
-      <c r="V6" s="364"/>
-      <c r="W6" s="364"/>
-      <c r="X6" s="364"/>
-      <c r="Y6" s="364"/>
-      <c r="Z6" s="364"/>
-      <c r="AA6" s="364"/>
-      <c r="AB6" s="364"/>
-      <c r="AC6" s="364"/>
-      <c r="AD6" s="364"/>
-      <c r="AE6" s="364"/>
-      <c r="AF6" s="364"/>
-      <c r="AG6" s="364"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
+      <c r="H6" s="363"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="363"/>
+      <c r="K6" s="363"/>
+      <c r="L6" s="363"/>
+      <c r="M6" s="363"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="363"/>
+      <c r="P6" s="363"/>
+      <c r="Q6" s="363"/>
+      <c r="R6" s="363"/>
+      <c r="S6" s="363"/>
+      <c r="T6" s="363"/>
+      <c r="U6" s="363"/>
+      <c r="V6" s="363"/>
+      <c r="W6" s="363"/>
+      <c r="X6" s="363"/>
+      <c r="Y6" s="363"/>
+      <c r="Z6" s="363"/>
+      <c r="AA6" s="363"/>
+      <c r="AB6" s="363"/>
+      <c r="AC6" s="363"/>
+      <c r="AD6" s="363"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="362"/>
-      <c r="B7" s="363"/>
+      <c r="A7" s="361"/>
+      <c r="B7" s="362"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -29782,31 +29826,31 @@
       <c r="AG7" s="144">
         <v>30</v>
       </c>
-      <c r="AH7" s="250" t="s">
+      <c r="AH7" s="249" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="331" t="s">
+      <c r="A8" s="337" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="333"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="334"/>
-      <c r="M8" s="334"/>
-      <c r="N8" s="334"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="335"/>
+      <c r="B8" s="338"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="340"/>
+      <c r="G8" s="340"/>
+      <c r="H8" s="340"/>
+      <c r="I8" s="340"/>
+      <c r="J8" s="340"/>
+      <c r="K8" s="340"/>
+      <c r="L8" s="340"/>
+      <c r="M8" s="340"/>
+      <c r="N8" s="340"/>
+      <c r="O8" s="340"/>
+      <c r="P8" s="340"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="341"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -29938,7 +29982,7 @@
       <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="292" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="28"/>
@@ -30650,10 +30694,10 @@
       <c r="AI17" s="30"/>
     </row>
     <row r="18" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="336" t="s">
+      <c r="A18" s="342" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="337"/>
+      <c r="B18" s="343"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -31286,10 +31330,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="369" t="s">
+      <c r="A25" s="371" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="370"/>
+      <c r="B25" s="372"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -31366,12 +31410,12 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="344" t="s">
+      <c r="B27" s="350" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="344"/>
-      <c r="D27" s="344"/>
-      <c r="E27" s="344"/>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -31393,16 +31437,16 @@
       <c r="X27" s="45"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="367" t="s">
+      <c r="AA27" s="366" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="367"/>
-      <c r="AC27" s="367"/>
-      <c r="AD27" s="367"/>
-      <c r="AE27" s="367"/>
-      <c r="AF27" s="367"/>
-      <c r="AG27" s="367"/>
-      <c r="AH27" s="367"/>
+      <c r="AB27" s="366"/>
+      <c r="AC27" s="366"/>
+      <c r="AD27" s="366"/>
+      <c r="AE27" s="366"/>
+      <c r="AF27" s="366"/>
+      <c r="AG27" s="366"/>
+      <c r="AH27" s="366"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -31515,12 +31559,12 @@
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="341" t="s">
+      <c r="B31" s="347" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="341"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="341"/>
+      <c r="C31" s="347"/>
+      <c r="D31" s="347"/>
+      <c r="E31" s="347"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -31542,90 +31586,90 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="371" t="s">
+      <c r="AA31" s="373" t="s">
         <v>59</v>
       </c>
-      <c r="AB31" s="371"/>
-      <c r="AC31" s="371"/>
-      <c r="AD31" s="371"/>
-      <c r="AE31" s="371"/>
-      <c r="AF31" s="371"/>
-      <c r="AG31" s="371"/>
-      <c r="AH31" s="371"/>
+      <c r="AB31" s="373"/>
+      <c r="AC31" s="373"/>
+      <c r="AD31" s="373"/>
+      <c r="AE31" s="373"/>
+      <c r="AF31" s="373"/>
+      <c r="AG31" s="373"/>
+      <c r="AH31" s="373"/>
     </row>
     <row r="32" spans="1:35" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="128"/>
-      <c r="C32" s="345"/>
-      <c r="D32" s="345"/>
-      <c r="E32" s="345"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
-      <c r="H32" s="345"/>
-      <c r="I32" s="345"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="345"/>
-      <c r="M32" s="345"/>
-      <c r="N32" s="345"/>
-      <c r="O32" s="345"/>
-      <c r="P32" s="345"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="345"/>
-      <c r="S32" s="345"/>
-      <c r="T32" s="345"/>
-      <c r="U32" s="345"/>
-      <c r="V32" s="345"/>
-      <c r="W32" s="345"/>
-      <c r="X32" s="345"/>
-      <c r="Y32" s="345"/>
-      <c r="Z32" s="345"/>
-      <c r="AA32" s="345"/>
-      <c r="AB32" s="345"/>
-      <c r="AC32" s="345"/>
-      <c r="AD32" s="345"/>
-      <c r="AE32" s="345"/>
-      <c r="AF32" s="345"/>
-      <c r="AG32" s="345"/>
-      <c r="AH32" s="345"/>
-      <c r="AI32" s="345"/>
+      <c r="C32" s="327"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="327"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="327"/>
+      <c r="Q32" s="327"/>
+      <c r="R32" s="327"/>
+      <c r="S32" s="327"/>
+      <c r="T32" s="327"/>
+      <c r="U32" s="327"/>
+      <c r="V32" s="327"/>
+      <c r="W32" s="327"/>
+      <c r="X32" s="327"/>
+      <c r="Y32" s="327"/>
+      <c r="Z32" s="327"/>
+      <c r="AA32" s="327"/>
+      <c r="AB32" s="327"/>
+      <c r="AC32" s="327"/>
+      <c r="AD32" s="327"/>
+      <c r="AE32" s="327"/>
+      <c r="AF32" s="327"/>
+      <c r="AG32" s="327"/>
+      <c r="AH32" s="327"/>
+      <c r="AI32" s="327"/>
     </row>
     <row r="33" spans="1:35" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="345"/>
-      <c r="D33" s="345"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="345"/>
-      <c r="G33" s="345"/>
-      <c r="H33" s="345"/>
-      <c r="I33" s="345"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="345"/>
-      <c r="M33" s="345"/>
-      <c r="N33" s="345"/>
-      <c r="O33" s="345"/>
-      <c r="P33" s="345"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="345"/>
-      <c r="S33" s="345"/>
-      <c r="T33" s="345"/>
-      <c r="U33" s="345"/>
-      <c r="V33" s="345"/>
-      <c r="W33" s="345"/>
-      <c r="X33" s="345"/>
-      <c r="Y33" s="345"/>
-      <c r="Z33" s="345"/>
-      <c r="AA33" s="345"/>
-      <c r="AB33" s="345"/>
-      <c r="AC33" s="345"/>
-      <c r="AD33" s="345"/>
-      <c r="AE33" s="345"/>
-      <c r="AF33" s="345"/>
-      <c r="AG33" s="345"/>
-      <c r="AH33" s="345"/>
-      <c r="AI33" s="345"/>
+      <c r="C33" s="327"/>
+      <c r="D33" s="327"/>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="327"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="327"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="327"/>
+      <c r="O33" s="327"/>
+      <c r="P33" s="327"/>
+      <c r="Q33" s="327"/>
+      <c r="R33" s="327"/>
+      <c r="S33" s="327"/>
+      <c r="T33" s="327"/>
+      <c r="U33" s="327"/>
+      <c r="V33" s="327"/>
+      <c r="W33" s="327"/>
+      <c r="X33" s="327"/>
+      <c r="Y33" s="327"/>
+      <c r="Z33" s="327"/>
+      <c r="AA33" s="327"/>
+      <c r="AB33" s="327"/>
+      <c r="AC33" s="327"/>
+      <c r="AD33" s="327"/>
+      <c r="AE33" s="327"/>
+      <c r="AF33" s="327"/>
+      <c r="AG33" s="327"/>
+      <c r="AH33" s="327"/>
+      <c r="AI33" s="327"/>
     </row>
     <row r="34" spans="1:35" ht="20.25" customHeight="1">
       <c r="A34" s="124"/>
@@ -32061,7 +32105,7 @@
       <c r="AH45" s="30"/>
     </row>
     <row r="46" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A46" s="322"/>
+      <c r="A46" s="332"/>
       <c r="B46" s="61"/>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -32097,44 +32141,44 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="323"/>
-      <c r="B47" s="328"/>
-      <c r="C47" s="328"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
-      <c r="N47" s="330"/>
-      <c r="O47" s="330"/>
-      <c r="P47" s="330"/>
-      <c r="Q47" s="330"/>
-      <c r="R47" s="330"/>
-      <c r="S47" s="330"/>
-      <c r="T47" s="330"/>
-      <c r="U47" s="330"/>
-      <c r="V47" s="330"/>
-      <c r="W47" s="330"/>
-      <c r="X47" s="330"/>
-      <c r="Y47" s="330"/>
-      <c r="Z47" s="330"/>
-      <c r="AA47" s="330"/>
-      <c r="AB47" s="330"/>
-      <c r="AC47" s="330"/>
-      <c r="AD47" s="330"/>
-      <c r="AE47" s="330"/>
-      <c r="AF47" s="330"/>
-      <c r="AG47" s="330"/>
+      <c r="A47" s="333"/>
+      <c r="B47" s="334"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="336"/>
+      <c r="E47" s="336"/>
+      <c r="F47" s="336"/>
+      <c r="G47" s="336"/>
+      <c r="H47" s="336"/>
+      <c r="I47" s="336"/>
+      <c r="J47" s="336"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="336"/>
+      <c r="M47" s="336"/>
+      <c r="N47" s="336"/>
+      <c r="O47" s="336"/>
+      <c r="P47" s="336"/>
+      <c r="Q47" s="336"/>
+      <c r="R47" s="336"/>
+      <c r="S47" s="336"/>
+      <c r="T47" s="336"/>
+      <c r="U47" s="336"/>
+      <c r="V47" s="336"/>
+      <c r="W47" s="336"/>
+      <c r="X47" s="336"/>
+      <c r="Y47" s="336"/>
+      <c r="Z47" s="336"/>
+      <c r="AA47" s="336"/>
+      <c r="AB47" s="336"/>
+      <c r="AC47" s="336"/>
+      <c r="AD47" s="336"/>
+      <c r="AE47" s="336"/>
+      <c r="AF47" s="336"/>
+      <c r="AG47" s="336"/>
       <c r="AH47" s="65"/>
     </row>
     <row r="48" spans="1:35" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="329"/>
+      <c r="B48" s="335"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -32933,38 +32977,38 @@
     </row>
     <row r="70" spans="1:36" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="43"/>
-      <c r="B70" s="318"/>
-      <c r="C70" s="319"/>
-      <c r="D70" s="319"/>
-      <c r="E70" s="319"/>
-      <c r="F70" s="319"/>
-      <c r="G70" s="319"/>
-      <c r="H70" s="320"/>
-      <c r="I70" s="321"/>
-      <c r="J70" s="321"/>
-      <c r="K70" s="321"/>
-      <c r="L70" s="321"/>
-      <c r="M70" s="321"/>
-      <c r="N70" s="321"/>
-      <c r="O70" s="321"/>
-      <c r="P70" s="321"/>
-      <c r="Q70" s="321"/>
-      <c r="R70" s="321"/>
-      <c r="S70" s="321"/>
-      <c r="T70" s="321"/>
-      <c r="U70" s="321"/>
-      <c r="V70" s="321"/>
-      <c r="W70" s="321"/>
-      <c r="X70" s="321"/>
-      <c r="Y70" s="321"/>
-      <c r="Z70" s="321"/>
+      <c r="B70" s="352"/>
+      <c r="C70" s="353"/>
+      <c r="D70" s="353"/>
+      <c r="E70" s="353"/>
+      <c r="F70" s="353"/>
+      <c r="G70" s="353"/>
+      <c r="H70" s="354"/>
+      <c r="I70" s="355"/>
+      <c r="J70" s="355"/>
+      <c r="K70" s="355"/>
+      <c r="L70" s="355"/>
+      <c r="M70" s="355"/>
+      <c r="N70" s="355"/>
+      <c r="O70" s="355"/>
+      <c r="P70" s="355"/>
+      <c r="Q70" s="355"/>
+      <c r="R70" s="355"/>
+      <c r="S70" s="355"/>
+      <c r="T70" s="355"/>
+      <c r="U70" s="355"/>
+      <c r="V70" s="355"/>
+      <c r="W70" s="355"/>
+      <c r="X70" s="355"/>
+      <c r="Y70" s="355"/>
+      <c r="Z70" s="355"/>
       <c r="AA70" s="126"/>
       <c r="AB70" s="126"/>
       <c r="AC70" s="126"/>
-      <c r="AD70" s="248"/>
-      <c r="AE70" s="248"/>
-      <c r="AF70" s="299"/>
-      <c r="AG70" s="279"/>
+      <c r="AD70" s="247"/>
+      <c r="AE70" s="247"/>
+      <c r="AF70" s="298"/>
+      <c r="AG70" s="278"/>
       <c r="AH70" s="86"/>
       <c r="AI70" s="79"/>
     </row>
@@ -34259,7 +34303,7 @@
       <c r="FK87" s="25"/>
     </row>
     <row r="88" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A88" s="322"/>
+      <c r="A88" s="332"/>
       <c r="B88" s="82"/>
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
@@ -34428,39 +34472,39 @@
       <c r="FK88" s="25"/>
     </row>
     <row r="89" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A89" s="323"/>
-      <c r="B89" s="324"/>
-      <c r="C89" s="324"/>
-      <c r="D89" s="326"/>
-      <c r="E89" s="326"/>
-      <c r="F89" s="326"/>
-      <c r="G89" s="326"/>
-      <c r="H89" s="326"/>
-      <c r="I89" s="326"/>
-      <c r="J89" s="326"/>
-      <c r="K89" s="326"/>
-      <c r="L89" s="326"/>
-      <c r="M89" s="326"/>
-      <c r="N89" s="326"/>
-      <c r="O89" s="326"/>
-      <c r="P89" s="326"/>
-      <c r="Q89" s="326"/>
-      <c r="R89" s="326"/>
-      <c r="S89" s="326"/>
-      <c r="T89" s="326"/>
-      <c r="U89" s="326"/>
-      <c r="V89" s="326"/>
-      <c r="W89" s="326"/>
-      <c r="X89" s="326"/>
-      <c r="Y89" s="326"/>
-      <c r="Z89" s="326"/>
-      <c r="AA89" s="326"/>
-      <c r="AB89" s="326"/>
-      <c r="AC89" s="326"/>
-      <c r="AD89" s="326"/>
-      <c r="AE89" s="326"/>
-      <c r="AF89" s="326"/>
-      <c r="AG89" s="326"/>
+      <c r="A89" s="333"/>
+      <c r="B89" s="356"/>
+      <c r="C89" s="356"/>
+      <c r="D89" s="358"/>
+      <c r="E89" s="358"/>
+      <c r="F89" s="358"/>
+      <c r="G89" s="358"/>
+      <c r="H89" s="358"/>
+      <c r="I89" s="358"/>
+      <c r="J89" s="358"/>
+      <c r="K89" s="358"/>
+      <c r="L89" s="358"/>
+      <c r="M89" s="358"/>
+      <c r="N89" s="358"/>
+      <c r="O89" s="358"/>
+      <c r="P89" s="358"/>
+      <c r="Q89" s="358"/>
+      <c r="R89" s="358"/>
+      <c r="S89" s="358"/>
+      <c r="T89" s="358"/>
+      <c r="U89" s="358"/>
+      <c r="V89" s="358"/>
+      <c r="W89" s="358"/>
+      <c r="X89" s="358"/>
+      <c r="Y89" s="358"/>
+      <c r="Z89" s="358"/>
+      <c r="AA89" s="358"/>
+      <c r="AB89" s="358"/>
+      <c r="AC89" s="358"/>
+      <c r="AD89" s="358"/>
+      <c r="AE89" s="358"/>
+      <c r="AF89" s="358"/>
+      <c r="AG89" s="358"/>
       <c r="AH89" s="102"/>
       <c r="AI89" s="79"/>
       <c r="AJ89" s="25"/>
@@ -34598,7 +34642,7 @@
     </row>
     <row r="90" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A90" s="103"/>
-      <c r="B90" s="325"/>
+      <c r="B90" s="357"/>
       <c r="C90" s="104"/>
       <c r="D90" s="105"/>
       <c r="E90" s="104"/>
@@ -36982,16 +37026,16 @@
       <c r="V111" s="90"/>
       <c r="W111" s="90"/>
       <c r="X111" s="90"/>
-      <c r="Y111" s="327"/>
-      <c r="Z111" s="327"/>
-      <c r="AA111" s="327"/>
-      <c r="AB111" s="327"/>
-      <c r="AC111" s="327"/>
-      <c r="AD111" s="327"/>
-      <c r="AE111" s="327"/>
-      <c r="AF111" s="327"/>
-      <c r="AG111" s="327"/>
-      <c r="AH111" s="327"/>
+      <c r="Y111" s="359"/>
+      <c r="Z111" s="359"/>
+      <c r="AA111" s="359"/>
+      <c r="AB111" s="359"/>
+      <c r="AC111" s="359"/>
+      <c r="AD111" s="359"/>
+      <c r="AE111" s="359"/>
+      <c r="AF111" s="359"/>
+      <c r="AG111" s="359"/>
+      <c r="AH111" s="359"/>
       <c r="AI111" s="81"/>
     </row>
     <row r="112" spans="1:167" ht="27" customHeight="1">
@@ -37024,10 +37068,10 @@
       <c r="AA112" s="123"/>
       <c r="AB112" s="123"/>
       <c r="AC112" s="123"/>
-      <c r="AD112" s="249"/>
-      <c r="AE112" s="249"/>
-      <c r="AF112" s="300"/>
-      <c r="AG112" s="280"/>
+      <c r="AD112" s="248"/>
+      <c r="AE112" s="248"/>
+      <c r="AF112" s="299"/>
+      <c r="AG112" s="279"/>
       <c r="AH112" s="115"/>
       <c r="AI112" s="81"/>
     </row>
@@ -37061,10 +37105,10 @@
       <c r="AA113" s="123"/>
       <c r="AB113" s="123"/>
       <c r="AC113" s="123"/>
-      <c r="AD113" s="249"/>
-      <c r="AE113" s="249"/>
-      <c r="AF113" s="300"/>
-      <c r="AG113" s="280"/>
+      <c r="AD113" s="248"/>
+      <c r="AE113" s="248"/>
+      <c r="AF113" s="299"/>
+      <c r="AG113" s="279"/>
       <c r="AH113" s="115"/>
       <c r="AI113" s="81"/>
     </row>
@@ -37098,10 +37142,10 @@
       <c r="AA114" s="123"/>
       <c r="AB114" s="123"/>
       <c r="AC114" s="123"/>
-      <c r="AD114" s="249"/>
-      <c r="AE114" s="249"/>
-      <c r="AF114" s="300"/>
-      <c r="AG114" s="280"/>
+      <c r="AD114" s="248"/>
+      <c r="AE114" s="248"/>
+      <c r="AF114" s="299"/>
+      <c r="AG114" s="279"/>
       <c r="AH114" s="115"/>
       <c r="AI114" s="81"/>
     </row>
@@ -37130,16 +37174,16 @@
       <c r="V115" s="90"/>
       <c r="W115" s="90"/>
       <c r="X115" s="90"/>
-      <c r="Y115" s="317"/>
-      <c r="Z115" s="317"/>
-      <c r="AA115" s="317"/>
-      <c r="AB115" s="317"/>
-      <c r="AC115" s="317"/>
-      <c r="AD115" s="317"/>
-      <c r="AE115" s="317"/>
-      <c r="AF115" s="317"/>
-      <c r="AG115" s="317"/>
-      <c r="AH115" s="317"/>
+      <c r="Y115" s="351"/>
+      <c r="Z115" s="351"/>
+      <c r="AA115" s="351"/>
+      <c r="AB115" s="351"/>
+      <c r="AC115" s="351"/>
+      <c r="AD115" s="351"/>
+      <c r="AE115" s="351"/>
+      <c r="AF115" s="351"/>
+      <c r="AG115" s="351"/>
+      <c r="AH115" s="351"/>
       <c r="AI115" s="81"/>
     </row>
     <row r="116" spans="1:35" ht="27" customHeight="1">
@@ -38516,6 +38560,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Y115:AH115"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:Z70"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:AG89"/>
+    <mergeCell ref="Y111:AH111"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:AG47"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="C32:AI33"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AH2"/>
@@ -38528,22 +38588,6 @@
     <mergeCell ref="C6:AG6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:R8"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="C32:AI33"/>
-    <mergeCell ref="Y115:AH115"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:Z70"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:AG89"/>
-    <mergeCell ref="Y111:AH111"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:AG47"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -38967,240 +39011,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="372"/>
-      <c r="L1" s="372"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="372"/>
-      <c r="P1" s="372"/>
-      <c r="Q1" s="372"/>
-      <c r="R1" s="372"/>
-      <c r="S1" s="372"/>
-      <c r="T1" s="372"/>
-      <c r="U1" s="372"/>
-      <c r="V1" s="372"/>
-      <c r="W1" s="372"/>
-      <c r="X1" s="372"/>
-      <c r="Y1" s="372"/>
-      <c r="Z1" s="372"/>
-      <c r="AA1" s="372"/>
-      <c r="AB1" s="372"/>
-      <c r="AC1" s="372"/>
-      <c r="AD1" s="372"/>
-      <c r="AE1" s="372"/>
-      <c r="AF1" s="372"/>
-      <c r="AG1" s="372"/>
-      <c r="AH1" s="372"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="368"/>
+      <c r="P1" s="368"/>
+      <c r="Q1" s="368"/>
+      <c r="R1" s="368"/>
+      <c r="S1" s="368"/>
+      <c r="T1" s="368"/>
+      <c r="U1" s="368"/>
+      <c r="V1" s="368"/>
+      <c r="W1" s="368"/>
+      <c r="X1" s="368"/>
+      <c r="Y1" s="368"/>
+      <c r="Z1" s="368"/>
+      <c r="AA1" s="368"/>
+      <c r="AB1" s="368"/>
+      <c r="AC1" s="368"/>
+      <c r="AD1" s="368"/>
+      <c r="AE1" s="368"/>
+      <c r="AF1" s="368"/>
+      <c r="AG1" s="368"/>
+      <c r="AH1" s="368"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="372"/>
-      <c r="T2" s="372"/>
-      <c r="U2" s="372"/>
-      <c r="V2" s="372"/>
-      <c r="W2" s="372"/>
-      <c r="X2" s="372"/>
-      <c r="Y2" s="372"/>
-      <c r="Z2" s="372"/>
-      <c r="AA2" s="372"/>
-      <c r="AB2" s="372"/>
-      <c r="AC2" s="372"/>
-      <c r="AD2" s="372"/>
-      <c r="AE2" s="372"/>
-      <c r="AF2" s="372"/>
-      <c r="AG2" s="372"/>
-      <c r="AH2" s="372"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="368"/>
+      <c r="T2" s="368"/>
+      <c r="U2" s="368"/>
+      <c r="V2" s="368"/>
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="368"/>
+      <c r="AA2" s="368"/>
+      <c r="AB2" s="368"/>
+      <c r="AC2" s="368"/>
+      <c r="AD2" s="368"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="368"/>
+      <c r="AG2" s="368"/>
+      <c r="AH2" s="368"/>
     </row>
     <row r="3" spans="1:45" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="369" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="373"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="373"/>
-      <c r="Q3" s="373"/>
-      <c r="R3" s="373"/>
-      <c r="S3" s="373"/>
-      <c r="T3" s="373"/>
-      <c r="U3" s="373"/>
-      <c r="V3" s="373"/>
-      <c r="W3" s="373"/>
-      <c r="X3" s="373"/>
-      <c r="Y3" s="373"/>
-      <c r="Z3" s="373"/>
-      <c r="AA3" s="373"/>
-      <c r="AB3" s="373"/>
-      <c r="AC3" s="373"/>
-      <c r="AD3" s="373"/>
-      <c r="AE3" s="373"/>
-      <c r="AF3" s="373"/>
-      <c r="AG3" s="373"/>
-      <c r="AH3" s="373"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="369"/>
+      <c r="Q3" s="369"/>
+      <c r="R3" s="369"/>
+      <c r="S3" s="369"/>
+      <c r="T3" s="369"/>
+      <c r="U3" s="369"/>
+      <c r="V3" s="369"/>
+      <c r="W3" s="369"/>
+      <c r="X3" s="369"/>
+      <c r="Y3" s="369"/>
+      <c r="Z3" s="369"/>
+      <c r="AA3" s="369"/>
+      <c r="AB3" s="369"/>
+      <c r="AC3" s="369"/>
+      <c r="AD3" s="369"/>
+      <c r="AE3" s="369"/>
+      <c r="AF3" s="369"/>
+      <c r="AG3" s="369"/>
+      <c r="AH3" s="369"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374"/>
-      <c r="I4" s="374"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="374"/>
-      <c r="L4" s="374"/>
-      <c r="M4" s="374"/>
-      <c r="N4" s="374"/>
-      <c r="O4" s="374"/>
-      <c r="P4" s="374"/>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="374"/>
-      <c r="V4" s="374"/>
-      <c r="W4" s="374"/>
-      <c r="X4" s="374"/>
-      <c r="Y4" s="374"/>
-      <c r="Z4" s="374"/>
-      <c r="AA4" s="374"/>
-      <c r="AB4" s="374"/>
-      <c r="AC4" s="374"/>
-      <c r="AD4" s="374"/>
-      <c r="AE4" s="374"/>
-      <c r="AF4" s="374"/>
-      <c r="AG4" s="374"/>
-      <c r="AH4" s="374"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="370"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="370"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="370"/>
+      <c r="S4" s="370"/>
+      <c r="T4" s="370"/>
+      <c r="U4" s="370"/>
+      <c r="V4" s="370"/>
+      <c r="W4" s="370"/>
+      <c r="X4" s="370"/>
+      <c r="Y4" s="370"/>
+      <c r="Z4" s="370"/>
+      <c r="AA4" s="370"/>
+      <c r="AB4" s="370"/>
+      <c r="AC4" s="370"/>
+      <c r="AD4" s="370"/>
+      <c r="AE4" s="370"/>
+      <c r="AF4" s="370"/>
+      <c r="AG4" s="370"/>
+      <c r="AH4" s="370"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="349"/>
-      <c r="E5" s="349"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="349"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="349"/>
-      <c r="M5" s="349"/>
-      <c r="N5" s="349"/>
-      <c r="O5" s="349"/>
-      <c r="P5" s="349"/>
-      <c r="Q5" s="349"/>
-      <c r="R5" s="349"/>
-      <c r="S5" s="349"/>
-      <c r="T5" s="349"/>
-      <c r="U5" s="349"/>
-      <c r="V5" s="349"/>
-      <c r="W5" s="349"/>
-      <c r="X5" s="349"/>
-      <c r="Y5" s="349"/>
-      <c r="Z5" s="349"/>
-      <c r="AA5" s="349"/>
-      <c r="AB5" s="349"/>
-      <c r="AC5" s="349"/>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="349"/>
-      <c r="AF5" s="349"/>
-      <c r="AG5" s="349"/>
-      <c r="AH5" s="349"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="331"/>
+      <c r="AA5" s="331"/>
+      <c r="AB5" s="331"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="331"/>
+      <c r="AE5" s="331"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="331"/>
+      <c r="AH5" s="331"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="352" t="s">
+      <c r="B6" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
-      <c r="S6" s="364"/>
-      <c r="T6" s="364"/>
-      <c r="U6" s="364"/>
-      <c r="V6" s="364"/>
-      <c r="W6" s="364"/>
-      <c r="X6" s="364"/>
-      <c r="Y6" s="364"/>
-      <c r="Z6" s="364"/>
-      <c r="AA6" s="364"/>
-      <c r="AB6" s="364"/>
-      <c r="AC6" s="364"/>
-      <c r="AD6" s="364"/>
-      <c r="AE6" s="364"/>
-      <c r="AF6" s="364"/>
-      <c r="AG6" s="364"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
+      <c r="H6" s="363"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="363"/>
+      <c r="K6" s="363"/>
+      <c r="L6" s="363"/>
+      <c r="M6" s="363"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="363"/>
+      <c r="P6" s="363"/>
+      <c r="Q6" s="363"/>
+      <c r="R6" s="363"/>
+      <c r="S6" s="363"/>
+      <c r="T6" s="363"/>
+      <c r="U6" s="363"/>
+      <c r="V6" s="363"/>
+      <c r="W6" s="363"/>
+      <c r="X6" s="363"/>
+      <c r="Y6" s="363"/>
+      <c r="Z6" s="363"/>
+      <c r="AA6" s="363"/>
+      <c r="AB6" s="363"/>
+      <c r="AC6" s="363"/>
+      <c r="AD6" s="363"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="375"/>
-      <c r="B7" s="376"/>
+      <c r="A7" s="374"/>
+      <c r="B7" s="375"/>
       <c r="C7" s="20" t="s">
         <v>52</v>
       </c>
@@ -39212,7 +39256,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="287"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="21"/>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
@@ -39234,7 +39278,7 @@
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="20"/>
-      <c r="AH7" s="381" t="s">
+      <c r="AH7" s="380" t="s">
         <v>42</v>
       </c>
       <c r="AK7" s="19">
@@ -39242,8 +39286,8 @@
       </c>
     </row>
     <row r="8" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="362"/>
-      <c r="B8" s="363"/>
+      <c r="A8" s="361"/>
+      <c r="B8" s="362"/>
       <c r="C8" s="145" t="s">
         <v>53</v>
       </c>
@@ -39265,7 +39309,7 @@
       <c r="I8" s="23">
         <v>7</v>
       </c>
-      <c r="J8" s="283" t="s">
+      <c r="J8" s="282" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="144">
@@ -39337,29 +39381,29 @@
       <c r="AG8" s="144">
         <v>31</v>
       </c>
-      <c r="AH8" s="382"/>
+      <c r="AH8" s="381"/>
     </row>
     <row r="9" spans="1:45" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="376" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="378"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
-      <c r="E9" s="334"/>
-      <c r="F9" s="334"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="334"/>
-      <c r="I9" s="334"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="334"/>
-      <c r="L9" s="334"/>
-      <c r="M9" s="334"/>
-      <c r="N9" s="334"/>
-      <c r="O9" s="334"/>
-      <c r="P9" s="334"/>
-      <c r="Q9" s="334"/>
-      <c r="R9" s="335"/>
+      <c r="B9" s="377"/>
+      <c r="C9" s="339"/>
+      <c r="D9" s="340"/>
+      <c r="E9" s="340"/>
+      <c r="F9" s="340"/>
+      <c r="G9" s="340"/>
+      <c r="H9" s="340"/>
+      <c r="I9" s="340"/>
+      <c r="J9" s="340"/>
+      <c r="K9" s="340"/>
+      <c r="L9" s="340"/>
+      <c r="M9" s="340"/>
+      <c r="N9" s="340"/>
+      <c r="O9" s="340"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="340"/>
+      <c r="R9" s="341"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
@@ -39371,10 +39415,10 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="24"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="278"/>
-      <c r="AG9" s="276"/>
+      <c r="AD9" s="271"/>
+      <c r="AE9" s="271"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="275"/>
       <c r="AH9" s="230">
         <f>SUM(AH10:AH17)</f>
         <v>7</v>
@@ -39431,7 +39475,7 @@
       <c r="AE10" s="29"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="28"/>
-      <c r="AH10" s="234">
+      <c r="AH10" s="233">
         <v>1</v>
       </c>
       <c r="AI10" s="30"/>
@@ -39475,7 +39519,7 @@
       <c r="AE11" s="29"/>
       <c r="AF11" s="29"/>
       <c r="AG11" s="28"/>
-      <c r="AH11" s="235"/>
+      <c r="AH11" s="234"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="31"/>
     </row>
@@ -39519,7 +39563,7 @@
       <c r="AE12" s="29"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="28"/>
-      <c r="AH12" s="235">
+      <c r="AH12" s="234">
         <v>2</v>
       </c>
       <c r="AI12" s="30"/>
@@ -39564,7 +39608,7 @@
       <c r="AE13" s="29"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="28"/>
-      <c r="AH13" s="235">
+      <c r="AH13" s="234">
         <v>1</v>
       </c>
       <c r="AI13" s="30"/>
@@ -39610,7 +39654,7 @@
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="28"/>
-      <c r="AH14" s="235"/>
+      <c r="AH14" s="234"/>
       <c r="AI14" s="30"/>
     </row>
     <row r="15" spans="1:45" s="25" customFormat="1" ht="18.75" customHeight="1">
@@ -39653,7 +39697,7 @@
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="28"/>
-      <c r="AH15" s="235">
+      <c r="AH15" s="234">
         <v>1</v>
       </c>
       <c r="AI15" s="30"/>
@@ -39698,7 +39742,7 @@
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="28"/>
-      <c r="AH16" s="235">
+      <c r="AH16" s="234">
         <v>1</v>
       </c>
       <c r="AI16" s="30"/>
@@ -39743,16 +39787,16 @@
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
       <c r="AG17" s="28"/>
-      <c r="AH17" s="235">
+      <c r="AH17" s="234">
         <v>1</v>
       </c>
       <c r="AI17" s="30"/>
     </row>
     <row r="18" spans="1:36" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="379" t="s">
+      <c r="A18" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="380"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -39830,7 +39874,7 @@
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
       <c r="AG19" s="28"/>
-      <c r="AH19" s="236">
+      <c r="AH19" s="235">
         <v>1</v>
       </c>
       <c r="AJ19" s="31"/>
@@ -39875,7 +39919,7 @@
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="28"/>
-      <c r="AH20" s="235">
+      <c r="AH20" s="234">
         <v>1</v>
       </c>
     </row>
@@ -39917,7 +39961,7 @@
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="28"/>
-      <c r="AH21" s="235"/>
+      <c r="AH21" s="234"/>
     </row>
     <row r="22" spans="1:36" s="32" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="27">
@@ -39959,7 +40003,7 @@
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="28"/>
-      <c r="AH22" s="237">
+      <c r="AH22" s="236">
         <v>1</v>
       </c>
     </row>
@@ -40003,7 +40047,7 @@
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
       <c r="AG23" s="28"/>
-      <c r="AH23" s="237">
+      <c r="AH23" s="236">
         <v>1</v>
       </c>
     </row>
@@ -40047,16 +40091,16 @@
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="28"/>
-      <c r="AH24" s="238">
+      <c r="AH24" s="237">
         <v>1</v>
       </c>
       <c r="AI24" s="25"/>
     </row>
     <row r="25" spans="1:36" s="32" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="369" t="s">
+      <c r="A25" s="371" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="370"/>
+      <c r="B25" s="372"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -40133,10 +40177,10 @@
     </row>
     <row r="27" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="344" t="s">
+      <c r="B27" s="350" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="344"/>
+      <c r="C27" s="350"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -40160,16 +40204,16 @@
       <c r="X27" s="45"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="367" t="s">
+      <c r="AA27" s="366" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="367"/>
-      <c r="AC27" s="367"/>
-      <c r="AD27" s="367"/>
-      <c r="AE27" s="367"/>
-      <c r="AF27" s="367"/>
-      <c r="AG27" s="367"/>
-      <c r="AH27" s="367"/>
+      <c r="AB27" s="366"/>
+      <c r="AC27" s="366"/>
+      <c r="AD27" s="366"/>
+      <c r="AE27" s="366"/>
+      <c r="AF27" s="366"/>
+      <c r="AG27" s="366"/>
+      <c r="AH27" s="366"/>
     </row>
     <row r="28" spans="1:36" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -40282,12 +40326,12 @@
     </row>
     <row r="31" spans="1:36" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="341" t="s">
+      <c r="B31" s="347" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="341"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="341"/>
+      <c r="C31" s="347"/>
+      <c r="D31" s="347"/>
+      <c r="E31" s="347"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -40309,90 +40353,90 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="371" t="s">
+      <c r="AA31" s="373" t="s">
         <v>59</v>
       </c>
-      <c r="AB31" s="371"/>
-      <c r="AC31" s="371"/>
-      <c r="AD31" s="371"/>
-      <c r="AE31" s="371"/>
-      <c r="AF31" s="371"/>
-      <c r="AG31" s="371"/>
-      <c r="AH31" s="371"/>
+      <c r="AB31" s="373"/>
+      <c r="AC31" s="373"/>
+      <c r="AD31" s="373"/>
+      <c r="AE31" s="373"/>
+      <c r="AF31" s="373"/>
+      <c r="AG31" s="373"/>
+      <c r="AH31" s="373"/>
     </row>
     <row r="32" spans="1:36" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="345"/>
-      <c r="D32" s="345"/>
-      <c r="E32" s="345"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
-      <c r="H32" s="345"/>
-      <c r="I32" s="345"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="345"/>
-      <c r="M32" s="345"/>
-      <c r="N32" s="345"/>
-      <c r="O32" s="345"/>
-      <c r="P32" s="345"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="345"/>
-      <c r="S32" s="345"/>
-      <c r="T32" s="345"/>
-      <c r="U32" s="345"/>
-      <c r="V32" s="345"/>
-      <c r="W32" s="345"/>
-      <c r="X32" s="345"/>
-      <c r="Y32" s="345"/>
-      <c r="Z32" s="345"/>
-      <c r="AA32" s="345"/>
-      <c r="AB32" s="345"/>
-      <c r="AC32" s="345"/>
-      <c r="AD32" s="345"/>
-      <c r="AE32" s="345"/>
-      <c r="AF32" s="345"/>
-      <c r="AG32" s="345"/>
-      <c r="AH32" s="345"/>
-      <c r="AI32" s="345"/>
+      <c r="C32" s="327"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="327"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="327"/>
+      <c r="Q32" s="327"/>
+      <c r="R32" s="327"/>
+      <c r="S32" s="327"/>
+      <c r="T32" s="327"/>
+      <c r="U32" s="327"/>
+      <c r="V32" s="327"/>
+      <c r="W32" s="327"/>
+      <c r="X32" s="327"/>
+      <c r="Y32" s="327"/>
+      <c r="Z32" s="327"/>
+      <c r="AA32" s="327"/>
+      <c r="AB32" s="327"/>
+      <c r="AC32" s="327"/>
+      <c r="AD32" s="327"/>
+      <c r="AE32" s="327"/>
+      <c r="AF32" s="327"/>
+      <c r="AG32" s="327"/>
+      <c r="AH32" s="327"/>
+      <c r="AI32" s="327"/>
     </row>
     <row r="33" spans="1:35" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="345"/>
-      <c r="D33" s="345"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="345"/>
-      <c r="G33" s="345"/>
-      <c r="H33" s="345"/>
-      <c r="I33" s="345"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="345"/>
-      <c r="M33" s="345"/>
-      <c r="N33" s="345"/>
-      <c r="O33" s="345"/>
-      <c r="P33" s="345"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="345"/>
-      <c r="S33" s="345"/>
-      <c r="T33" s="345"/>
-      <c r="U33" s="345"/>
-      <c r="V33" s="345"/>
-      <c r="W33" s="345"/>
-      <c r="X33" s="345"/>
-      <c r="Y33" s="345"/>
-      <c r="Z33" s="345"/>
-      <c r="AA33" s="345"/>
-      <c r="AB33" s="345"/>
-      <c r="AC33" s="345"/>
-      <c r="AD33" s="345"/>
-      <c r="AE33" s="345"/>
-      <c r="AF33" s="345"/>
-      <c r="AG33" s="345"/>
-      <c r="AH33" s="345"/>
-      <c r="AI33" s="345"/>
+      <c r="C33" s="327"/>
+      <c r="D33" s="327"/>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="327"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="327"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="327"/>
+      <c r="O33" s="327"/>
+      <c r="P33" s="327"/>
+      <c r="Q33" s="327"/>
+      <c r="R33" s="327"/>
+      <c r="S33" s="327"/>
+      <c r="T33" s="327"/>
+      <c r="U33" s="327"/>
+      <c r="V33" s="327"/>
+      <c r="W33" s="327"/>
+      <c r="X33" s="327"/>
+      <c r="Y33" s="327"/>
+      <c r="Z33" s="327"/>
+      <c r="AA33" s="327"/>
+      <c r="AB33" s="327"/>
+      <c r="AC33" s="327"/>
+      <c r="AD33" s="327"/>
+      <c r="AE33" s="327"/>
+      <c r="AF33" s="327"/>
+      <c r="AG33" s="327"/>
+      <c r="AH33" s="327"/>
+      <c r="AI33" s="327"/>
     </row>
     <row r="34" spans="1:35" ht="20.25" customHeight="1">
       <c r="A34" s="56"/>
@@ -40828,7 +40872,7 @@
       <c r="AH45" s="30"/>
     </row>
     <row r="46" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A46" s="322"/>
+      <c r="A46" s="332"/>
       <c r="B46" s="61"/>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -40864,44 +40908,44 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="323"/>
-      <c r="B47" s="328"/>
-      <c r="C47" s="328"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
-      <c r="N47" s="330"/>
-      <c r="O47" s="330"/>
-      <c r="P47" s="330"/>
-      <c r="Q47" s="330"/>
-      <c r="R47" s="330"/>
-      <c r="S47" s="330"/>
-      <c r="T47" s="330"/>
-      <c r="U47" s="330"/>
-      <c r="V47" s="330"/>
-      <c r="W47" s="330"/>
-      <c r="X47" s="330"/>
-      <c r="Y47" s="330"/>
-      <c r="Z47" s="330"/>
-      <c r="AA47" s="330"/>
-      <c r="AB47" s="330"/>
-      <c r="AC47" s="330"/>
-      <c r="AD47" s="330"/>
-      <c r="AE47" s="330"/>
-      <c r="AF47" s="330"/>
-      <c r="AG47" s="330"/>
+      <c r="A47" s="333"/>
+      <c r="B47" s="334"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="336"/>
+      <c r="E47" s="336"/>
+      <c r="F47" s="336"/>
+      <c r="G47" s="336"/>
+      <c r="H47" s="336"/>
+      <c r="I47" s="336"/>
+      <c r="J47" s="336"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="336"/>
+      <c r="M47" s="336"/>
+      <c r="N47" s="336"/>
+      <c r="O47" s="336"/>
+      <c r="P47" s="336"/>
+      <c r="Q47" s="336"/>
+      <c r="R47" s="336"/>
+      <c r="S47" s="336"/>
+      <c r="T47" s="336"/>
+      <c r="U47" s="336"/>
+      <c r="V47" s="336"/>
+      <c r="W47" s="336"/>
+      <c r="X47" s="336"/>
+      <c r="Y47" s="336"/>
+      <c r="Z47" s="336"/>
+      <c r="AA47" s="336"/>
+      <c r="AB47" s="336"/>
+      <c r="AC47" s="336"/>
+      <c r="AD47" s="336"/>
+      <c r="AE47" s="336"/>
+      <c r="AF47" s="336"/>
+      <c r="AG47" s="336"/>
       <c r="AH47" s="65"/>
     </row>
     <row r="48" spans="1:35" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="329"/>
+      <c r="B48" s="335"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -41700,37 +41744,37 @@
     </row>
     <row r="70" spans="1:36" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="43"/>
-      <c r="B70" s="318"/>
-      <c r="C70" s="319"/>
-      <c r="D70" s="319"/>
-      <c r="E70" s="319"/>
-      <c r="F70" s="319"/>
-      <c r="G70" s="319"/>
-      <c r="H70" s="320"/>
-      <c r="I70" s="321"/>
-      <c r="J70" s="321"/>
-      <c r="K70" s="321"/>
-      <c r="L70" s="321"/>
-      <c r="M70" s="321"/>
-      <c r="N70" s="321"/>
-      <c r="O70" s="321"/>
-      <c r="P70" s="321"/>
-      <c r="Q70" s="321"/>
-      <c r="R70" s="321"/>
-      <c r="S70" s="321"/>
-      <c r="T70" s="321"/>
-      <c r="U70" s="321"/>
-      <c r="V70" s="321"/>
-      <c r="W70" s="321"/>
-      <c r="X70" s="321"/>
-      <c r="Y70" s="321"/>
-      <c r="Z70" s="321"/>
+      <c r="B70" s="352"/>
+      <c r="C70" s="353"/>
+      <c r="D70" s="353"/>
+      <c r="E70" s="353"/>
+      <c r="F70" s="353"/>
+      <c r="G70" s="353"/>
+      <c r="H70" s="354"/>
+      <c r="I70" s="355"/>
+      <c r="J70" s="355"/>
+      <c r="K70" s="355"/>
+      <c r="L70" s="355"/>
+      <c r="M70" s="355"/>
+      <c r="N70" s="355"/>
+      <c r="O70" s="355"/>
+      <c r="P70" s="355"/>
+      <c r="Q70" s="355"/>
+      <c r="R70" s="355"/>
+      <c r="S70" s="355"/>
+      <c r="T70" s="355"/>
+      <c r="U70" s="355"/>
+      <c r="V70" s="355"/>
+      <c r="W70" s="355"/>
+      <c r="X70" s="355"/>
+      <c r="Y70" s="355"/>
+      <c r="Z70" s="355"/>
       <c r="AA70" s="78"/>
       <c r="AB70" s="78"/>
       <c r="AC70" s="78"/>
-      <c r="AD70" s="273"/>
-      <c r="AE70" s="273"/>
-      <c r="AF70" s="279"/>
+      <c r="AD70" s="272"/>
+      <c r="AE70" s="272"/>
+      <c r="AF70" s="278"/>
       <c r="AG70" s="78"/>
       <c r="AH70" s="86"/>
       <c r="AI70" s="79"/>
@@ -43026,7 +43070,7 @@
       <c r="FK87" s="25"/>
     </row>
     <row r="88" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A88" s="322"/>
+      <c r="A88" s="332"/>
       <c r="B88" s="82"/>
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
@@ -43195,39 +43239,39 @@
       <c r="FK88" s="25"/>
     </row>
     <row r="89" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A89" s="323"/>
-      <c r="B89" s="324"/>
-      <c r="C89" s="324"/>
-      <c r="D89" s="326"/>
-      <c r="E89" s="326"/>
-      <c r="F89" s="326"/>
-      <c r="G89" s="326"/>
-      <c r="H89" s="326"/>
-      <c r="I89" s="326"/>
-      <c r="J89" s="326"/>
-      <c r="K89" s="326"/>
-      <c r="L89" s="326"/>
-      <c r="M89" s="326"/>
-      <c r="N89" s="326"/>
-      <c r="O89" s="326"/>
-      <c r="P89" s="326"/>
-      <c r="Q89" s="326"/>
-      <c r="R89" s="326"/>
-      <c r="S89" s="326"/>
-      <c r="T89" s="326"/>
-      <c r="U89" s="326"/>
-      <c r="V89" s="326"/>
-      <c r="W89" s="326"/>
-      <c r="X89" s="326"/>
-      <c r="Y89" s="326"/>
-      <c r="Z89" s="326"/>
-      <c r="AA89" s="326"/>
-      <c r="AB89" s="326"/>
-      <c r="AC89" s="326"/>
-      <c r="AD89" s="326"/>
-      <c r="AE89" s="326"/>
-      <c r="AF89" s="326"/>
-      <c r="AG89" s="326"/>
+      <c r="A89" s="333"/>
+      <c r="B89" s="356"/>
+      <c r="C89" s="356"/>
+      <c r="D89" s="358"/>
+      <c r="E89" s="358"/>
+      <c r="F89" s="358"/>
+      <c r="G89" s="358"/>
+      <c r="H89" s="358"/>
+      <c r="I89" s="358"/>
+      <c r="J89" s="358"/>
+      <c r="K89" s="358"/>
+      <c r="L89" s="358"/>
+      <c r="M89" s="358"/>
+      <c r="N89" s="358"/>
+      <c r="O89" s="358"/>
+      <c r="P89" s="358"/>
+      <c r="Q89" s="358"/>
+      <c r="R89" s="358"/>
+      <c r="S89" s="358"/>
+      <c r="T89" s="358"/>
+      <c r="U89" s="358"/>
+      <c r="V89" s="358"/>
+      <c r="W89" s="358"/>
+      <c r="X89" s="358"/>
+      <c r="Y89" s="358"/>
+      <c r="Z89" s="358"/>
+      <c r="AA89" s="358"/>
+      <c r="AB89" s="358"/>
+      <c r="AC89" s="358"/>
+      <c r="AD89" s="358"/>
+      <c r="AE89" s="358"/>
+      <c r="AF89" s="358"/>
+      <c r="AG89" s="358"/>
       <c r="AH89" s="102"/>
       <c r="AI89" s="79"/>
       <c r="AJ89" s="25"/>
@@ -43365,7 +43409,7 @@
     </row>
     <row r="90" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A90" s="103"/>
-      <c r="B90" s="325"/>
+      <c r="B90" s="357"/>
       <c r="C90" s="104"/>
       <c r="D90" s="105"/>
       <c r="E90" s="104"/>
@@ -45749,16 +45793,16 @@
       <c r="V111" s="90"/>
       <c r="W111" s="90"/>
       <c r="X111" s="90"/>
-      <c r="Y111" s="327"/>
-      <c r="Z111" s="327"/>
-      <c r="AA111" s="327"/>
-      <c r="AB111" s="327"/>
-      <c r="AC111" s="327"/>
-      <c r="AD111" s="327"/>
-      <c r="AE111" s="327"/>
-      <c r="AF111" s="327"/>
-      <c r="AG111" s="327"/>
-      <c r="AH111" s="327"/>
+      <c r="Y111" s="359"/>
+      <c r="Z111" s="359"/>
+      <c r="AA111" s="359"/>
+      <c r="AB111" s="359"/>
+      <c r="AC111" s="359"/>
+      <c r="AD111" s="359"/>
+      <c r="AE111" s="359"/>
+      <c r="AF111" s="359"/>
+      <c r="AG111" s="359"/>
+      <c r="AH111" s="359"/>
       <c r="AI111" s="81"/>
     </row>
     <row r="112" spans="1:167" ht="27" customHeight="1">
@@ -45791,9 +45835,9 @@
       <c r="AA112" s="114"/>
       <c r="AB112" s="114"/>
       <c r="AC112" s="114"/>
-      <c r="AD112" s="275"/>
-      <c r="AE112" s="275"/>
-      <c r="AF112" s="280"/>
+      <c r="AD112" s="274"/>
+      <c r="AE112" s="274"/>
+      <c r="AF112" s="279"/>
       <c r="AG112" s="114"/>
       <c r="AH112" s="115"/>
       <c r="AI112" s="81"/>
@@ -45828,9 +45872,9 @@
       <c r="AA113" s="114"/>
       <c r="AB113" s="114"/>
       <c r="AC113" s="114"/>
-      <c r="AD113" s="275"/>
-      <c r="AE113" s="275"/>
-      <c r="AF113" s="280"/>
+      <c r="AD113" s="274"/>
+      <c r="AE113" s="274"/>
+      <c r="AF113" s="279"/>
       <c r="AG113" s="114"/>
       <c r="AH113" s="115"/>
       <c r="AI113" s="81"/>
@@ -45865,9 +45909,9 @@
       <c r="AA114" s="114"/>
       <c r="AB114" s="114"/>
       <c r="AC114" s="114"/>
-      <c r="AD114" s="275"/>
-      <c r="AE114" s="275"/>
-      <c r="AF114" s="280"/>
+      <c r="AD114" s="274"/>
+      <c r="AE114" s="274"/>
+      <c r="AF114" s="279"/>
       <c r="AG114" s="114"/>
       <c r="AH114" s="115"/>
       <c r="AI114" s="81"/>
@@ -45897,16 +45941,16 @@
       <c r="V115" s="90"/>
       <c r="W115" s="90"/>
       <c r="X115" s="90"/>
-      <c r="Y115" s="317"/>
-      <c r="Z115" s="317"/>
-      <c r="AA115" s="317"/>
-      <c r="AB115" s="317"/>
-      <c r="AC115" s="317"/>
-      <c r="AD115" s="317"/>
-      <c r="AE115" s="317"/>
-      <c r="AF115" s="317"/>
-      <c r="AG115" s="317"/>
-      <c r="AH115" s="317"/>
+      <c r="Y115" s="351"/>
+      <c r="Z115" s="351"/>
+      <c r="AA115" s="351"/>
+      <c r="AB115" s="351"/>
+      <c r="AC115" s="351"/>
+      <c r="AD115" s="351"/>
+      <c r="AE115" s="351"/>
+      <c r="AF115" s="351"/>
+      <c r="AG115" s="351"/>
+      <c r="AH115" s="351"/>
       <c r="AI115" s="81"/>
     </row>
     <row r="116" spans="1:35" ht="27" customHeight="1">
@@ -47283,12 +47327,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AH2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="Y111:AH111"/>
+    <mergeCell ref="Y115:AH115"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:AG47"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:Z70"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:AG89"/>
     <mergeCell ref="C32:AI33"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -47302,16 +47350,12 @@
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="AA31:AH31"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="Y111:AH111"/>
-    <mergeCell ref="Y115:AH115"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:AG47"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:Z70"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:AG89"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AH2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/Mãu chấm công_Tài Liệu.xlsx
+++ b/Mãu chấm công_Tài Liệu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNC\Downloads\AssignmentChamCong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E57D43-BB2A-40C0-8CE1-836ED7B6A0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785BA48C-1467-4734-9DE2-A589A1462BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="98">
   <si>
     <t>XÍ NGHIỆP VẬT TƯ HÒN GAI</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>P : Cả ngày (full time)</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -2628,26 +2631,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2667,65 +2656,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2778,32 +2770,53 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2829,13 +2842,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2844,6 +2850,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2868,16 +2881,6 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -5797,110 +5800,110 @@
       <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="L2" s="306" t="s">
+      <c r="B2" s="313"/>
+      <c r="L2" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="306"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="313" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="L3" s="306" t="s">
+      <c r="B3" s="313"/>
+      <c r="L3" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="306"/>
-      <c r="N3" s="306"/>
-      <c r="O3" s="306"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
     </row>
     <row r="4" spans="1:15" ht="22.5">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="308"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="308"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="309" t="s">
+      <c r="B6" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="309" t="s">
+      <c r="C6" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="310" t="s">
+      <c r="D6" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312" t="s">
+      <c r="E6" s="307"/>
+      <c r="F6" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="302" t="s">
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="302" t="s">
+      <c r="J6" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="302" t="s">
+      <c r="K6" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="312" t="s">
+      <c r="L6" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="314"/>
-      <c r="N6" s="309" t="s">
+      <c r="M6" s="312"/>
+      <c r="N6" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="309" t="s">
+      <c r="O6" s="305" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57">
-      <c r="A7" s="309"/>
-      <c r="B7" s="309"/>
-      <c r="C7" s="309"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
@@ -5916,17 +5919,17 @@
       <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
+      <c r="I7" s="311"/>
+      <c r="J7" s="311"/>
+      <c r="K7" s="311"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="309"/>
-      <c r="O7" s="309"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1">
       <c r="A8" s="251">
@@ -6254,11 +6257,11 @@
       <c r="O16" s="259"/>
     </row>
     <row r="17" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="305" t="s">
+      <c r="A17" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="305"/>
-      <c r="C17" s="305"/>
+      <c r="B17" s="317"/>
+      <c r="C17" s="317"/>
       <c r="D17" s="3">
         <f>SUM(D8:D16)</f>
         <v>186</v>
@@ -6294,17 +6297,17 @@
       <c r="O17" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="301" t="s">
+      <c r="A19" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="301"/>
-      <c r="C19" s="301"/>
-      <c r="D19" s="301" t="s">
+      <c r="B19" s="315"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="301"/>
-      <c r="F19" s="301"/>
-      <c r="G19" s="301"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
@@ -6312,30 +6315,43 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="301" t="s">
+      <c r="M19" s="315" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="301"/>
-      <c r="O19" s="301"/>
+      <c r="N19" s="315"/>
+      <c r="O19" s="315"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="304" t="s">
+      <c r="A25" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="304"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="306" t="s">
+      <c r="B25" s="316"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="306"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="313"/>
       <c r="H25" s="287"/>
-      <c r="I25" s="304"/>
-      <c r="J25" s="304"/>
+      <c r="I25" s="316"/>
+      <c r="J25" s="316"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -6347,19 +6363,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D25:G25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6397,112 +6400,112 @@
       <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="L2" s="306" t="s">
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="L2" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="306"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="318" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="L3" s="306" t="s">
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="L3" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="306"/>
-      <c r="N3" s="306"/>
-      <c r="O3" s="306"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
     </row>
     <row r="4" spans="1:17" ht="22.5">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="308"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="308"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="309" t="s">
+      <c r="B6" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="309" t="s">
+      <c r="C6" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="310" t="s">
+      <c r="D6" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312" t="s">
+      <c r="E6" s="307"/>
+      <c r="F6" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="302" t="s">
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="302" t="s">
+      <c r="J6" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="302" t="s">
+      <c r="K6" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="312" t="s">
+      <c r="L6" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="314"/>
-      <c r="N6" s="309" t="s">
+      <c r="M6" s="312"/>
+      <c r="N6" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="309" t="s">
+      <c r="O6" s="305" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="48" customHeight="1">
-      <c r="A7" s="309"/>
-      <c r="B7" s="309"/>
-      <c r="C7" s="309"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
@@ -6518,17 +6521,17 @@
       <c r="H7" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
+      <c r="I7" s="311"/>
+      <c r="J7" s="311"/>
+      <c r="K7" s="311"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="309"/>
-      <c r="O7" s="309"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="251">
@@ -6752,11 +6755,11 @@
       <c r="O13" s="259"/>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A14" s="305" t="s">
+      <c r="A14" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="305"/>
-      <c r="C14" s="305"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="3">
         <f t="shared" ref="D14:K14" si="2">SUM(D8:D13)</f>
         <v>109</v>
@@ -6796,42 +6799,42 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="301" t="s">
+      <c r="A16" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="301"/>
-      <c r="C16" s="301"/>
+      <c r="B16" s="315"/>
+      <c r="C16" s="315"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="301" t="s">
+      <c r="E16" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="301"/>
-      <c r="G16" s="301"/>
-      <c r="H16" s="301"/>
-      <c r="I16" s="301" t="s">
+      <c r="F16" s="315"/>
+      <c r="G16" s="315"/>
+      <c r="H16" s="315"/>
+      <c r="I16" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="301"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301" t="s">
+      <c r="J16" s="315"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="315"/>
+      <c r="M16" s="315" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
+      <c r="N16" s="315"/>
+      <c r="O16" s="315"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="304" t="s">
+      <c r="A22" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="304"/>
-      <c r="C22" s="304"/>
-      <c r="E22" s="304" t="s">
+      <c r="B22" s="316"/>
+      <c r="C22" s="316"/>
+      <c r="E22" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="304"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="304"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="316"/>
       <c r="I22" s="250"/>
       <c r="J22" s="250"/>
       <c r="K22" s="250"/>
@@ -6839,6 +6842,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="L2:O2"/>
@@ -6852,17 +6866,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -6873,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FQ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14:AT15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -8371,13 +8374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="15" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
       <c r="H1" s="117"/>
       <c r="I1" s="117"/>
       <c r="J1" s="117"/>
@@ -8403,13 +8406,13 @@
       <c r="AG1" s="117"/>
     </row>
     <row r="2" spans="1:51" ht="14.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="135"/>
       <c r="G2" s="135"/>
       <c r="H2" s="136"/>
@@ -8447,183 +8450,183 @@
       <c r="AN2" s="141"/>
     </row>
     <row r="3" spans="1:51" ht="24" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="350" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="329"/>
-      <c r="T3" s="329"/>
-      <c r="U3" s="329"/>
-      <c r="V3" s="329"/>
-      <c r="W3" s="329"/>
-      <c r="X3" s="329"/>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="329"/>
-      <c r="AA3" s="329"/>
-      <c r="AB3" s="329"/>
-      <c r="AC3" s="329"/>
-      <c r="AD3" s="329"/>
-      <c r="AE3" s="329"/>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="329"/>
-      <c r="AH3" s="329"/>
-      <c r="AI3" s="329"/>
-      <c r="AJ3" s="329"/>
-      <c r="AK3" s="329"/>
-      <c r="AL3" s="329"/>
-      <c r="AM3" s="329"/>
-      <c r="AN3" s="329"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="350"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="350"/>
+      <c r="Q3" s="350"/>
+      <c r="R3" s="350"/>
+      <c r="S3" s="350"/>
+      <c r="T3" s="350"/>
+      <c r="U3" s="350"/>
+      <c r="V3" s="350"/>
+      <c r="W3" s="350"/>
+      <c r="X3" s="350"/>
+      <c r="Y3" s="350"/>
+      <c r="Z3" s="350"/>
+      <c r="AA3" s="350"/>
+      <c r="AB3" s="350"/>
+      <c r="AC3" s="350"/>
+      <c r="AD3" s="350"/>
+      <c r="AE3" s="350"/>
+      <c r="AF3" s="350"/>
+      <c r="AG3" s="350"/>
+      <c r="AH3" s="350"/>
+      <c r="AI3" s="350"/>
+      <c r="AJ3" s="350"/>
+      <c r="AK3" s="350"/>
+      <c r="AL3" s="350"/>
+      <c r="AM3" s="350"/>
+      <c r="AN3" s="350"/>
     </row>
     <row r="4" spans="1:51" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="351" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="330"/>
-      <c r="V4" s="330"/>
-      <c r="W4" s="330"/>
-      <c r="X4" s="330"/>
-      <c r="Y4" s="330"/>
-      <c r="Z4" s="330"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="330"/>
-      <c r="AC4" s="330"/>
-      <c r="AD4" s="330"/>
-      <c r="AE4" s="330"/>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="330"/>
-      <c r="AH4" s="330"/>
-      <c r="AI4" s="330"/>
-      <c r="AJ4" s="330"/>
-      <c r="AK4" s="330"/>
-      <c r="AL4" s="330"/>
-      <c r="AM4" s="330"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="351"/>
+      <c r="I4" s="351"/>
+      <c r="J4" s="351"/>
+      <c r="K4" s="351"/>
+      <c r="L4" s="351"/>
+      <c r="M4" s="351"/>
+      <c r="N4" s="351"/>
+      <c r="O4" s="351"/>
+      <c r="P4" s="351"/>
+      <c r="Q4" s="351"/>
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
+      <c r="U4" s="351"/>
+      <c r="V4" s="351"/>
+      <c r="W4" s="351"/>
+      <c r="X4" s="351"/>
+      <c r="Y4" s="351"/>
+      <c r="Z4" s="351"/>
+      <c r="AA4" s="351"/>
+      <c r="AB4" s="351"/>
+      <c r="AC4" s="351"/>
+      <c r="AD4" s="351"/>
+      <c r="AE4" s="351"/>
+      <c r="AF4" s="351"/>
+      <c r="AG4" s="351"/>
+      <c r="AH4" s="351"/>
+      <c r="AI4" s="351"/>
+      <c r="AJ4" s="351"/>
+      <c r="AK4" s="351"/>
+      <c r="AL4" s="351"/>
+      <c r="AM4" s="351"/>
     </row>
     <row r="5" spans="1:51" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="331"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="331"/>
-      <c r="AD5" s="331"/>
-      <c r="AE5" s="331"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="331"/>
-      <c r="AH5" s="331"/>
-      <c r="AI5" s="331"/>
-      <c r="AJ5" s="331"/>
-      <c r="AK5" s="331"/>
-      <c r="AL5" s="331"/>
-      <c r="AM5" s="331"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="352"/>
+      <c r="P5" s="352"/>
+      <c r="Q5" s="352"/>
+      <c r="R5" s="352"/>
+      <c r="S5" s="352"/>
+      <c r="T5" s="352"/>
+      <c r="U5" s="352"/>
+      <c r="V5" s="352"/>
+      <c r="W5" s="352"/>
+      <c r="X5" s="352"/>
+      <c r="Y5" s="352"/>
+      <c r="Z5" s="352"/>
+      <c r="AA5" s="352"/>
+      <c r="AB5" s="352"/>
+      <c r="AC5" s="352"/>
+      <c r="AD5" s="352"/>
+      <c r="AE5" s="352"/>
+      <c r="AF5" s="352"/>
+      <c r="AG5" s="352"/>
+      <c r="AH5" s="352"/>
+      <c r="AI5" s="352"/>
+      <c r="AJ5" s="352"/>
+      <c r="AK5" s="352"/>
+      <c r="AL5" s="352"/>
+      <c r="AM5" s="352"/>
       <c r="AN5" s="142"/>
     </row>
     <row r="6" spans="1:51" s="19" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="353" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="320" t="s">
+      <c r="C6" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="321"/>
-      <c r="E6" s="321"/>
-      <c r="F6" s="321"/>
-      <c r="G6" s="321"/>
-      <c r="H6" s="321"/>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="321"/>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="321"/>
-      <c r="S6" s="321"/>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="321"/>
-      <c r="W6" s="321"/>
-      <c r="X6" s="321"/>
-      <c r="Y6" s="321"/>
-      <c r="Z6" s="321"/>
-      <c r="AA6" s="321"/>
-      <c r="AB6" s="321"/>
-      <c r="AC6" s="321"/>
-      <c r="AD6" s="321"/>
-      <c r="AE6" s="321"/>
-      <c r="AF6" s="321"/>
-      <c r="AG6" s="321"/>
-      <c r="AH6" s="322" t="s">
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="358"/>
+      <c r="L6" s="358"/>
+      <c r="M6" s="358"/>
+      <c r="N6" s="358"/>
+      <c r="O6" s="358"/>
+      <c r="P6" s="358"/>
+      <c r="Q6" s="358"/>
+      <c r="R6" s="358"/>
+      <c r="S6" s="358"/>
+      <c r="T6" s="358"/>
+      <c r="U6" s="358"/>
+      <c r="V6" s="358"/>
+      <c r="W6" s="358"/>
+      <c r="X6" s="358"/>
+      <c r="Y6" s="358"/>
+      <c r="Z6" s="358"/>
+      <c r="AA6" s="358"/>
+      <c r="AB6" s="358"/>
+      <c r="AC6" s="358"/>
+      <c r="AD6" s="358"/>
+      <c r="AE6" s="358"/>
+      <c r="AF6" s="358"/>
+      <c r="AG6" s="358"/>
+      <c r="AH6" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="323"/>
-      <c r="AJ6" s="323"/>
-      <c r="AK6" s="323"/>
-      <c r="AL6" s="323"/>
-      <c r="AM6" s="324"/>
-      <c r="AN6" s="325" t="s">
+      <c r="AI6" s="360"/>
+      <c r="AJ6" s="360"/>
+      <c r="AK6" s="360"/>
+      <c r="AL6" s="360"/>
+      <c r="AM6" s="361"/>
+      <c r="AN6" s="362" t="s">
         <v>61</v>
       </c>
       <c r="AP6" s="28" t="s">
@@ -8631,8 +8634,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" s="19" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="317"/>
-      <c r="B7" s="319"/>
+      <c r="A7" s="354"/>
+      <c r="B7" s="356"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -8744,30 +8747,30 @@
       <c r="AM7" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AN7" s="326"/>
+      <c r="AN7" s="363"/>
       <c r="AO7" s="149"/>
     </row>
     <row r="8" spans="1:51" s="26" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="337" t="s">
+      <c r="A8" s="334" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="338"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="340"/>
-      <c r="G8" s="340"/>
-      <c r="H8" s="340"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="340"/>
-      <c r="K8" s="340"/>
-      <c r="L8" s="340"/>
-      <c r="M8" s="340"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="341"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="337"/>
+      <c r="L8" s="337"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="337"/>
+      <c r="Q8" s="337"/>
+      <c r="R8" s="338"/>
       <c r="S8" s="150"/>
       <c r="T8" s="150"/>
       <c r="U8" s="150"/>
@@ -8917,7 +8920,7 @@
       <c r="AM9" s="158"/>
       <c r="AN9" s="159"/>
       <c r="AO9" s="19"/>
-      <c r="AP9" s="382" t="s">
+      <c r="AP9" s="301" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8928,7 +8931,9 @@
       <c r="B10" s="292" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -9009,7 +9014,7 @@
       <c r="AM10" s="158"/>
       <c r="AN10" s="159"/>
       <c r="AO10" s="19"/>
-      <c r="AP10" s="382" t="s">
+      <c r="AP10" s="301" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9125,7 +9130,7 @@
       </c>
       <c r="AN11" s="159"/>
       <c r="AO11" s="19"/>
-      <c r="AP11" s="382" t="s">
+      <c r="AP11" s="301" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9425,11 +9430,11 @@
       <c r="AM14" s="160"/>
       <c r="AN14" s="159"/>
       <c r="AO14" s="19"/>
-      <c r="AP14" s="385"/>
-      <c r="AQ14" s="385"/>
-      <c r="AR14" s="385"/>
-      <c r="AS14" s="385"/>
-      <c r="AT14" s="385"/>
+      <c r="AP14" s="319"/>
+      <c r="AQ14" s="319"/>
+      <c r="AR14" s="319"/>
+      <c r="AS14" s="319"/>
+      <c r="AT14" s="319"/>
     </row>
     <row r="15" spans="1:51" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="27">
@@ -9539,11 +9544,11 @@
       <c r="AM15" s="160"/>
       <c r="AN15" s="159"/>
       <c r="AO15" s="19"/>
-      <c r="AP15" s="385"/>
-      <c r="AQ15" s="385"/>
-      <c r="AR15" s="385"/>
-      <c r="AS15" s="385"/>
-      <c r="AT15" s="385"/>
+      <c r="AP15" s="319"/>
+      <c r="AQ15" s="319"/>
+      <c r="AR15" s="319"/>
+      <c r="AS15" s="319"/>
+      <c r="AT15" s="319"/>
     </row>
     <row r="16" spans="1:51" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="27">
@@ -9653,11 +9658,11 @@
       <c r="AM16" s="160"/>
       <c r="AN16" s="159"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="383"/>
-      <c r="AQ16" s="383"/>
-      <c r="AR16" s="383"/>
-      <c r="AS16" s="383"/>
-      <c r="AT16" s="383"/>
+      <c r="AP16" s="302"/>
+      <c r="AQ16" s="302"/>
+      <c r="AR16" s="302"/>
+      <c r="AS16" s="302"/>
+      <c r="AT16" s="302"/>
     </row>
     <row r="17" spans="1:46" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="27">
@@ -9725,17 +9730,17 @@
       <c r="AM17" s="160"/>
       <c r="AN17" s="159"/>
       <c r="AO17" s="19"/>
-      <c r="AP17" s="383"/>
-      <c r="AQ17" s="383"/>
-      <c r="AR17" s="383"/>
-      <c r="AS17" s="383"/>
-      <c r="AT17" s="383"/>
+      <c r="AP17" s="302"/>
+      <c r="AQ17" s="302"/>
+      <c r="AR17" s="302"/>
+      <c r="AS17" s="302"/>
+      <c r="AT17" s="302"/>
     </row>
     <row r="18" spans="1:46" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="342" t="s">
+      <c r="A18" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="343"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="163"/>
       <c r="D18" s="163"/>
       <c r="E18" s="163"/>
@@ -9789,11 +9794,11 @@
         <v>62</v>
       </c>
       <c r="AN18" s="159"/>
-      <c r="AP18" s="383"/>
-      <c r="AQ18" s="383"/>
-      <c r="AR18" s="383"/>
-      <c r="AS18" s="383"/>
-      <c r="AT18" s="383"/>
+      <c r="AP18" s="302"/>
+      <c r="AQ18" s="302"/>
+      <c r="AR18" s="302"/>
+      <c r="AS18" s="302"/>
+      <c r="AT18" s="302"/>
     </row>
     <row r="19" spans="1:46" s="25" customFormat="1" ht="28.5" customHeight="1">
       <c r="A19" s="27">
@@ -9902,11 +9907,11 @@
       <c r="AL19" s="169"/>
       <c r="AM19" s="158"/>
       <c r="AN19" s="159"/>
-      <c r="AP19" s="383"/>
-      <c r="AQ19" s="383"/>
-      <c r="AR19" s="383"/>
-      <c r="AS19" s="383"/>
-      <c r="AT19" s="383"/>
+      <c r="AP19" s="302"/>
+      <c r="AQ19" s="302"/>
+      <c r="AR19" s="302"/>
+      <c r="AS19" s="302"/>
+      <c r="AT19" s="302"/>
     </row>
     <row r="20" spans="1:46" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A20" s="27">
@@ -10017,11 +10022,11 @@
         <v>11</v>
       </c>
       <c r="AN20" s="159"/>
-      <c r="AP20" s="383"/>
-      <c r="AQ20" s="383"/>
-      <c r="AR20" s="383"/>
-      <c r="AS20" s="383"/>
-      <c r="AT20" s="383"/>
+      <c r="AP20" s="302"/>
+      <c r="AQ20" s="302"/>
+      <c r="AR20" s="302"/>
+      <c r="AS20" s="302"/>
+      <c r="AT20" s="302"/>
     </row>
     <row r="21" spans="1:46" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A21" s="27">
@@ -10134,11 +10139,11 @@
         <v>14</v>
       </c>
       <c r="AN21" s="159"/>
-      <c r="AP21" s="383"/>
-      <c r="AQ21" s="383"/>
-      <c r="AR21" s="383"/>
-      <c r="AS21" s="383"/>
-      <c r="AT21" s="383"/>
+      <c r="AP21" s="302"/>
+      <c r="AQ21" s="302"/>
+      <c r="AR21" s="302"/>
+      <c r="AS21" s="302"/>
+      <c r="AT21" s="302"/>
     </row>
     <row r="22" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A22" s="27">
@@ -10227,11 +10232,11 @@
         <v>10</v>
       </c>
       <c r="AN22" s="159"/>
-      <c r="AP22" s="383"/>
-      <c r="AQ22" s="383"/>
-      <c r="AR22" s="383"/>
-      <c r="AS22" s="383"/>
-      <c r="AT22" s="383"/>
+      <c r="AP22" s="302"/>
+      <c r="AQ22" s="302"/>
+      <c r="AR22" s="302"/>
+      <c r="AS22" s="302"/>
+      <c r="AT22" s="302"/>
     </row>
     <row r="23" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A23" s="27">
@@ -10344,11 +10349,11 @@
         <v>14</v>
       </c>
       <c r="AN23" s="159"/>
-      <c r="AP23" s="383"/>
-      <c r="AQ23" s="383"/>
-      <c r="AR23" s="383"/>
-      <c r="AS23" s="383"/>
-      <c r="AT23" s="383"/>
+      <c r="AP23" s="302"/>
+      <c r="AQ23" s="302"/>
+      <c r="AR23" s="302"/>
+      <c r="AS23" s="302"/>
+      <c r="AT23" s="302"/>
     </row>
     <row r="24" spans="1:46" s="32" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A24" s="27">
@@ -10459,17 +10464,17 @@
         <v>13</v>
       </c>
       <c r="AN24" s="159"/>
-      <c r="AP24" s="383"/>
-      <c r="AQ24" s="383"/>
-      <c r="AR24" s="383"/>
-      <c r="AS24" s="383"/>
-      <c r="AT24" s="383"/>
+      <c r="AP24" s="302"/>
+      <c r="AQ24" s="302"/>
+      <c r="AR24" s="302"/>
+      <c r="AS24" s="302"/>
+      <c r="AT24" s="302"/>
     </row>
     <row r="25" spans="1:46" s="32" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="345"/>
+      <c r="B25" s="342"/>
       <c r="C25" s="170"/>
       <c r="D25" s="170"/>
       <c r="E25" s="170"/>
@@ -10527,11 +10532,11 @@
         <v>#REF!</v>
       </c>
       <c r="AO25" s="25"/>
-      <c r="AP25" s="384"/>
-      <c r="AQ25" s="384"/>
-      <c r="AR25" s="384"/>
-      <c r="AS25" s="384"/>
-      <c r="AT25" s="384"/>
+      <c r="AP25" s="303"/>
+      <c r="AQ25" s="303"/>
+      <c r="AR25" s="303"/>
+      <c r="AS25" s="303"/>
+      <c r="AT25" s="303"/>
     </row>
     <row r="26" spans="1:46" s="32" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="177"/>
@@ -10578,12 +10583,12 @@
     </row>
     <row r="27" spans="1:46" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="347" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="350"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="350"/>
+      <c r="C27" s="347"/>
+      <c r="D27" s="347"/>
+      <c r="E27" s="347"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -10608,17 +10613,17 @@
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
-      <c r="AD27" s="346" t="s">
+      <c r="AD27" s="343" t="s">
         <v>46</v>
       </c>
-      <c r="AE27" s="346"/>
-      <c r="AF27" s="346"/>
-      <c r="AG27" s="346"/>
-      <c r="AH27" s="346"/>
-      <c r="AI27" s="346"/>
-      <c r="AJ27" s="346"/>
-      <c r="AK27" s="346"/>
-      <c r="AL27" s="346"/>
+      <c r="AE27" s="343"/>
+      <c r="AF27" s="343"/>
+      <c r="AG27" s="343"/>
+      <c r="AH27" s="343"/>
+      <c r="AI27" s="343"/>
+      <c r="AJ27" s="343"/>
+      <c r="AK27" s="343"/>
+      <c r="AL27" s="343"/>
       <c r="AM27" s="280"/>
       <c r="AN27" s="280"/>
     </row>
@@ -10794,12 +10799,12 @@
     </row>
     <row r="32" spans="1:46" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="46"/>
-      <c r="B32" s="347" t="s">
+      <c r="B32" s="344" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="347"/>
-      <c r="D32" s="347"/>
-      <c r="E32" s="347"/>
+      <c r="C32" s="344"/>
+      <c r="D32" s="344"/>
+      <c r="E32" s="344"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -10824,26 +10829,26 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
       <c r="AC32" s="25"/>
-      <c r="AD32" s="347" t="s">
+      <c r="AD32" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="AE32" s="347"/>
-      <c r="AF32" s="347"/>
-      <c r="AG32" s="347"/>
-      <c r="AH32" s="347"/>
-      <c r="AI32" s="347"/>
-      <c r="AJ32" s="347"/>
-      <c r="AK32" s="347"/>
-      <c r="AL32" s="347"/>
+      <c r="AE32" s="344"/>
+      <c r="AF32" s="344"/>
+      <c r="AG32" s="344"/>
+      <c r="AH32" s="344"/>
+      <c r="AI32" s="344"/>
+      <c r="AJ32" s="344"/>
+      <c r="AK32" s="344"/>
+      <c r="AL32" s="344"/>
       <c r="AM32" s="181"/>
       <c r="AN32" s="183"/>
     </row>
     <row r="33" spans="1:41" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="348"/>
-      <c r="C33" s="348"/>
-      <c r="D33" s="348"/>
-      <c r="E33" s="348"/>
+      <c r="B33" s="345"/>
+      <c r="C33" s="345"/>
+      <c r="D33" s="345"/>
+      <c r="E33" s="345"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -10872,13 +10877,13 @@
       <c r="AE33" s="25"/>
       <c r="AF33" s="25"/>
       <c r="AG33" s="25"/>
-      <c r="AH33" s="349"/>
-      <c r="AI33" s="349"/>
-      <c r="AJ33" s="349"/>
-      <c r="AK33" s="349"/>
-      <c r="AL33" s="349"/>
-      <c r="AM33" s="349"/>
-      <c r="AN33" s="349"/>
+      <c r="AH33" s="346"/>
+      <c r="AI33" s="346"/>
+      <c r="AJ33" s="346"/>
+      <c r="AK33" s="346"/>
+      <c r="AL33" s="346"/>
+      <c r="AM33" s="346"/>
+      <c r="AN33" s="346"/>
     </row>
     <row r="34" spans="1:41" ht="20.25" customHeight="1">
       <c r="A34" s="53"/>
@@ -11135,7 +11140,7 @@
       <c r="AN39" s="183"/>
     </row>
     <row r="40" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A40" s="332"/>
+      <c r="A40" s="325"/>
       <c r="B40" s="189"/>
       <c r="C40" s="62"/>
       <c r="D40" s="63"/>
@@ -11177,39 +11182,39 @@
       <c r="AN40" s="191"/>
     </row>
     <row r="41" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A41" s="332"/>
-      <c r="B41" s="334"/>
-      <c r="C41" s="334"/>
-      <c r="D41" s="334"/>
-      <c r="E41" s="334"/>
-      <c r="F41" s="334"/>
-      <c r="G41" s="334"/>
-      <c r="H41" s="334"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="334"/>
-      <c r="K41" s="334"/>
-      <c r="L41" s="334"/>
-      <c r="M41" s="334"/>
-      <c r="N41" s="334"/>
-      <c r="O41" s="334"/>
-      <c r="P41" s="334"/>
-      <c r="Q41" s="334"/>
-      <c r="R41" s="334"/>
-      <c r="S41" s="334"/>
-      <c r="T41" s="334"/>
-      <c r="U41" s="334"/>
-      <c r="V41" s="334"/>
-      <c r="W41" s="334"/>
-      <c r="X41" s="334"/>
-      <c r="Y41" s="334"/>
-      <c r="Z41" s="334"/>
-      <c r="AA41" s="334"/>
-      <c r="AB41" s="334"/>
-      <c r="AC41" s="334"/>
-      <c r="AD41" s="334"/>
-      <c r="AE41" s="334"/>
-      <c r="AF41" s="334"/>
-      <c r="AG41" s="334"/>
+      <c r="A41" s="325"/>
+      <c r="B41" s="331"/>
+      <c r="C41" s="331"/>
+      <c r="D41" s="331"/>
+      <c r="E41" s="331"/>
+      <c r="F41" s="331"/>
+      <c r="G41" s="331"/>
+      <c r="H41" s="331"/>
+      <c r="I41" s="331"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="331"/>
+      <c r="M41" s="331"/>
+      <c r="N41" s="331"/>
+      <c r="O41" s="331"/>
+      <c r="P41" s="331"/>
+      <c r="Q41" s="331"/>
+      <c r="R41" s="331"/>
+      <c r="S41" s="331"/>
+      <c r="T41" s="331"/>
+      <c r="U41" s="331"/>
+      <c r="V41" s="331"/>
+      <c r="W41" s="331"/>
+      <c r="X41" s="331"/>
+      <c r="Y41" s="331"/>
+      <c r="Z41" s="331"/>
+      <c r="AA41" s="331"/>
+      <c r="AB41" s="331"/>
+      <c r="AC41" s="331"/>
+      <c r="AD41" s="331"/>
+      <c r="AE41" s="331"/>
+      <c r="AF41" s="331"/>
+      <c r="AG41" s="331"/>
       <c r="AH41" s="65"/>
       <c r="AI41" s="125"/>
       <c r="AJ41" s="240"/>
@@ -11220,7 +11225,7 @@
     </row>
     <row r="42" spans="1:41" s="33" customFormat="1" ht="22.5" customHeight="1">
       <c r="A42" s="43"/>
-      <c r="B42" s="334"/>
+      <c r="B42" s="331"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -12227,7 +12232,7 @@
       <c r="AN65" s="183"/>
     </row>
     <row r="66" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A66" s="332"/>
+      <c r="A66" s="325"/>
       <c r="B66" s="61"/>
       <c r="C66" s="62"/>
       <c r="D66" s="63"/>
@@ -12269,39 +12274,39 @@
       <c r="AN66" s="191"/>
     </row>
     <row r="67" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A67" s="333"/>
-      <c r="B67" s="334"/>
-      <c r="C67" s="334"/>
-      <c r="D67" s="336"/>
-      <c r="E67" s="336"/>
-      <c r="F67" s="336"/>
-      <c r="G67" s="336"/>
-      <c r="H67" s="336"/>
-      <c r="I67" s="336"/>
-      <c r="J67" s="336"/>
-      <c r="K67" s="336"/>
-      <c r="L67" s="336"/>
-      <c r="M67" s="336"/>
-      <c r="N67" s="336"/>
-      <c r="O67" s="336"/>
-      <c r="P67" s="336"/>
-      <c r="Q67" s="336"/>
-      <c r="R67" s="336"/>
-      <c r="S67" s="336"/>
-      <c r="T67" s="336"/>
-      <c r="U67" s="336"/>
-      <c r="V67" s="336"/>
-      <c r="W67" s="336"/>
-      <c r="X67" s="336"/>
-      <c r="Y67" s="336"/>
-      <c r="Z67" s="336"/>
-      <c r="AA67" s="336"/>
-      <c r="AB67" s="336"/>
-      <c r="AC67" s="336"/>
-      <c r="AD67" s="336"/>
-      <c r="AE67" s="336"/>
-      <c r="AF67" s="336"/>
-      <c r="AG67" s="336"/>
+      <c r="A67" s="326"/>
+      <c r="B67" s="331"/>
+      <c r="C67" s="331"/>
+      <c r="D67" s="333"/>
+      <c r="E67" s="333"/>
+      <c r="F67" s="333"/>
+      <c r="G67" s="333"/>
+      <c r="H67" s="333"/>
+      <c r="I67" s="333"/>
+      <c r="J67" s="333"/>
+      <c r="K67" s="333"/>
+      <c r="L67" s="333"/>
+      <c r="M67" s="333"/>
+      <c r="N67" s="333"/>
+      <c r="O67" s="333"/>
+      <c r="P67" s="333"/>
+      <c r="Q67" s="333"/>
+      <c r="R67" s="333"/>
+      <c r="S67" s="333"/>
+      <c r="T67" s="333"/>
+      <c r="U67" s="333"/>
+      <c r="V67" s="333"/>
+      <c r="W67" s="333"/>
+      <c r="X67" s="333"/>
+      <c r="Y67" s="333"/>
+      <c r="Z67" s="333"/>
+      <c r="AA67" s="333"/>
+      <c r="AB67" s="333"/>
+      <c r="AC67" s="333"/>
+      <c r="AD67" s="333"/>
+      <c r="AE67" s="333"/>
+      <c r="AF67" s="333"/>
+      <c r="AG67" s="333"/>
       <c r="AH67" s="65"/>
       <c r="AI67" s="125"/>
       <c r="AJ67" s="240"/>
@@ -12312,7 +12317,7 @@
     </row>
     <row r="68" spans="1:40" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="335"/>
+      <c r="B68" s="332"/>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
@@ -13243,31 +13248,31 @@
     </row>
     <row r="90" spans="1:41" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="43"/>
-      <c r="B90" s="352"/>
-      <c r="C90" s="353"/>
-      <c r="D90" s="353"/>
-      <c r="E90" s="353"/>
-      <c r="F90" s="353"/>
-      <c r="G90" s="353"/>
-      <c r="H90" s="354"/>
-      <c r="I90" s="355"/>
-      <c r="J90" s="355"/>
-      <c r="K90" s="355"/>
-      <c r="L90" s="355"/>
-      <c r="M90" s="355"/>
-      <c r="N90" s="355"/>
-      <c r="O90" s="355"/>
-      <c r="P90" s="355"/>
-      <c r="Q90" s="355"/>
-      <c r="R90" s="355"/>
-      <c r="S90" s="355"/>
-      <c r="T90" s="355"/>
-      <c r="U90" s="355"/>
-      <c r="V90" s="355"/>
-      <c r="W90" s="355"/>
-      <c r="X90" s="355"/>
-      <c r="Y90" s="355"/>
-      <c r="Z90" s="355"/>
+      <c r="B90" s="321"/>
+      <c r="C90" s="322"/>
+      <c r="D90" s="322"/>
+      <c r="E90" s="322"/>
+      <c r="F90" s="322"/>
+      <c r="G90" s="322"/>
+      <c r="H90" s="323"/>
+      <c r="I90" s="324"/>
+      <c r="J90" s="324"/>
+      <c r="K90" s="324"/>
+      <c r="L90" s="324"/>
+      <c r="M90" s="324"/>
+      <c r="N90" s="324"/>
+      <c r="O90" s="324"/>
+      <c r="P90" s="324"/>
+      <c r="Q90" s="324"/>
+      <c r="R90" s="324"/>
+      <c r="S90" s="324"/>
+      <c r="T90" s="324"/>
+      <c r="U90" s="324"/>
+      <c r="V90" s="324"/>
+      <c r="W90" s="324"/>
+      <c r="X90" s="324"/>
+      <c r="Y90" s="324"/>
+      <c r="Z90" s="324"/>
       <c r="AA90" s="126"/>
       <c r="AB90" s="126"/>
       <c r="AC90" s="126"/>
@@ -14677,7 +14682,7 @@
       <c r="FQ107" s="25"/>
     </row>
     <row r="108" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A108" s="332"/>
+      <c r="A108" s="325"/>
       <c r="B108" s="82"/>
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
@@ -14852,39 +14857,39 @@
       <c r="FQ108" s="25"/>
     </row>
     <row r="109" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A109" s="333"/>
-      <c r="B109" s="356"/>
-      <c r="C109" s="356"/>
-      <c r="D109" s="358"/>
-      <c r="E109" s="358"/>
-      <c r="F109" s="358"/>
-      <c r="G109" s="358"/>
-      <c r="H109" s="358"/>
-      <c r="I109" s="358"/>
-      <c r="J109" s="358"/>
-      <c r="K109" s="358"/>
-      <c r="L109" s="358"/>
-      <c r="M109" s="358"/>
-      <c r="N109" s="358"/>
-      <c r="O109" s="358"/>
-      <c r="P109" s="358"/>
-      <c r="Q109" s="358"/>
-      <c r="R109" s="358"/>
-      <c r="S109" s="358"/>
-      <c r="T109" s="358"/>
-      <c r="U109" s="358"/>
-      <c r="V109" s="358"/>
-      <c r="W109" s="358"/>
-      <c r="X109" s="358"/>
-      <c r="Y109" s="358"/>
-      <c r="Z109" s="358"/>
-      <c r="AA109" s="358"/>
-      <c r="AB109" s="358"/>
-      <c r="AC109" s="358"/>
-      <c r="AD109" s="358"/>
-      <c r="AE109" s="358"/>
-      <c r="AF109" s="358"/>
-      <c r="AG109" s="358"/>
+      <c r="A109" s="326"/>
+      <c r="B109" s="327"/>
+      <c r="C109" s="327"/>
+      <c r="D109" s="329"/>
+      <c r="E109" s="329"/>
+      <c r="F109" s="329"/>
+      <c r="G109" s="329"/>
+      <c r="H109" s="329"/>
+      <c r="I109" s="329"/>
+      <c r="J109" s="329"/>
+      <c r="K109" s="329"/>
+      <c r="L109" s="329"/>
+      <c r="M109" s="329"/>
+      <c r="N109" s="329"/>
+      <c r="O109" s="329"/>
+      <c r="P109" s="329"/>
+      <c r="Q109" s="329"/>
+      <c r="R109" s="329"/>
+      <c r="S109" s="329"/>
+      <c r="T109" s="329"/>
+      <c r="U109" s="329"/>
+      <c r="V109" s="329"/>
+      <c r="W109" s="329"/>
+      <c r="X109" s="329"/>
+      <c r="Y109" s="329"/>
+      <c r="Z109" s="329"/>
+      <c r="AA109" s="329"/>
+      <c r="AB109" s="329"/>
+      <c r="AC109" s="329"/>
+      <c r="AD109" s="329"/>
+      <c r="AE109" s="329"/>
+      <c r="AF109" s="329"/>
+      <c r="AG109" s="329"/>
       <c r="AH109" s="102"/>
       <c r="AI109" s="127"/>
       <c r="AJ109" s="241"/>
@@ -15028,7 +15033,7 @@
     </row>
     <row r="110" spans="1:173" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A110" s="103"/>
-      <c r="B110" s="357"/>
+      <c r="B110" s="328"/>
       <c r="C110" s="104"/>
       <c r="D110" s="105"/>
       <c r="E110" s="104"/>
@@ -17538,21 +17543,21 @@
       <c r="V131" s="90"/>
       <c r="W131" s="90"/>
       <c r="X131" s="90"/>
-      <c r="Y131" s="359"/>
-      <c r="Z131" s="359"/>
-      <c r="AA131" s="359"/>
-      <c r="AB131" s="359"/>
-      <c r="AC131" s="359"/>
-      <c r="AD131" s="359"/>
-      <c r="AE131" s="359"/>
-      <c r="AF131" s="359"/>
-      <c r="AG131" s="359"/>
-      <c r="AH131" s="359"/>
-      <c r="AI131" s="359"/>
-      <c r="AJ131" s="359"/>
-      <c r="AK131" s="359"/>
-      <c r="AL131" s="359"/>
-      <c r="AM131" s="359"/>
+      <c r="Y131" s="330"/>
+      <c r="Z131" s="330"/>
+      <c r="AA131" s="330"/>
+      <c r="AB131" s="330"/>
+      <c r="AC131" s="330"/>
+      <c r="AD131" s="330"/>
+      <c r="AE131" s="330"/>
+      <c r="AF131" s="330"/>
+      <c r="AG131" s="330"/>
+      <c r="AH131" s="330"/>
+      <c r="AI131" s="330"/>
+      <c r="AJ131" s="330"/>
+      <c r="AK131" s="330"/>
+      <c r="AL131" s="330"/>
+      <c r="AM131" s="330"/>
       <c r="AN131" s="203"/>
       <c r="AO131" s="81"/>
     </row>
@@ -17710,21 +17715,21 @@
       <c r="V135" s="90"/>
       <c r="W135" s="90"/>
       <c r="X135" s="90"/>
-      <c r="Y135" s="351"/>
-      <c r="Z135" s="351"/>
-      <c r="AA135" s="351"/>
-      <c r="AB135" s="351"/>
-      <c r="AC135" s="351"/>
-      <c r="AD135" s="351"/>
-      <c r="AE135" s="351"/>
-      <c r="AF135" s="351"/>
-      <c r="AG135" s="351"/>
-      <c r="AH135" s="351"/>
-      <c r="AI135" s="351"/>
-      <c r="AJ135" s="351"/>
-      <c r="AK135" s="351"/>
-      <c r="AL135" s="351"/>
-      <c r="AM135" s="351"/>
+      <c r="Y135" s="320"/>
+      <c r="Z135" s="320"/>
+      <c r="AA135" s="320"/>
+      <c r="AB135" s="320"/>
+      <c r="AC135" s="320"/>
+      <c r="AD135" s="320"/>
+      <c r="AE135" s="320"/>
+      <c r="AF135" s="320"/>
+      <c r="AG135" s="320"/>
+      <c r="AH135" s="320"/>
+      <c r="AI135" s="320"/>
+      <c r="AJ135" s="320"/>
+      <c r="AK135" s="320"/>
+      <c r="AL135" s="320"/>
+      <c r="AM135" s="320"/>
       <c r="AN135" s="206"/>
       <c r="AO135" s="81"/>
     </row>
@@ -19233,27 +19238,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AP14:AT15"/>
-    <mergeCell ref="Y135:AM135"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:Z90"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:AG109"/>
-    <mergeCell ref="Y131:AM131"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:AG67"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:R8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="AD27:AL27"/>
-    <mergeCell ref="AD32:AL32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="AH33:AN33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:AG41"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B32:E32"/>
@@ -19267,6 +19251,27 @@
     <mergeCell ref="C6:AG6"/>
     <mergeCell ref="AH6:AM6"/>
     <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:R8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="AD27:AL27"/>
+    <mergeCell ref="AP14:AT15"/>
+    <mergeCell ref="Y135:AM135"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:Z90"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:AG109"/>
+    <mergeCell ref="Y131:AM131"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:AG67"/>
+    <mergeCell ref="AD32:AL32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="AH33:AN33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.24" right="0" top="0.5" bottom="0" header="0.05" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -19823,13 +19828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -19860,13 +19865,13 @@
       <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="135"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -19898,164 +19903,164 @@
       <c r="AH2" s="32"/>
     </row>
     <row r="3" spans="1:45" ht="24" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="350" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="329"/>
-      <c r="T3" s="329"/>
-      <c r="U3" s="329"/>
-      <c r="V3" s="329"/>
-      <c r="W3" s="329"/>
-      <c r="X3" s="329"/>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="329"/>
-      <c r="AA3" s="329"/>
-      <c r="AB3" s="329"/>
-      <c r="AC3" s="329"/>
-      <c r="AD3" s="329"/>
-      <c r="AE3" s="329"/>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="329"/>
-      <c r="AH3" s="329"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="350"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="350"/>
+      <c r="Q3" s="350"/>
+      <c r="R3" s="350"/>
+      <c r="S3" s="350"/>
+      <c r="T3" s="350"/>
+      <c r="U3" s="350"/>
+      <c r="V3" s="350"/>
+      <c r="W3" s="350"/>
+      <c r="X3" s="350"/>
+      <c r="Y3" s="350"/>
+      <c r="Z3" s="350"/>
+      <c r="AA3" s="350"/>
+      <c r="AB3" s="350"/>
+      <c r="AC3" s="350"/>
+      <c r="AD3" s="350"/>
+      <c r="AE3" s="350"/>
+      <c r="AF3" s="350"/>
+      <c r="AG3" s="350"/>
+      <c r="AH3" s="350"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="351" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="330"/>
-      <c r="V4" s="330"/>
-      <c r="W4" s="330"/>
-      <c r="X4" s="330"/>
-      <c r="Y4" s="330"/>
-      <c r="Z4" s="330"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="330"/>
-      <c r="AC4" s="330"/>
-      <c r="AD4" s="330"/>
-      <c r="AE4" s="330"/>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="330"/>
-      <c r="AH4" s="330"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="351"/>
+      <c r="I4" s="351"/>
+      <c r="J4" s="351"/>
+      <c r="K4" s="351"/>
+      <c r="L4" s="351"/>
+      <c r="M4" s="351"/>
+      <c r="N4" s="351"/>
+      <c r="O4" s="351"/>
+      <c r="P4" s="351"/>
+      <c r="Q4" s="351"/>
+      <c r="R4" s="351"/>
+      <c r="S4" s="351"/>
+      <c r="T4" s="351"/>
+      <c r="U4" s="351"/>
+      <c r="V4" s="351"/>
+      <c r="W4" s="351"/>
+      <c r="X4" s="351"/>
+      <c r="Y4" s="351"/>
+      <c r="Z4" s="351"/>
+      <c r="AA4" s="351"/>
+      <c r="AB4" s="351"/>
+      <c r="AC4" s="351"/>
+      <c r="AD4" s="351"/>
+      <c r="AE4" s="351"/>
+      <c r="AF4" s="351"/>
+      <c r="AG4" s="351"/>
+      <c r="AH4" s="351"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="5.25" customHeight="1" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="331"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="331"/>
-      <c r="AD5" s="331"/>
-      <c r="AE5" s="331"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="331"/>
-      <c r="AH5" s="331"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="352"/>
+      <c r="P5" s="352"/>
+      <c r="Q5" s="352"/>
+      <c r="R5" s="352"/>
+      <c r="S5" s="352"/>
+      <c r="T5" s="352"/>
+      <c r="U5" s="352"/>
+      <c r="V5" s="352"/>
+      <c r="W5" s="352"/>
+      <c r="X5" s="352"/>
+      <c r="Y5" s="352"/>
+      <c r="Z5" s="352"/>
+      <c r="AA5" s="352"/>
+      <c r="AB5" s="352"/>
+      <c r="AC5" s="352"/>
+      <c r="AD5" s="352"/>
+      <c r="AE5" s="352"/>
+      <c r="AF5" s="352"/>
+      <c r="AG5" s="352"/>
+      <c r="AH5" s="352"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="353" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="320" t="s">
+      <c r="C6" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
-      <c r="G6" s="363"/>
-      <c r="H6" s="363"/>
-      <c r="I6" s="363"/>
-      <c r="J6" s="363"/>
-      <c r="K6" s="363"/>
-      <c r="L6" s="363"/>
-      <c r="M6" s="363"/>
-      <c r="N6" s="363"/>
-      <c r="O6" s="363"/>
-      <c r="P6" s="363"/>
-      <c r="Q6" s="363"/>
-      <c r="R6" s="363"/>
-      <c r="S6" s="363"/>
-      <c r="T6" s="363"/>
-      <c r="U6" s="363"/>
-      <c r="V6" s="363"/>
-      <c r="W6" s="363"/>
-      <c r="X6" s="363"/>
-      <c r="Y6" s="363"/>
-      <c r="Z6" s="363"/>
-      <c r="AA6" s="363"/>
-      <c r="AB6" s="363"/>
-      <c r="AC6" s="363"/>
-      <c r="AD6" s="363"/>
-      <c r="AE6" s="363"/>
-      <c r="AF6" s="363"/>
-      <c r="AG6" s="363"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="367"/>
+      <c r="K6" s="367"/>
+      <c r="L6" s="367"/>
+      <c r="M6" s="367"/>
+      <c r="N6" s="367"/>
+      <c r="O6" s="367"/>
+      <c r="P6" s="367"/>
+      <c r="Q6" s="367"/>
+      <c r="R6" s="367"/>
+      <c r="S6" s="367"/>
+      <c r="T6" s="367"/>
+      <c r="U6" s="367"/>
+      <c r="V6" s="367"/>
+      <c r="W6" s="367"/>
+      <c r="X6" s="367"/>
+      <c r="Y6" s="367"/>
+      <c r="Z6" s="367"/>
+      <c r="AA6" s="367"/>
+      <c r="AB6" s="367"/>
+      <c r="AC6" s="367"/>
+      <c r="AD6" s="367"/>
+      <c r="AE6" s="367"/>
+      <c r="AF6" s="367"/>
+      <c r="AG6" s="367"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="361"/>
-      <c r="B7" s="362"/>
+      <c r="A7" s="365"/>
+      <c r="B7" s="366"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -20154,26 +20159,26 @@
       </c>
     </row>
     <row r="8" spans="1:45" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="337" t="s">
+      <c r="A8" s="334" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="338"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="340"/>
-      <c r="G8" s="340"/>
-      <c r="H8" s="340"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="340"/>
-      <c r="K8" s="340"/>
-      <c r="L8" s="340"/>
-      <c r="M8" s="340"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="341"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="337"/>
+      <c r="L8" s="337"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="337"/>
+      <c r="Q8" s="337"/>
+      <c r="R8" s="338"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -21013,10 +21018,10 @@
       <c r="AI17" s="19"/>
     </row>
     <row r="18" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="342" t="s">
+      <c r="A18" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="343"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -21648,10 +21653,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" s="32" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A25" s="364" t="s">
+      <c r="A25" s="368" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="365"/>
+      <c r="B25" s="369"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -21728,10 +21733,10 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="367" t="s">
+      <c r="B27" s="371" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="367"/>
+      <c r="C27" s="371"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -21756,15 +21761,15 @@
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
-      <c r="AB27" s="366" t="s">
+      <c r="AB27" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="AC27" s="366"/>
-      <c r="AD27" s="366"/>
-      <c r="AE27" s="366"/>
-      <c r="AF27" s="366"/>
-      <c r="AG27" s="366"/>
-      <c r="AH27" s="366"/>
+      <c r="AC27" s="370"/>
+      <c r="AD27" s="370"/>
+      <c r="AE27" s="370"/>
+      <c r="AF27" s="370"/>
+      <c r="AG27" s="370"/>
+      <c r="AH27" s="370"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -21877,11 +21882,11 @@
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="348" t="s">
+      <c r="B31" s="345" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="348"/>
-      <c r="D31" s="348"/>
+      <c r="C31" s="345"/>
+      <c r="D31" s="345"/>
       <c r="E31" s="219"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -21905,15 +21910,15 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
-      <c r="AB31" s="360" t="s">
+      <c r="AB31" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="AC31" s="360"/>
-      <c r="AD31" s="360"/>
-      <c r="AE31" s="360"/>
-      <c r="AF31" s="360"/>
-      <c r="AG31" s="360"/>
-      <c r="AH31" s="360"/>
+      <c r="AC31" s="364"/>
+      <c r="AD31" s="364"/>
+      <c r="AE31" s="364"/>
+      <c r="AF31" s="364"/>
+      <c r="AG31" s="364"/>
+      <c r="AH31" s="364"/>
     </row>
     <row r="32" spans="1:35" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
@@ -22601,7 +22606,7 @@
       <c r="AH50" s="30"/>
     </row>
     <row r="51" spans="1:34" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A51" s="332"/>
+      <c r="A51" s="325"/>
       <c r="B51" s="61"/>
       <c r="C51" s="62"/>
       <c r="D51" s="63"/>
@@ -22637,44 +22642,44 @@
       <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="1:34" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A52" s="333"/>
-      <c r="B52" s="334"/>
-      <c r="C52" s="334"/>
-      <c r="D52" s="336"/>
-      <c r="E52" s="336"/>
-      <c r="F52" s="336"/>
-      <c r="G52" s="336"/>
-      <c r="H52" s="336"/>
-      <c r="I52" s="336"/>
-      <c r="J52" s="336"/>
-      <c r="K52" s="336"/>
-      <c r="L52" s="336"/>
-      <c r="M52" s="336"/>
-      <c r="N52" s="336"/>
-      <c r="O52" s="336"/>
-      <c r="P52" s="336"/>
-      <c r="Q52" s="336"/>
-      <c r="R52" s="336"/>
-      <c r="S52" s="336"/>
-      <c r="T52" s="336"/>
-      <c r="U52" s="336"/>
-      <c r="V52" s="336"/>
-      <c r="W52" s="336"/>
-      <c r="X52" s="336"/>
-      <c r="Y52" s="336"/>
-      <c r="Z52" s="336"/>
-      <c r="AA52" s="336"/>
-      <c r="AB52" s="336"/>
-      <c r="AC52" s="336"/>
-      <c r="AD52" s="336"/>
-      <c r="AE52" s="336"/>
-      <c r="AF52" s="336"/>
-      <c r="AG52" s="336"/>
+      <c r="A52" s="326"/>
+      <c r="B52" s="331"/>
+      <c r="C52" s="331"/>
+      <c r="D52" s="333"/>
+      <c r="E52" s="333"/>
+      <c r="F52" s="333"/>
+      <c r="G52" s="333"/>
+      <c r="H52" s="333"/>
+      <c r="I52" s="333"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="333"/>
+      <c r="L52" s="333"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="333"/>
+      <c r="O52" s="333"/>
+      <c r="P52" s="333"/>
+      <c r="Q52" s="333"/>
+      <c r="R52" s="333"/>
+      <c r="S52" s="333"/>
+      <c r="T52" s="333"/>
+      <c r="U52" s="333"/>
+      <c r="V52" s="333"/>
+      <c r="W52" s="333"/>
+      <c r="X52" s="333"/>
+      <c r="Y52" s="333"/>
+      <c r="Z52" s="333"/>
+      <c r="AA52" s="333"/>
+      <c r="AB52" s="333"/>
+      <c r="AC52" s="333"/>
+      <c r="AD52" s="333"/>
+      <c r="AE52" s="333"/>
+      <c r="AF52" s="333"/>
+      <c r="AG52" s="333"/>
       <c r="AH52" s="65"/>
     </row>
     <row r="53" spans="1:34" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="335"/>
+      <c r="B53" s="332"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
       <c r="E53" s="67"/>
@@ -23473,31 +23478,31 @@
     </row>
     <row r="75" spans="1:35" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="43"/>
-      <c r="B75" s="352"/>
-      <c r="C75" s="353"/>
-      <c r="D75" s="353"/>
-      <c r="E75" s="353"/>
-      <c r="F75" s="353"/>
-      <c r="G75" s="353"/>
-      <c r="H75" s="354"/>
-      <c r="I75" s="355"/>
-      <c r="J75" s="355"/>
-      <c r="K75" s="355"/>
-      <c r="L75" s="355"/>
-      <c r="M75" s="355"/>
-      <c r="N75" s="355"/>
-      <c r="O75" s="355"/>
-      <c r="P75" s="355"/>
-      <c r="Q75" s="355"/>
-      <c r="R75" s="355"/>
-      <c r="S75" s="355"/>
-      <c r="T75" s="355"/>
-      <c r="U75" s="355"/>
-      <c r="V75" s="355"/>
-      <c r="W75" s="355"/>
-      <c r="X75" s="355"/>
-      <c r="Y75" s="355"/>
-      <c r="Z75" s="355"/>
+      <c r="B75" s="321"/>
+      <c r="C75" s="322"/>
+      <c r="D75" s="322"/>
+      <c r="E75" s="322"/>
+      <c r="F75" s="322"/>
+      <c r="G75" s="322"/>
+      <c r="H75" s="323"/>
+      <c r="I75" s="324"/>
+      <c r="J75" s="324"/>
+      <c r="K75" s="324"/>
+      <c r="L75" s="324"/>
+      <c r="M75" s="324"/>
+      <c r="N75" s="324"/>
+      <c r="O75" s="324"/>
+      <c r="P75" s="324"/>
+      <c r="Q75" s="324"/>
+      <c r="R75" s="324"/>
+      <c r="S75" s="324"/>
+      <c r="T75" s="324"/>
+      <c r="U75" s="324"/>
+      <c r="V75" s="324"/>
+      <c r="W75" s="324"/>
+      <c r="X75" s="324"/>
+      <c r="Y75" s="324"/>
+      <c r="Z75" s="324"/>
       <c r="AA75" s="126"/>
       <c r="AB75" s="126"/>
       <c r="AC75" s="126"/>
@@ -24799,7 +24804,7 @@
       <c r="FK92" s="25"/>
     </row>
     <row r="93" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A93" s="332"/>
+      <c r="A93" s="325"/>
       <c r="B93" s="82"/>
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
@@ -24968,39 +24973,39 @@
       <c r="FK93" s="25"/>
     </row>
     <row r="94" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A94" s="333"/>
-      <c r="B94" s="356"/>
-      <c r="C94" s="356"/>
-      <c r="D94" s="358"/>
-      <c r="E94" s="358"/>
-      <c r="F94" s="358"/>
-      <c r="G94" s="358"/>
-      <c r="H94" s="358"/>
-      <c r="I94" s="358"/>
-      <c r="J94" s="358"/>
-      <c r="K94" s="358"/>
-      <c r="L94" s="358"/>
-      <c r="M94" s="358"/>
-      <c r="N94" s="358"/>
-      <c r="O94" s="358"/>
-      <c r="P94" s="358"/>
-      <c r="Q94" s="358"/>
-      <c r="R94" s="358"/>
-      <c r="S94" s="358"/>
-      <c r="T94" s="358"/>
-      <c r="U94" s="358"/>
-      <c r="V94" s="358"/>
-      <c r="W94" s="358"/>
-      <c r="X94" s="358"/>
-      <c r="Y94" s="358"/>
-      <c r="Z94" s="358"/>
-      <c r="AA94" s="358"/>
-      <c r="AB94" s="358"/>
-      <c r="AC94" s="358"/>
-      <c r="AD94" s="358"/>
-      <c r="AE94" s="358"/>
-      <c r="AF94" s="358"/>
-      <c r="AG94" s="358"/>
+      <c r="A94" s="326"/>
+      <c r="B94" s="327"/>
+      <c r="C94" s="327"/>
+      <c r="D94" s="329"/>
+      <c r="E94" s="329"/>
+      <c r="F94" s="329"/>
+      <c r="G94" s="329"/>
+      <c r="H94" s="329"/>
+      <c r="I94" s="329"/>
+      <c r="J94" s="329"/>
+      <c r="K94" s="329"/>
+      <c r="L94" s="329"/>
+      <c r="M94" s="329"/>
+      <c r="N94" s="329"/>
+      <c r="O94" s="329"/>
+      <c r="P94" s="329"/>
+      <c r="Q94" s="329"/>
+      <c r="R94" s="329"/>
+      <c r="S94" s="329"/>
+      <c r="T94" s="329"/>
+      <c r="U94" s="329"/>
+      <c r="V94" s="329"/>
+      <c r="W94" s="329"/>
+      <c r="X94" s="329"/>
+      <c r="Y94" s="329"/>
+      <c r="Z94" s="329"/>
+      <c r="AA94" s="329"/>
+      <c r="AB94" s="329"/>
+      <c r="AC94" s="329"/>
+      <c r="AD94" s="329"/>
+      <c r="AE94" s="329"/>
+      <c r="AF94" s="329"/>
+      <c r="AG94" s="329"/>
       <c r="AH94" s="102"/>
       <c r="AI94" s="79"/>
       <c r="AJ94" s="25"/>
@@ -25138,7 +25143,7 @@
     </row>
     <row r="95" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A95" s="103"/>
-      <c r="B95" s="357"/>
+      <c r="B95" s="328"/>
       <c r="C95" s="104"/>
       <c r="D95" s="105"/>
       <c r="E95" s="104"/>
@@ -27522,16 +27527,16 @@
       <c r="V116" s="90"/>
       <c r="W116" s="90"/>
       <c r="X116" s="90"/>
-      <c r="Y116" s="359"/>
-      <c r="Z116" s="359"/>
-      <c r="AA116" s="359"/>
-      <c r="AB116" s="359"/>
-      <c r="AC116" s="359"/>
-      <c r="AD116" s="359"/>
-      <c r="AE116" s="359"/>
-      <c r="AF116" s="359"/>
-      <c r="AG116" s="359"/>
-      <c r="AH116" s="359"/>
+      <c r="Y116" s="330"/>
+      <c r="Z116" s="330"/>
+      <c r="AA116" s="330"/>
+      <c r="AB116" s="330"/>
+      <c r="AC116" s="330"/>
+      <c r="AD116" s="330"/>
+      <c r="AE116" s="330"/>
+      <c r="AF116" s="330"/>
+      <c r="AG116" s="330"/>
+      <c r="AH116" s="330"/>
       <c r="AI116" s="81"/>
     </row>
     <row r="117" spans="1:35" ht="27" customHeight="1">
@@ -27670,16 +27675,16 @@
       <c r="V120" s="90"/>
       <c r="W120" s="90"/>
       <c r="X120" s="90"/>
-      <c r="Y120" s="351"/>
-      <c r="Z120" s="351"/>
-      <c r="AA120" s="351"/>
-      <c r="AB120" s="351"/>
-      <c r="AC120" s="351"/>
-      <c r="AD120" s="351"/>
-      <c r="AE120" s="351"/>
-      <c r="AF120" s="351"/>
-      <c r="AG120" s="351"/>
-      <c r="AH120" s="351"/>
+      <c r="Y120" s="320"/>
+      <c r="Z120" s="320"/>
+      <c r="AA120" s="320"/>
+      <c r="AB120" s="320"/>
+      <c r="AC120" s="320"/>
+      <c r="AD120" s="320"/>
+      <c r="AE120" s="320"/>
+      <c r="AF120" s="320"/>
+      <c r="AG120" s="320"/>
+      <c r="AH120" s="320"/>
       <c r="AI120" s="81"/>
     </row>
     <row r="121" spans="1:35" ht="27" customHeight="1">
@@ -29056,16 +29061,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y116:AH116"/>
-    <mergeCell ref="Y120:AH120"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:AG52"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:Z75"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:AG94"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="AB31:AH31"/>
     <mergeCell ref="A1:E1"/>
@@ -29082,6 +29077,16 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="AB27:AH27"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="Y116:AH116"/>
+    <mergeCell ref="Y120:AH120"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:AG52"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:Z75"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:AG94"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -29501,240 +29506,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="368"/>
-      <c r="S1" s="368"/>
-      <c r="T1" s="368"/>
-      <c r="U1" s="368"/>
-      <c r="V1" s="368"/>
-      <c r="W1" s="368"/>
-      <c r="X1" s="368"/>
-      <c r="Y1" s="368"/>
-      <c r="Z1" s="368"/>
-      <c r="AA1" s="368"/>
-      <c r="AB1" s="368"/>
-      <c r="AC1" s="368"/>
-      <c r="AD1" s="368"/>
-      <c r="AE1" s="368"/>
-      <c r="AF1" s="368"/>
-      <c r="AG1" s="368"/>
-      <c r="AH1" s="368"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="375"/>
+      <c r="O1" s="375"/>
+      <c r="P1" s="375"/>
+      <c r="Q1" s="375"/>
+      <c r="R1" s="375"/>
+      <c r="S1" s="375"/>
+      <c r="T1" s="375"/>
+      <c r="U1" s="375"/>
+      <c r="V1" s="375"/>
+      <c r="W1" s="375"/>
+      <c r="X1" s="375"/>
+      <c r="Y1" s="375"/>
+      <c r="Z1" s="375"/>
+      <c r="AA1" s="375"/>
+      <c r="AB1" s="375"/>
+      <c r="AC1" s="375"/>
+      <c r="AD1" s="375"/>
+      <c r="AE1" s="375"/>
+      <c r="AF1" s="375"/>
+      <c r="AG1" s="375"/>
+      <c r="AH1" s="375"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="368"/>
-      <c r="L2" s="368"/>
-      <c r="M2" s="368"/>
-      <c r="N2" s="368"/>
-      <c r="O2" s="368"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="368"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="368"/>
-      <c r="T2" s="368"/>
-      <c r="U2" s="368"/>
-      <c r="V2" s="368"/>
-      <c r="W2" s="368"/>
-      <c r="X2" s="368"/>
-      <c r="Y2" s="368"/>
-      <c r="Z2" s="368"/>
-      <c r="AA2" s="368"/>
-      <c r="AB2" s="368"/>
-      <c r="AC2" s="368"/>
-      <c r="AD2" s="368"/>
-      <c r="AE2" s="368"/>
-      <c r="AF2" s="368"/>
-      <c r="AG2" s="368"/>
-      <c r="AH2" s="368"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
+      <c r="N2" s="375"/>
+      <c r="O2" s="375"/>
+      <c r="P2" s="375"/>
+      <c r="Q2" s="375"/>
+      <c r="R2" s="375"/>
+      <c r="S2" s="375"/>
+      <c r="T2" s="375"/>
+      <c r="U2" s="375"/>
+      <c r="V2" s="375"/>
+      <c r="W2" s="375"/>
+      <c r="X2" s="375"/>
+      <c r="Y2" s="375"/>
+      <c r="Z2" s="375"/>
+      <c r="AA2" s="375"/>
+      <c r="AB2" s="375"/>
+      <c r="AC2" s="375"/>
+      <c r="AD2" s="375"/>
+      <c r="AE2" s="375"/>
+      <c r="AF2" s="375"/>
+      <c r="AG2" s="375"/>
+      <c r="AH2" s="375"/>
     </row>
     <row r="3" spans="1:45" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="369"/>
-      <c r="Q3" s="369"/>
-      <c r="R3" s="369"/>
-      <c r="S3" s="369"/>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="369"/>
-      <c r="W3" s="369"/>
-      <c r="X3" s="369"/>
-      <c r="Y3" s="369"/>
-      <c r="Z3" s="369"/>
-      <c r="AA3" s="369"/>
-      <c r="AB3" s="369"/>
-      <c r="AC3" s="369"/>
-      <c r="AD3" s="369"/>
-      <c r="AE3" s="369"/>
-      <c r="AF3" s="369"/>
-      <c r="AG3" s="369"/>
-      <c r="AH3" s="369"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
+      <c r="Q3" s="376"/>
+      <c r="R3" s="376"/>
+      <c r="S3" s="376"/>
+      <c r="T3" s="376"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="376"/>
+      <c r="W3" s="376"/>
+      <c r="X3" s="376"/>
+      <c r="Y3" s="376"/>
+      <c r="Z3" s="376"/>
+      <c r="AA3" s="376"/>
+      <c r="AB3" s="376"/>
+      <c r="AC3" s="376"/>
+      <c r="AD3" s="376"/>
+      <c r="AE3" s="376"/>
+      <c r="AF3" s="376"/>
+      <c r="AG3" s="376"/>
+      <c r="AH3" s="376"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="351" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="370"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="370"/>
-      <c r="P4" s="370"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="370"/>
-      <c r="S4" s="370"/>
-      <c r="T4" s="370"/>
-      <c r="U4" s="370"/>
-      <c r="V4" s="370"/>
-      <c r="W4" s="370"/>
-      <c r="X4" s="370"/>
-      <c r="Y4" s="370"/>
-      <c r="Z4" s="370"/>
-      <c r="AA4" s="370"/>
-      <c r="AB4" s="370"/>
-      <c r="AC4" s="370"/>
-      <c r="AD4" s="370"/>
-      <c r="AE4" s="370"/>
-      <c r="AF4" s="370"/>
-      <c r="AG4" s="370"/>
-      <c r="AH4" s="370"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="377"/>
+      <c r="L4" s="377"/>
+      <c r="M4" s="377"/>
+      <c r="N4" s="377"/>
+      <c r="O4" s="377"/>
+      <c r="P4" s="377"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="377"/>
+      <c r="V4" s="377"/>
+      <c r="W4" s="377"/>
+      <c r="X4" s="377"/>
+      <c r="Y4" s="377"/>
+      <c r="Z4" s="377"/>
+      <c r="AA4" s="377"/>
+      <c r="AB4" s="377"/>
+      <c r="AC4" s="377"/>
+      <c r="AD4" s="377"/>
+      <c r="AE4" s="377"/>
+      <c r="AF4" s="377"/>
+      <c r="AG4" s="377"/>
+      <c r="AH4" s="377"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="331"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="331"/>
-      <c r="AD5" s="331"/>
-      <c r="AE5" s="331"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="331"/>
-      <c r="AH5" s="331"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="352"/>
+      <c r="P5" s="352"/>
+      <c r="Q5" s="352"/>
+      <c r="R5" s="352"/>
+      <c r="S5" s="352"/>
+      <c r="T5" s="352"/>
+      <c r="U5" s="352"/>
+      <c r="V5" s="352"/>
+      <c r="W5" s="352"/>
+      <c r="X5" s="352"/>
+      <c r="Y5" s="352"/>
+      <c r="Z5" s="352"/>
+      <c r="AA5" s="352"/>
+      <c r="AB5" s="352"/>
+      <c r="AC5" s="352"/>
+      <c r="AD5" s="352"/>
+      <c r="AE5" s="352"/>
+      <c r="AF5" s="352"/>
+      <c r="AG5" s="352"/>
+      <c r="AH5" s="352"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="353" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="320" t="s">
+      <c r="C6" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
-      <c r="G6" s="363"/>
-      <c r="H6" s="363"/>
-      <c r="I6" s="363"/>
-      <c r="J6" s="363"/>
-      <c r="K6" s="363"/>
-      <c r="L6" s="363"/>
-      <c r="M6" s="363"/>
-      <c r="N6" s="363"/>
-      <c r="O6" s="363"/>
-      <c r="P6" s="363"/>
-      <c r="Q6" s="363"/>
-      <c r="R6" s="363"/>
-      <c r="S6" s="363"/>
-      <c r="T6" s="363"/>
-      <c r="U6" s="363"/>
-      <c r="V6" s="363"/>
-      <c r="W6" s="363"/>
-      <c r="X6" s="363"/>
-      <c r="Y6" s="363"/>
-      <c r="Z6" s="363"/>
-      <c r="AA6" s="363"/>
-      <c r="AB6" s="363"/>
-      <c r="AC6" s="363"/>
-      <c r="AD6" s="363"/>
-      <c r="AE6" s="363"/>
-      <c r="AF6" s="363"/>
-      <c r="AG6" s="363"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="367"/>
+      <c r="K6" s="367"/>
+      <c r="L6" s="367"/>
+      <c r="M6" s="367"/>
+      <c r="N6" s="367"/>
+      <c r="O6" s="367"/>
+      <c r="P6" s="367"/>
+      <c r="Q6" s="367"/>
+      <c r="R6" s="367"/>
+      <c r="S6" s="367"/>
+      <c r="T6" s="367"/>
+      <c r="U6" s="367"/>
+      <c r="V6" s="367"/>
+      <c r="W6" s="367"/>
+      <c r="X6" s="367"/>
+      <c r="Y6" s="367"/>
+      <c r="Z6" s="367"/>
+      <c r="AA6" s="367"/>
+      <c r="AB6" s="367"/>
+      <c r="AC6" s="367"/>
+      <c r="AD6" s="367"/>
+      <c r="AE6" s="367"/>
+      <c r="AF6" s="367"/>
+      <c r="AG6" s="367"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="361"/>
-      <c r="B7" s="362"/>
+      <c r="A7" s="365"/>
+      <c r="B7" s="366"/>
       <c r="C7" s="144">
         <v>1</v>
       </c>
@@ -29831,26 +29836,26 @@
       </c>
     </row>
     <row r="8" spans="1:45" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="337" t="s">
+      <c r="A8" s="334" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="338"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="340"/>
-      <c r="G8" s="340"/>
-      <c r="H8" s="340"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="340"/>
-      <c r="K8" s="340"/>
-      <c r="L8" s="340"/>
-      <c r="M8" s="340"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="341"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="337"/>
+      <c r="L8" s="337"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="337"/>
+      <c r="Q8" s="337"/>
+      <c r="R8" s="338"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -30694,10 +30699,10 @@
       <c r="AI17" s="30"/>
     </row>
     <row r="18" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="342" t="s">
+      <c r="A18" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="343"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -31330,10 +31335,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" s="32" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="372"/>
+      <c r="B25" s="373"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -31410,12 +31415,12 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="347" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="350"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="350"/>
+      <c r="C27" s="347"/>
+      <c r="D27" s="347"/>
+      <c r="E27" s="347"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -31437,16 +31442,16 @@
       <c r="X27" s="45"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="366" t="s">
+      <c r="AA27" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="366"/>
-      <c r="AC27" s="366"/>
-      <c r="AD27" s="366"/>
-      <c r="AE27" s="366"/>
-      <c r="AF27" s="366"/>
-      <c r="AG27" s="366"/>
-      <c r="AH27" s="366"/>
+      <c r="AB27" s="370"/>
+      <c r="AC27" s="370"/>
+      <c r="AD27" s="370"/>
+      <c r="AE27" s="370"/>
+      <c r="AF27" s="370"/>
+      <c r="AG27" s="370"/>
+      <c r="AH27" s="370"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -31559,12 +31564,12 @@
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="347" t="s">
+      <c r="B31" s="344" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="347"/>
-      <c r="D31" s="347"/>
-      <c r="E31" s="347"/>
+      <c r="C31" s="344"/>
+      <c r="D31" s="344"/>
+      <c r="E31" s="344"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -31586,90 +31591,90 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="373" t="s">
+      <c r="AA31" s="374" t="s">
         <v>59</v>
       </c>
-      <c r="AB31" s="373"/>
-      <c r="AC31" s="373"/>
-      <c r="AD31" s="373"/>
-      <c r="AE31" s="373"/>
-      <c r="AF31" s="373"/>
-      <c r="AG31" s="373"/>
-      <c r="AH31" s="373"/>
+      <c r="AB31" s="374"/>
+      <c r="AC31" s="374"/>
+      <c r="AD31" s="374"/>
+      <c r="AE31" s="374"/>
+      <c r="AF31" s="374"/>
+      <c r="AG31" s="374"/>
+      <c r="AH31" s="374"/>
     </row>
     <row r="32" spans="1:35" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="128"/>
-      <c r="C32" s="327"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="327"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
-      <c r="H32" s="327"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="327"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="327"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="327"/>
-      <c r="P32" s="327"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="327"/>
-      <c r="S32" s="327"/>
-      <c r="T32" s="327"/>
-      <c r="U32" s="327"/>
-      <c r="V32" s="327"/>
-      <c r="W32" s="327"/>
-      <c r="X32" s="327"/>
-      <c r="Y32" s="327"/>
-      <c r="Z32" s="327"/>
-      <c r="AA32" s="327"/>
-      <c r="AB32" s="327"/>
-      <c r="AC32" s="327"/>
-      <c r="AD32" s="327"/>
-      <c r="AE32" s="327"/>
-      <c r="AF32" s="327"/>
-      <c r="AG32" s="327"/>
-      <c r="AH32" s="327"/>
-      <c r="AI32" s="327"/>
+      <c r="C32" s="348"/>
+      <c r="D32" s="348"/>
+      <c r="E32" s="348"/>
+      <c r="F32" s="348"/>
+      <c r="G32" s="348"/>
+      <c r="H32" s="348"/>
+      <c r="I32" s="348"/>
+      <c r="J32" s="348"/>
+      <c r="K32" s="348"/>
+      <c r="L32" s="348"/>
+      <c r="M32" s="348"/>
+      <c r="N32" s="348"/>
+      <c r="O32" s="348"/>
+      <c r="P32" s="348"/>
+      <c r="Q32" s="348"/>
+      <c r="R32" s="348"/>
+      <c r="S32" s="348"/>
+      <c r="T32" s="348"/>
+      <c r="U32" s="348"/>
+      <c r="V32" s="348"/>
+      <c r="W32" s="348"/>
+      <c r="X32" s="348"/>
+      <c r="Y32" s="348"/>
+      <c r="Z32" s="348"/>
+      <c r="AA32" s="348"/>
+      <c r="AB32" s="348"/>
+      <c r="AC32" s="348"/>
+      <c r="AD32" s="348"/>
+      <c r="AE32" s="348"/>
+      <c r="AF32" s="348"/>
+      <c r="AG32" s="348"/>
+      <c r="AH32" s="348"/>
+      <c r="AI32" s="348"/>
     </row>
     <row r="33" spans="1:35" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="327"/>
-      <c r="D33" s="327"/>
-      <c r="E33" s="327"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="327"/>
-      <c r="H33" s="327"/>
-      <c r="I33" s="327"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="327"/>
-      <c r="L33" s="327"/>
-      <c r="M33" s="327"/>
-      <c r="N33" s="327"/>
-      <c r="O33" s="327"/>
-      <c r="P33" s="327"/>
-      <c r="Q33" s="327"/>
-      <c r="R33" s="327"/>
-      <c r="S33" s="327"/>
-      <c r="T33" s="327"/>
-      <c r="U33" s="327"/>
-      <c r="V33" s="327"/>
-      <c r="W33" s="327"/>
-      <c r="X33" s="327"/>
-      <c r="Y33" s="327"/>
-      <c r="Z33" s="327"/>
-      <c r="AA33" s="327"/>
-      <c r="AB33" s="327"/>
-      <c r="AC33" s="327"/>
-      <c r="AD33" s="327"/>
-      <c r="AE33" s="327"/>
-      <c r="AF33" s="327"/>
-      <c r="AG33" s="327"/>
-      <c r="AH33" s="327"/>
-      <c r="AI33" s="327"/>
+      <c r="C33" s="348"/>
+      <c r="D33" s="348"/>
+      <c r="E33" s="348"/>
+      <c r="F33" s="348"/>
+      <c r="G33" s="348"/>
+      <c r="H33" s="348"/>
+      <c r="I33" s="348"/>
+      <c r="J33" s="348"/>
+      <c r="K33" s="348"/>
+      <c r="L33" s="348"/>
+      <c r="M33" s="348"/>
+      <c r="N33" s="348"/>
+      <c r="O33" s="348"/>
+      <c r="P33" s="348"/>
+      <c r="Q33" s="348"/>
+      <c r="R33" s="348"/>
+      <c r="S33" s="348"/>
+      <c r="T33" s="348"/>
+      <c r="U33" s="348"/>
+      <c r="V33" s="348"/>
+      <c r="W33" s="348"/>
+      <c r="X33" s="348"/>
+      <c r="Y33" s="348"/>
+      <c r="Z33" s="348"/>
+      <c r="AA33" s="348"/>
+      <c r="AB33" s="348"/>
+      <c r="AC33" s="348"/>
+      <c r="AD33" s="348"/>
+      <c r="AE33" s="348"/>
+      <c r="AF33" s="348"/>
+      <c r="AG33" s="348"/>
+      <c r="AH33" s="348"/>
+      <c r="AI33" s="348"/>
     </row>
     <row r="34" spans="1:35" ht="20.25" customHeight="1">
       <c r="A34" s="124"/>
@@ -32105,7 +32110,7 @@
       <c r="AH45" s="30"/>
     </row>
     <row r="46" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A46" s="332"/>
+      <c r="A46" s="325"/>
       <c r="B46" s="61"/>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -32141,44 +32146,44 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="333"/>
-      <c r="B47" s="334"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="336"/>
-      <c r="E47" s="336"/>
-      <c r="F47" s="336"/>
-      <c r="G47" s="336"/>
-      <c r="H47" s="336"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="336"/>
-      <c r="K47" s="336"/>
-      <c r="L47" s="336"/>
-      <c r="M47" s="336"/>
-      <c r="N47" s="336"/>
-      <c r="O47" s="336"/>
-      <c r="P47" s="336"/>
-      <c r="Q47" s="336"/>
-      <c r="R47" s="336"/>
-      <c r="S47" s="336"/>
-      <c r="T47" s="336"/>
-      <c r="U47" s="336"/>
-      <c r="V47" s="336"/>
-      <c r="W47" s="336"/>
-      <c r="X47" s="336"/>
-      <c r="Y47" s="336"/>
-      <c r="Z47" s="336"/>
-      <c r="AA47" s="336"/>
-      <c r="AB47" s="336"/>
-      <c r="AC47" s="336"/>
-      <c r="AD47" s="336"/>
-      <c r="AE47" s="336"/>
-      <c r="AF47" s="336"/>
-      <c r="AG47" s="336"/>
+      <c r="A47" s="326"/>
+      <c r="B47" s="331"/>
+      <c r="C47" s="331"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="333"/>
+      <c r="O47" s="333"/>
+      <c r="P47" s="333"/>
+      <c r="Q47" s="333"/>
+      <c r="R47" s="333"/>
+      <c r="S47" s="333"/>
+      <c r="T47" s="333"/>
+      <c r="U47" s="333"/>
+      <c r="V47" s="333"/>
+      <c r="W47" s="333"/>
+      <c r="X47" s="333"/>
+      <c r="Y47" s="333"/>
+      <c r="Z47" s="333"/>
+      <c r="AA47" s="333"/>
+      <c r="AB47" s="333"/>
+      <c r="AC47" s="333"/>
+      <c r="AD47" s="333"/>
+      <c r="AE47" s="333"/>
+      <c r="AF47" s="333"/>
+      <c r="AG47" s="333"/>
       <c r="AH47" s="65"/>
     </row>
     <row r="48" spans="1:35" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="335"/>
+      <c r="B48" s="332"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -32977,31 +32982,31 @@
     </row>
     <row r="70" spans="1:36" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="43"/>
-      <c r="B70" s="352"/>
-      <c r="C70" s="353"/>
-      <c r="D70" s="353"/>
-      <c r="E70" s="353"/>
-      <c r="F70" s="353"/>
-      <c r="G70" s="353"/>
-      <c r="H70" s="354"/>
-      <c r="I70" s="355"/>
-      <c r="J70" s="355"/>
-      <c r="K70" s="355"/>
-      <c r="L70" s="355"/>
-      <c r="M70" s="355"/>
-      <c r="N70" s="355"/>
-      <c r="O70" s="355"/>
-      <c r="P70" s="355"/>
-      <c r="Q70" s="355"/>
-      <c r="R70" s="355"/>
-      <c r="S70" s="355"/>
-      <c r="T70" s="355"/>
-      <c r="U70" s="355"/>
-      <c r="V70" s="355"/>
-      <c r="W70" s="355"/>
-      <c r="X70" s="355"/>
-      <c r="Y70" s="355"/>
-      <c r="Z70" s="355"/>
+      <c r="B70" s="321"/>
+      <c r="C70" s="322"/>
+      <c r="D70" s="322"/>
+      <c r="E70" s="322"/>
+      <c r="F70" s="322"/>
+      <c r="G70" s="322"/>
+      <c r="H70" s="323"/>
+      <c r="I70" s="324"/>
+      <c r="J70" s="324"/>
+      <c r="K70" s="324"/>
+      <c r="L70" s="324"/>
+      <c r="M70" s="324"/>
+      <c r="N70" s="324"/>
+      <c r="O70" s="324"/>
+      <c r="P70" s="324"/>
+      <c r="Q70" s="324"/>
+      <c r="R70" s="324"/>
+      <c r="S70" s="324"/>
+      <c r="T70" s="324"/>
+      <c r="U70" s="324"/>
+      <c r="V70" s="324"/>
+      <c r="W70" s="324"/>
+      <c r="X70" s="324"/>
+      <c r="Y70" s="324"/>
+      <c r="Z70" s="324"/>
       <c r="AA70" s="126"/>
       <c r="AB70" s="126"/>
       <c r="AC70" s="126"/>
@@ -34303,7 +34308,7 @@
       <c r="FK87" s="25"/>
     </row>
     <row r="88" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A88" s="332"/>
+      <c r="A88" s="325"/>
       <c r="B88" s="82"/>
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
@@ -34472,39 +34477,39 @@
       <c r="FK88" s="25"/>
     </row>
     <row r="89" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A89" s="333"/>
-      <c r="B89" s="356"/>
-      <c r="C89" s="356"/>
-      <c r="D89" s="358"/>
-      <c r="E89" s="358"/>
-      <c r="F89" s="358"/>
-      <c r="G89" s="358"/>
-      <c r="H89" s="358"/>
-      <c r="I89" s="358"/>
-      <c r="J89" s="358"/>
-      <c r="K89" s="358"/>
-      <c r="L89" s="358"/>
-      <c r="M89" s="358"/>
-      <c r="N89" s="358"/>
-      <c r="O89" s="358"/>
-      <c r="P89" s="358"/>
-      <c r="Q89" s="358"/>
-      <c r="R89" s="358"/>
-      <c r="S89" s="358"/>
-      <c r="T89" s="358"/>
-      <c r="U89" s="358"/>
-      <c r="V89" s="358"/>
-      <c r="W89" s="358"/>
-      <c r="X89" s="358"/>
-      <c r="Y89" s="358"/>
-      <c r="Z89" s="358"/>
-      <c r="AA89" s="358"/>
-      <c r="AB89" s="358"/>
-      <c r="AC89" s="358"/>
-      <c r="AD89" s="358"/>
-      <c r="AE89" s="358"/>
-      <c r="AF89" s="358"/>
-      <c r="AG89" s="358"/>
+      <c r="A89" s="326"/>
+      <c r="B89" s="327"/>
+      <c r="C89" s="327"/>
+      <c r="D89" s="329"/>
+      <c r="E89" s="329"/>
+      <c r="F89" s="329"/>
+      <c r="G89" s="329"/>
+      <c r="H89" s="329"/>
+      <c r="I89" s="329"/>
+      <c r="J89" s="329"/>
+      <c r="K89" s="329"/>
+      <c r="L89" s="329"/>
+      <c r="M89" s="329"/>
+      <c r="N89" s="329"/>
+      <c r="O89" s="329"/>
+      <c r="P89" s="329"/>
+      <c r="Q89" s="329"/>
+      <c r="R89" s="329"/>
+      <c r="S89" s="329"/>
+      <c r="T89" s="329"/>
+      <c r="U89" s="329"/>
+      <c r="V89" s="329"/>
+      <c r="W89" s="329"/>
+      <c r="X89" s="329"/>
+      <c r="Y89" s="329"/>
+      <c r="Z89" s="329"/>
+      <c r="AA89" s="329"/>
+      <c r="AB89" s="329"/>
+      <c r="AC89" s="329"/>
+      <c r="AD89" s="329"/>
+      <c r="AE89" s="329"/>
+      <c r="AF89" s="329"/>
+      <c r="AG89" s="329"/>
       <c r="AH89" s="102"/>
       <c r="AI89" s="79"/>
       <c r="AJ89" s="25"/>
@@ -34642,7 +34647,7 @@
     </row>
     <row r="90" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A90" s="103"/>
-      <c r="B90" s="357"/>
+      <c r="B90" s="328"/>
       <c r="C90" s="104"/>
       <c r="D90" s="105"/>
       <c r="E90" s="104"/>
@@ -37026,16 +37031,16 @@
       <c r="V111" s="90"/>
       <c r="W111" s="90"/>
       <c r="X111" s="90"/>
-      <c r="Y111" s="359"/>
-      <c r="Z111" s="359"/>
-      <c r="AA111" s="359"/>
-      <c r="AB111" s="359"/>
-      <c r="AC111" s="359"/>
-      <c r="AD111" s="359"/>
-      <c r="AE111" s="359"/>
-      <c r="AF111" s="359"/>
-      <c r="AG111" s="359"/>
-      <c r="AH111" s="359"/>
+      <c r="Y111" s="330"/>
+      <c r="Z111" s="330"/>
+      <c r="AA111" s="330"/>
+      <c r="AB111" s="330"/>
+      <c r="AC111" s="330"/>
+      <c r="AD111" s="330"/>
+      <c r="AE111" s="330"/>
+      <c r="AF111" s="330"/>
+      <c r="AG111" s="330"/>
+      <c r="AH111" s="330"/>
       <c r="AI111" s="81"/>
     </row>
     <row r="112" spans="1:167" ht="27" customHeight="1">
@@ -37174,16 +37179,16 @@
       <c r="V115" s="90"/>
       <c r="W115" s="90"/>
       <c r="X115" s="90"/>
-      <c r="Y115" s="351"/>
-      <c r="Z115" s="351"/>
-      <c r="AA115" s="351"/>
-      <c r="AB115" s="351"/>
-      <c r="AC115" s="351"/>
-      <c r="AD115" s="351"/>
-      <c r="AE115" s="351"/>
-      <c r="AF115" s="351"/>
-      <c r="AG115" s="351"/>
-      <c r="AH115" s="351"/>
+      <c r="Y115" s="320"/>
+      <c r="Z115" s="320"/>
+      <c r="AA115" s="320"/>
+      <c r="AB115" s="320"/>
+      <c r="AC115" s="320"/>
+      <c r="AD115" s="320"/>
+      <c r="AE115" s="320"/>
+      <c r="AF115" s="320"/>
+      <c r="AG115" s="320"/>
+      <c r="AH115" s="320"/>
       <c r="AI115" s="81"/>
     </row>
     <row r="116" spans="1:35" ht="27" customHeight="1">
@@ -38560,22 +38565,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Y115:AH115"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:Z70"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:AG89"/>
-    <mergeCell ref="Y111:AH111"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:AG47"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="C32:AI33"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AH2"/>
@@ -38588,6 +38577,22 @@
     <mergeCell ref="C6:AG6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:R8"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="C32:AI33"/>
+    <mergeCell ref="Y115:AH115"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:Z70"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:AG89"/>
+    <mergeCell ref="Y111:AH111"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:AG47"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -39011,240 +39016,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="368"/>
-      <c r="S1" s="368"/>
-      <c r="T1" s="368"/>
-      <c r="U1" s="368"/>
-      <c r="V1" s="368"/>
-      <c r="W1" s="368"/>
-      <c r="X1" s="368"/>
-      <c r="Y1" s="368"/>
-      <c r="Z1" s="368"/>
-      <c r="AA1" s="368"/>
-      <c r="AB1" s="368"/>
-      <c r="AC1" s="368"/>
-      <c r="AD1" s="368"/>
-      <c r="AE1" s="368"/>
-      <c r="AF1" s="368"/>
-      <c r="AG1" s="368"/>
-      <c r="AH1" s="368"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="375"/>
+      <c r="O1" s="375"/>
+      <c r="P1" s="375"/>
+      <c r="Q1" s="375"/>
+      <c r="R1" s="375"/>
+      <c r="S1" s="375"/>
+      <c r="T1" s="375"/>
+      <c r="U1" s="375"/>
+      <c r="V1" s="375"/>
+      <c r="W1" s="375"/>
+      <c r="X1" s="375"/>
+      <c r="Y1" s="375"/>
+      <c r="Z1" s="375"/>
+      <c r="AA1" s="375"/>
+      <c r="AB1" s="375"/>
+      <c r="AC1" s="375"/>
+      <c r="AD1" s="375"/>
+      <c r="AE1" s="375"/>
+      <c r="AF1" s="375"/>
+      <c r="AG1" s="375"/>
+      <c r="AH1" s="375"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="368"/>
-      <c r="L2" s="368"/>
-      <c r="M2" s="368"/>
-      <c r="N2" s="368"/>
-      <c r="O2" s="368"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="368"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="368"/>
-      <c r="T2" s="368"/>
-      <c r="U2" s="368"/>
-      <c r="V2" s="368"/>
-      <c r="W2" s="368"/>
-      <c r="X2" s="368"/>
-      <c r="Y2" s="368"/>
-      <c r="Z2" s="368"/>
-      <c r="AA2" s="368"/>
-      <c r="AB2" s="368"/>
-      <c r="AC2" s="368"/>
-      <c r="AD2" s="368"/>
-      <c r="AE2" s="368"/>
-      <c r="AF2" s="368"/>
-      <c r="AG2" s="368"/>
-      <c r="AH2" s="368"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
+      <c r="N2" s="375"/>
+      <c r="O2" s="375"/>
+      <c r="P2" s="375"/>
+      <c r="Q2" s="375"/>
+      <c r="R2" s="375"/>
+      <c r="S2" s="375"/>
+      <c r="T2" s="375"/>
+      <c r="U2" s="375"/>
+      <c r="V2" s="375"/>
+      <c r="W2" s="375"/>
+      <c r="X2" s="375"/>
+      <c r="Y2" s="375"/>
+      <c r="Z2" s="375"/>
+      <c r="AA2" s="375"/>
+      <c r="AB2" s="375"/>
+      <c r="AC2" s="375"/>
+      <c r="AD2" s="375"/>
+      <c r="AE2" s="375"/>
+      <c r="AF2" s="375"/>
+      <c r="AG2" s="375"/>
+      <c r="AH2" s="375"/>
     </row>
     <row r="3" spans="1:45" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="376" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="369"/>
-      <c r="Q3" s="369"/>
-      <c r="R3" s="369"/>
-      <c r="S3" s="369"/>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="369"/>
-      <c r="W3" s="369"/>
-      <c r="X3" s="369"/>
-      <c r="Y3" s="369"/>
-      <c r="Z3" s="369"/>
-      <c r="AA3" s="369"/>
-      <c r="AB3" s="369"/>
-      <c r="AC3" s="369"/>
-      <c r="AD3" s="369"/>
-      <c r="AE3" s="369"/>
-      <c r="AF3" s="369"/>
-      <c r="AG3" s="369"/>
-      <c r="AH3" s="369"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
+      <c r="Q3" s="376"/>
+      <c r="R3" s="376"/>
+      <c r="S3" s="376"/>
+      <c r="T3" s="376"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="376"/>
+      <c r="W3" s="376"/>
+      <c r="X3" s="376"/>
+      <c r="Y3" s="376"/>
+      <c r="Z3" s="376"/>
+      <c r="AA3" s="376"/>
+      <c r="AB3" s="376"/>
+      <c r="AC3" s="376"/>
+      <c r="AD3" s="376"/>
+      <c r="AE3" s="376"/>
+      <c r="AF3" s="376"/>
+      <c r="AG3" s="376"/>
+      <c r="AH3" s="376"/>
     </row>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="351" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="370"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="370"/>
-      <c r="P4" s="370"/>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="370"/>
-      <c r="S4" s="370"/>
-      <c r="T4" s="370"/>
-      <c r="U4" s="370"/>
-      <c r="V4" s="370"/>
-      <c r="W4" s="370"/>
-      <c r="X4" s="370"/>
-      <c r="Y4" s="370"/>
-      <c r="Z4" s="370"/>
-      <c r="AA4" s="370"/>
-      <c r="AB4" s="370"/>
-      <c r="AC4" s="370"/>
-      <c r="AD4" s="370"/>
-      <c r="AE4" s="370"/>
-      <c r="AF4" s="370"/>
-      <c r="AG4" s="370"/>
-      <c r="AH4" s="370"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="377"/>
+      <c r="L4" s="377"/>
+      <c r="M4" s="377"/>
+      <c r="N4" s="377"/>
+      <c r="O4" s="377"/>
+      <c r="P4" s="377"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="377"/>
+      <c r="V4" s="377"/>
+      <c r="W4" s="377"/>
+      <c r="X4" s="377"/>
+      <c r="Y4" s="377"/>
+      <c r="Z4" s="377"/>
+      <c r="AA4" s="377"/>
+      <c r="AB4" s="377"/>
+      <c r="AC4" s="377"/>
+      <c r="AD4" s="377"/>
+      <c r="AE4" s="377"/>
+      <c r="AF4" s="377"/>
+      <c r="AG4" s="377"/>
+      <c r="AH4" s="377"/>
     </row>
     <row r="5" spans="1:45" s="17" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="331"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="331"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="331"/>
-      <c r="AD5" s="331"/>
-      <c r="AE5" s="331"/>
-      <c r="AF5" s="331"/>
-      <c r="AG5" s="331"/>
-      <c r="AH5" s="331"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="352"/>
+      <c r="P5" s="352"/>
+      <c r="Q5" s="352"/>
+      <c r="R5" s="352"/>
+      <c r="S5" s="352"/>
+      <c r="T5" s="352"/>
+      <c r="U5" s="352"/>
+      <c r="V5" s="352"/>
+      <c r="W5" s="352"/>
+      <c r="X5" s="352"/>
+      <c r="Y5" s="352"/>
+      <c r="Z5" s="352"/>
+      <c r="AA5" s="352"/>
+      <c r="AB5" s="352"/>
+      <c r="AC5" s="352"/>
+      <c r="AD5" s="352"/>
+      <c r="AE5" s="352"/>
+      <c r="AF5" s="352"/>
+      <c r="AG5" s="352"/>
+      <c r="AH5" s="352"/>
     </row>
     <row r="6" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="353" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="320" t="s">
+      <c r="C6" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
-      <c r="G6" s="363"/>
-      <c r="H6" s="363"/>
-      <c r="I6" s="363"/>
-      <c r="J6" s="363"/>
-      <c r="K6" s="363"/>
-      <c r="L6" s="363"/>
-      <c r="M6" s="363"/>
-      <c r="N6" s="363"/>
-      <c r="O6" s="363"/>
-      <c r="P6" s="363"/>
-      <c r="Q6" s="363"/>
-      <c r="R6" s="363"/>
-      <c r="S6" s="363"/>
-      <c r="T6" s="363"/>
-      <c r="U6" s="363"/>
-      <c r="V6" s="363"/>
-      <c r="W6" s="363"/>
-      <c r="X6" s="363"/>
-      <c r="Y6" s="363"/>
-      <c r="Z6" s="363"/>
-      <c r="AA6" s="363"/>
-      <c r="AB6" s="363"/>
-      <c r="AC6" s="363"/>
-      <c r="AD6" s="363"/>
-      <c r="AE6" s="363"/>
-      <c r="AF6" s="363"/>
-      <c r="AG6" s="363"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="367"/>
+      <c r="K6" s="367"/>
+      <c r="L6" s="367"/>
+      <c r="M6" s="367"/>
+      <c r="N6" s="367"/>
+      <c r="O6" s="367"/>
+      <c r="P6" s="367"/>
+      <c r="Q6" s="367"/>
+      <c r="R6" s="367"/>
+      <c r="S6" s="367"/>
+      <c r="T6" s="367"/>
+      <c r="U6" s="367"/>
+      <c r="V6" s="367"/>
+      <c r="W6" s="367"/>
+      <c r="X6" s="367"/>
+      <c r="Y6" s="367"/>
+      <c r="Z6" s="367"/>
+      <c r="AA6" s="367"/>
+      <c r="AB6" s="367"/>
+      <c r="AC6" s="367"/>
+      <c r="AD6" s="367"/>
+      <c r="AE6" s="367"/>
+      <c r="AF6" s="367"/>
+      <c r="AG6" s="367"/>
       <c r="AH6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="374"/>
-      <c r="B7" s="375"/>
+      <c r="A7" s="378"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="20" t="s">
         <v>52</v>
       </c>
@@ -39278,7 +39283,7 @@
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="20"/>
-      <c r="AH7" s="380" t="s">
+      <c r="AH7" s="384" t="s">
         <v>42</v>
       </c>
       <c r="AK7" s="19">
@@ -39286,8 +39291,8 @@
       </c>
     </row>
     <row r="8" spans="1:45" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="361"/>
-      <c r="B8" s="362"/>
+      <c r="A8" s="365"/>
+      <c r="B8" s="366"/>
       <c r="C8" s="145" t="s">
         <v>53</v>
       </c>
@@ -39381,29 +39386,29 @@
       <c r="AG8" s="144">
         <v>31</v>
       </c>
-      <c r="AH8" s="381"/>
+      <c r="AH8" s="385"/>
     </row>
     <row r="9" spans="1:45" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="376" t="s">
+      <c r="A9" s="380" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="377"/>
-      <c r="C9" s="339"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="340"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="340"/>
-      <c r="N9" s="340"/>
-      <c r="O9" s="340"/>
-      <c r="P9" s="340"/>
-      <c r="Q9" s="340"/>
-      <c r="R9" s="341"/>
+      <c r="B9" s="381"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="337"/>
+      <c r="N9" s="337"/>
+      <c r="O9" s="337"/>
+      <c r="P9" s="337"/>
+      <c r="Q9" s="337"/>
+      <c r="R9" s="338"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
@@ -39793,10 +39798,10 @@
       <c r="AI17" s="30"/>
     </row>
     <row r="18" spans="1:36" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="382" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="379"/>
+      <c r="B18" s="383"/>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -40097,10 +40102,10 @@
       <c r="AI24" s="25"/>
     </row>
     <row r="25" spans="1:36" s="32" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="372"/>
+      <c r="B25" s="373"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -40177,10 +40182,10 @@
     </row>
     <row r="27" spans="1:36" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="347" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="350"/>
+      <c r="C27" s="347"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -40204,16 +40209,16 @@
       <c r="X27" s="45"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="366" t="s">
+      <c r="AA27" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="366"/>
-      <c r="AC27" s="366"/>
-      <c r="AD27" s="366"/>
-      <c r="AE27" s="366"/>
-      <c r="AF27" s="366"/>
-      <c r="AG27" s="366"/>
-      <c r="AH27" s="366"/>
+      <c r="AB27" s="370"/>
+      <c r="AC27" s="370"/>
+      <c r="AD27" s="370"/>
+      <c r="AE27" s="370"/>
+      <c r="AF27" s="370"/>
+      <c r="AG27" s="370"/>
+      <c r="AH27" s="370"/>
     </row>
     <row r="28" spans="1:36" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="46"/>
@@ -40326,12 +40331,12 @@
     </row>
     <row r="31" spans="1:36" s="38" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="347" t="s">
+      <c r="B31" s="344" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="347"/>
-      <c r="D31" s="347"/>
-      <c r="E31" s="347"/>
+      <c r="C31" s="344"/>
+      <c r="D31" s="344"/>
+      <c r="E31" s="344"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -40353,90 +40358,90 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="373" t="s">
+      <c r="AA31" s="374" t="s">
         <v>59</v>
       </c>
-      <c r="AB31" s="373"/>
-      <c r="AC31" s="373"/>
-      <c r="AD31" s="373"/>
-      <c r="AE31" s="373"/>
-      <c r="AF31" s="373"/>
-      <c r="AG31" s="373"/>
-      <c r="AH31" s="373"/>
+      <c r="AB31" s="374"/>
+      <c r="AC31" s="374"/>
+      <c r="AD31" s="374"/>
+      <c r="AE31" s="374"/>
+      <c r="AF31" s="374"/>
+      <c r="AG31" s="374"/>
+      <c r="AH31" s="374"/>
     </row>
     <row r="32" spans="1:36" ht="20.25" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="327"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="327"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
-      <c r="H32" s="327"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
-      <c r="K32" s="327"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="327"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="327"/>
-      <c r="P32" s="327"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="327"/>
-      <c r="S32" s="327"/>
-      <c r="T32" s="327"/>
-      <c r="U32" s="327"/>
-      <c r="V32" s="327"/>
-      <c r="W32" s="327"/>
-      <c r="X32" s="327"/>
-      <c r="Y32" s="327"/>
-      <c r="Z32" s="327"/>
-      <c r="AA32" s="327"/>
-      <c r="AB32" s="327"/>
-      <c r="AC32" s="327"/>
-      <c r="AD32" s="327"/>
-      <c r="AE32" s="327"/>
-      <c r="AF32" s="327"/>
-      <c r="AG32" s="327"/>
-      <c r="AH32" s="327"/>
-      <c r="AI32" s="327"/>
+      <c r="C32" s="348"/>
+      <c r="D32" s="348"/>
+      <c r="E32" s="348"/>
+      <c r="F32" s="348"/>
+      <c r="G32" s="348"/>
+      <c r="H32" s="348"/>
+      <c r="I32" s="348"/>
+      <c r="J32" s="348"/>
+      <c r="K32" s="348"/>
+      <c r="L32" s="348"/>
+      <c r="M32" s="348"/>
+      <c r="N32" s="348"/>
+      <c r="O32" s="348"/>
+      <c r="P32" s="348"/>
+      <c r="Q32" s="348"/>
+      <c r="R32" s="348"/>
+      <c r="S32" s="348"/>
+      <c r="T32" s="348"/>
+      <c r="U32" s="348"/>
+      <c r="V32" s="348"/>
+      <c r="W32" s="348"/>
+      <c r="X32" s="348"/>
+      <c r="Y32" s="348"/>
+      <c r="Z32" s="348"/>
+      <c r="AA32" s="348"/>
+      <c r="AB32" s="348"/>
+      <c r="AC32" s="348"/>
+      <c r="AD32" s="348"/>
+      <c r="AE32" s="348"/>
+      <c r="AF32" s="348"/>
+      <c r="AG32" s="348"/>
+      <c r="AH32" s="348"/>
+      <c r="AI32" s="348"/>
     </row>
     <row r="33" spans="1:35" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="327"/>
-      <c r="D33" s="327"/>
-      <c r="E33" s="327"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="327"/>
-      <c r="H33" s="327"/>
-      <c r="I33" s="327"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="327"/>
-      <c r="L33" s="327"/>
-      <c r="M33" s="327"/>
-      <c r="N33" s="327"/>
-      <c r="O33" s="327"/>
-      <c r="P33" s="327"/>
-      <c r="Q33" s="327"/>
-      <c r="R33" s="327"/>
-      <c r="S33" s="327"/>
-      <c r="T33" s="327"/>
-      <c r="U33" s="327"/>
-      <c r="V33" s="327"/>
-      <c r="W33" s="327"/>
-      <c r="X33" s="327"/>
-      <c r="Y33" s="327"/>
-      <c r="Z33" s="327"/>
-      <c r="AA33" s="327"/>
-      <c r="AB33" s="327"/>
-      <c r="AC33" s="327"/>
-      <c r="AD33" s="327"/>
-      <c r="AE33" s="327"/>
-      <c r="AF33" s="327"/>
-      <c r="AG33" s="327"/>
-      <c r="AH33" s="327"/>
-      <c r="AI33" s="327"/>
+      <c r="C33" s="348"/>
+      <c r="D33" s="348"/>
+      <c r="E33" s="348"/>
+      <c r="F33" s="348"/>
+      <c r="G33" s="348"/>
+      <c r="H33" s="348"/>
+      <c r="I33" s="348"/>
+      <c r="J33" s="348"/>
+      <c r="K33" s="348"/>
+      <c r="L33" s="348"/>
+      <c r="M33" s="348"/>
+      <c r="N33" s="348"/>
+      <c r="O33" s="348"/>
+      <c r="P33" s="348"/>
+      <c r="Q33" s="348"/>
+      <c r="R33" s="348"/>
+      <c r="S33" s="348"/>
+      <c r="T33" s="348"/>
+      <c r="U33" s="348"/>
+      <c r="V33" s="348"/>
+      <c r="W33" s="348"/>
+      <c r="X33" s="348"/>
+      <c r="Y33" s="348"/>
+      <c r="Z33" s="348"/>
+      <c r="AA33" s="348"/>
+      <c r="AB33" s="348"/>
+      <c r="AC33" s="348"/>
+      <c r="AD33" s="348"/>
+      <c r="AE33" s="348"/>
+      <c r="AF33" s="348"/>
+      <c r="AG33" s="348"/>
+      <c r="AH33" s="348"/>
+      <c r="AI33" s="348"/>
     </row>
     <row r="34" spans="1:35" ht="20.25" customHeight="1">
       <c r="A34" s="56"/>
@@ -40872,7 +40877,7 @@
       <c r="AH45" s="30"/>
     </row>
     <row r="46" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A46" s="332"/>
+      <c r="A46" s="325"/>
       <c r="B46" s="61"/>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -40908,44 +40913,44 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="1:35" s="33" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="333"/>
-      <c r="B47" s="334"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="336"/>
-      <c r="E47" s="336"/>
-      <c r="F47" s="336"/>
-      <c r="G47" s="336"/>
-      <c r="H47" s="336"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="336"/>
-      <c r="K47" s="336"/>
-      <c r="L47" s="336"/>
-      <c r="M47" s="336"/>
-      <c r="N47" s="336"/>
-      <c r="O47" s="336"/>
-      <c r="P47" s="336"/>
-      <c r="Q47" s="336"/>
-      <c r="R47" s="336"/>
-      <c r="S47" s="336"/>
-      <c r="T47" s="336"/>
-      <c r="U47" s="336"/>
-      <c r="V47" s="336"/>
-      <c r="W47" s="336"/>
-      <c r="X47" s="336"/>
-      <c r="Y47" s="336"/>
-      <c r="Z47" s="336"/>
-      <c r="AA47" s="336"/>
-      <c r="AB47" s="336"/>
-      <c r="AC47" s="336"/>
-      <c r="AD47" s="336"/>
-      <c r="AE47" s="336"/>
-      <c r="AF47" s="336"/>
-      <c r="AG47" s="336"/>
+      <c r="A47" s="326"/>
+      <c r="B47" s="331"/>
+      <c r="C47" s="331"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="333"/>
+      <c r="O47" s="333"/>
+      <c r="P47" s="333"/>
+      <c r="Q47" s="333"/>
+      <c r="R47" s="333"/>
+      <c r="S47" s="333"/>
+      <c r="T47" s="333"/>
+      <c r="U47" s="333"/>
+      <c r="V47" s="333"/>
+      <c r="W47" s="333"/>
+      <c r="X47" s="333"/>
+      <c r="Y47" s="333"/>
+      <c r="Z47" s="333"/>
+      <c r="AA47" s="333"/>
+      <c r="AB47" s="333"/>
+      <c r="AC47" s="333"/>
+      <c r="AD47" s="333"/>
+      <c r="AE47" s="333"/>
+      <c r="AF47" s="333"/>
+      <c r="AG47" s="333"/>
       <c r="AH47" s="65"/>
     </row>
     <row r="48" spans="1:35" s="70" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="335"/>
+      <c r="B48" s="332"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -41744,31 +41749,31 @@
     </row>
     <row r="70" spans="1:36" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="43"/>
-      <c r="B70" s="352"/>
-      <c r="C70" s="353"/>
-      <c r="D70" s="353"/>
-      <c r="E70" s="353"/>
-      <c r="F70" s="353"/>
-      <c r="G70" s="353"/>
-      <c r="H70" s="354"/>
-      <c r="I70" s="355"/>
-      <c r="J70" s="355"/>
-      <c r="K70" s="355"/>
-      <c r="L70" s="355"/>
-      <c r="M70" s="355"/>
-      <c r="N70" s="355"/>
-      <c r="O70" s="355"/>
-      <c r="P70" s="355"/>
-      <c r="Q70" s="355"/>
-      <c r="R70" s="355"/>
-      <c r="S70" s="355"/>
-      <c r="T70" s="355"/>
-      <c r="U70" s="355"/>
-      <c r="V70" s="355"/>
-      <c r="W70" s="355"/>
-      <c r="X70" s="355"/>
-      <c r="Y70" s="355"/>
-      <c r="Z70" s="355"/>
+      <c r="B70" s="321"/>
+      <c r="C70" s="322"/>
+      <c r="D70" s="322"/>
+      <c r="E70" s="322"/>
+      <c r="F70" s="322"/>
+      <c r="G70" s="322"/>
+      <c r="H70" s="323"/>
+      <c r="I70" s="324"/>
+      <c r="J70" s="324"/>
+      <c r="K70" s="324"/>
+      <c r="L70" s="324"/>
+      <c r="M70" s="324"/>
+      <c r="N70" s="324"/>
+      <c r="O70" s="324"/>
+      <c r="P70" s="324"/>
+      <c r="Q70" s="324"/>
+      <c r="R70" s="324"/>
+      <c r="S70" s="324"/>
+      <c r="T70" s="324"/>
+      <c r="U70" s="324"/>
+      <c r="V70" s="324"/>
+      <c r="W70" s="324"/>
+      <c r="X70" s="324"/>
+      <c r="Y70" s="324"/>
+      <c r="Z70" s="324"/>
       <c r="AA70" s="78"/>
       <c r="AB70" s="78"/>
       <c r="AC70" s="78"/>
@@ -43070,7 +43075,7 @@
       <c r="FK87" s="25"/>
     </row>
     <row r="88" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A88" s="332"/>
+      <c r="A88" s="325"/>
       <c r="B88" s="82"/>
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
@@ -43239,39 +43244,39 @@
       <c r="FK88" s="25"/>
     </row>
     <row r="89" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
-      <c r="A89" s="333"/>
-      <c r="B89" s="356"/>
-      <c r="C89" s="356"/>
-      <c r="D89" s="358"/>
-      <c r="E89" s="358"/>
-      <c r="F89" s="358"/>
-      <c r="G89" s="358"/>
-      <c r="H89" s="358"/>
-      <c r="I89" s="358"/>
-      <c r="J89" s="358"/>
-      <c r="K89" s="358"/>
-      <c r="L89" s="358"/>
-      <c r="M89" s="358"/>
-      <c r="N89" s="358"/>
-      <c r="O89" s="358"/>
-      <c r="P89" s="358"/>
-      <c r="Q89" s="358"/>
-      <c r="R89" s="358"/>
-      <c r="S89" s="358"/>
-      <c r="T89" s="358"/>
-      <c r="U89" s="358"/>
-      <c r="V89" s="358"/>
-      <c r="W89" s="358"/>
-      <c r="X89" s="358"/>
-      <c r="Y89" s="358"/>
-      <c r="Z89" s="358"/>
-      <c r="AA89" s="358"/>
-      <c r="AB89" s="358"/>
-      <c r="AC89" s="358"/>
-      <c r="AD89" s="358"/>
-      <c r="AE89" s="358"/>
-      <c r="AF89" s="358"/>
-      <c r="AG89" s="358"/>
+      <c r="A89" s="326"/>
+      <c r="B89" s="327"/>
+      <c r="C89" s="327"/>
+      <c r="D89" s="329"/>
+      <c r="E89" s="329"/>
+      <c r="F89" s="329"/>
+      <c r="G89" s="329"/>
+      <c r="H89" s="329"/>
+      <c r="I89" s="329"/>
+      <c r="J89" s="329"/>
+      <c r="K89" s="329"/>
+      <c r="L89" s="329"/>
+      <c r="M89" s="329"/>
+      <c r="N89" s="329"/>
+      <c r="O89" s="329"/>
+      <c r="P89" s="329"/>
+      <c r="Q89" s="329"/>
+      <c r="R89" s="329"/>
+      <c r="S89" s="329"/>
+      <c r="T89" s="329"/>
+      <c r="U89" s="329"/>
+      <c r="V89" s="329"/>
+      <c r="W89" s="329"/>
+      <c r="X89" s="329"/>
+      <c r="Y89" s="329"/>
+      <c r="Z89" s="329"/>
+      <c r="AA89" s="329"/>
+      <c r="AB89" s="329"/>
+      <c r="AC89" s="329"/>
+      <c r="AD89" s="329"/>
+      <c r="AE89" s="329"/>
+      <c r="AF89" s="329"/>
+      <c r="AG89" s="329"/>
       <c r="AH89" s="102"/>
       <c r="AI89" s="79"/>
       <c r="AJ89" s="25"/>
@@ -43409,7 +43414,7 @@
     </row>
     <row r="90" spans="1:167" s="32" customFormat="1" ht="0.75" hidden="1" customHeight="1">
       <c r="A90" s="103"/>
-      <c r="B90" s="357"/>
+      <c r="B90" s="328"/>
       <c r="C90" s="104"/>
       <c r="D90" s="105"/>
       <c r="E90" s="104"/>
@@ -45793,16 +45798,16 @@
       <c r="V111" s="90"/>
       <c r="W111" s="90"/>
       <c r="X111" s="90"/>
-      <c r="Y111" s="359"/>
-      <c r="Z111" s="359"/>
-      <c r="AA111" s="359"/>
-      <c r="AB111" s="359"/>
-      <c r="AC111" s="359"/>
-      <c r="AD111" s="359"/>
-      <c r="AE111" s="359"/>
-      <c r="AF111" s="359"/>
-      <c r="AG111" s="359"/>
-      <c r="AH111" s="359"/>
+      <c r="Y111" s="330"/>
+      <c r="Z111" s="330"/>
+      <c r="AA111" s="330"/>
+      <c r="AB111" s="330"/>
+      <c r="AC111" s="330"/>
+      <c r="AD111" s="330"/>
+      <c r="AE111" s="330"/>
+      <c r="AF111" s="330"/>
+      <c r="AG111" s="330"/>
+      <c r="AH111" s="330"/>
       <c r="AI111" s="81"/>
     </row>
     <row r="112" spans="1:167" ht="27" customHeight="1">
@@ -45941,16 +45946,16 @@
       <c r="V115" s="90"/>
       <c r="W115" s="90"/>
       <c r="X115" s="90"/>
-      <c r="Y115" s="351"/>
-      <c r="Z115" s="351"/>
-      <c r="AA115" s="351"/>
-      <c r="AB115" s="351"/>
-      <c r="AC115" s="351"/>
-      <c r="AD115" s="351"/>
-      <c r="AE115" s="351"/>
-      <c r="AF115" s="351"/>
-      <c r="AG115" s="351"/>
-      <c r="AH115" s="351"/>
+      <c r="Y115" s="320"/>
+      <c r="Z115" s="320"/>
+      <c r="AA115" s="320"/>
+      <c r="AB115" s="320"/>
+      <c r="AC115" s="320"/>
+      <c r="AD115" s="320"/>
+      <c r="AE115" s="320"/>
+      <c r="AF115" s="320"/>
+      <c r="AG115" s="320"/>
+      <c r="AH115" s="320"/>
       <c r="AI115" s="81"/>
     </row>
     <row r="116" spans="1:35" ht="27" customHeight="1">
@@ -47327,16 +47332,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y111:AH111"/>
-    <mergeCell ref="Y115:AH115"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:AG47"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:Z70"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:AG89"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AH2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
     <mergeCell ref="C32:AI33"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -47350,12 +47351,16 @@
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="AA31:AH31"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AH2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="Y111:AH111"/>
+    <mergeCell ref="Y115:AH115"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:AG47"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:Z70"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:AG89"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" verticalDpi="0" r:id="rId1"/>
